--- a/data/metadata/dicts/raw_SIMAT_clean.xlsx
+++ b/data/metadata/dicts/raw_SIMAT_clean.xlsx
@@ -352,7 +352,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AL527"/>
+  <dimension ref="A1:AL526"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -943,7 +943,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>NRO_DOCUMENTO</t>
+          <t>TIPO_DOCUMENTO</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -953,7 +953,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -962,113 +962,113 @@
         </is>
       </c>
       <c r="E5">
-        <v>60.60606060606066</v>
+        <v>63.63636363636361</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Ndoc</t>
+          <t>Tdoc</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>AL_NUME_ID</t>
+          <t>TI_CODI_ID</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Ndoc</t>
+          <t>Tdoc</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>nro_docum</t>
+          <t>tipo_docum</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>NRO_DOCUMENTO</t>
+          <t>TIPO_DOCUMENTO</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>nro_dcto</t>
+          <t>tipo_dcto...6</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>NRO_DOCUMENTO</t>
+          <t>TIPO_DOCUMENTO</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>Nro_documento</t>
+          <t>td</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>NRO_DOCUMENTO</t>
+          <t>TIPO_DOCUMENTO</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>NRO_DOCUMENTO</t>
+          <t>TIPO_DOCUMENTO</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>NRO_DOCUMENTO</t>
+          <t>TIPO_DOCUMENTO</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>NRO_DOCUMENTO</t>
+          <t>TIPO_DOCUMENTO</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>NRO_DOCUMENTO</t>
+          <t>TIPO_DOCUMENTO</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>NRO_DOCUMENTO</t>
+          <t>TIPO_DOCUMENTO</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>NRO_DOCUMENTO</t>
+          <t>TIPO_DOCUMENTO</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>NRO_DOCUMENTO</t>
+          <t>TIPO_DOCUMENTO</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>NRO_DOCUMENTO</t>
+          <t>TIPO_DOCUMENTO</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>NRO_DOCUMENTO</t>
+          <t>TIPO_DOCUMENTO</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>NRO_DOCUMENTO</t>
+          <t>TIPO_DOCUMENTO</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>NRO_DOCUMENTO</t>
+          <t>TIPO_DOCUMENTO</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>APELLIDO2</t>
+          <t>NRO_DOCUMENTO</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1083,117 +1083,117 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric; character</t>
         </is>
       </c>
       <c r="E6">
-        <v>60.60606060606063</v>
+        <v>60.60606060606066</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Apellido2</t>
+          <t>Ndoc</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>AL_SEGU_APEL</t>
+          <t>AL_NUME_ID</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>APELLIDO2</t>
+          <t>Ndoc</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>apellido2</t>
+          <t>nro_docum</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>APELLIDO2</t>
+          <t>NRO_DOCUMENTO</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>apellido2</t>
+          <t>nro_dcto</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>APELLIDO2</t>
+          <t>NRO_DOCUMENTO</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>apellido2</t>
+          <t>Nro_documento</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>APELLIDO2</t>
+          <t>NRO_DOCUMENTO</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>APELLIDO2</t>
+          <t>NRO_DOCUMENTO</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>APELLIDO2</t>
+          <t>NRO_DOCUMENTO</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>APELLIDO2</t>
+          <t>NRO_DOCUMENTO</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>APELLIDO2</t>
+          <t>NRO_DOCUMENTO</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>APELLIDO2</t>
+          <t>NRO_DOCUMENTO</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>APELLIDO2</t>
+          <t>NRO_DOCUMENTO</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>APELLIDO2</t>
+          <t>NRO_DOCUMENTO</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>APELLIDO2</t>
+          <t>NRO_DOCUMENTO</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>APELLIDO2</t>
+          <t>NRO_DOCUMENTO</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>APELLIDO2</t>
+          <t>NRO_DOCUMENTO</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>APELLIDO2</t>
+          <t>NRO_DOCUMENTO</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>NOMBRE2</t>
+          <t>APELLIDO2</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1216,109 +1216,109 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Nombre2</t>
+          <t>Apellido2</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>AL_SEGU_NOMB</t>
+          <t>AL_SEGU_APEL</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>NOMBRE2</t>
+          <t>APELLIDO2</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>nombre2</t>
+          <t>apellido2</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>NOMBRE2</t>
+          <t>APELLIDO2</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>nombre2</t>
+          <t>apellido2</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>NOMBRE2</t>
+          <t>APELLIDO2</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>nombre2</t>
+          <t>apellido2</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>NOMBRE2</t>
+          <t>APELLIDO2</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>NOMBRE2</t>
+          <t>APELLIDO2</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>NOMBRE2</t>
+          <t>APELLIDO2</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>NOMBRE2</t>
+          <t>APELLIDO2</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>NOMBRE2</t>
+          <t>APELLIDO2</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>NOMBRE2</t>
+          <t>APELLIDO2</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>NOMBRE2</t>
+          <t>APELLIDO2</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>NOMBRE2</t>
+          <t>APELLIDO2</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>NOMBRE2</t>
+          <t>APELLIDO2</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>NOMBRE2</t>
+          <t>APELLIDO2</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>NOMBRE2</t>
+          <t>APELLIDO2</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>NOMBRE2</t>
+          <t>APELLIDO2</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>TEL</t>
+          <t>NOMBRE2</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1337,113 +1337,113 @@
         </is>
       </c>
       <c r="E8">
-        <v>60.60606060606062</v>
+        <v>60.60606060606063</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Tel_res</t>
+          <t>Nombre2</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>AL_TELE_RESI</t>
+          <t>AL_SEGU_NOMB</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>TEL</t>
+          <t>NOMBRE2</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>telefono</t>
+          <t>nombre2</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>TEL</t>
+          <t>NOMBRE2</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>tel_ubicac</t>
+          <t>nombre2</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>TEL</t>
+          <t>NOMBRE2</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>tel</t>
+          <t>nombre2</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>TEL</t>
+          <t>NOMBRE2</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>TEL</t>
+          <t>NOMBRE2</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>TEL</t>
+          <t>NOMBRE2</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>TEL</t>
+          <t>NOMBRE2</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>TEL</t>
+          <t>NOMBRE2</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>TEL</t>
+          <t>NOMBRE2</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>TEL</t>
+          <t>NOMBRE2</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>TEL</t>
+          <t>NOMBRE2</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>TEL</t>
+          <t>NOMBRE2</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>TEL</t>
+          <t>NOMBRE2</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>TEL</t>
+          <t>NOMBRE2</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>TEL</t>
+          <t>NOMBRE2</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>TIPO_DOCUMENTO</t>
+          <t>TEL</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1453,110 +1453,115 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>numeric; character</t>
+          <t>character</t>
         </is>
       </c>
       <c r="E9">
-        <v>60.60606060606058</v>
+        <v>60.60606060606062</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Tdoc</t>
+          <t>Tel_res</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>TI_CODI_ID</t>
+          <t>AL_TELE_RESI</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Tdoc</t>
+          <t>TEL</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>telefono</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>TIPO_DOCUMENTO</t>
+          <t>TEL</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>tipo_dcto...6</t>
+          <t>tel_ubicac</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>TIPO_DOCUMENTO</t>
+          <t>TEL</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>td</t>
+          <t>tel</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>TIPO_DOCUMENTO</t>
+          <t>TEL</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>TIPO_DOCUMENTO</t>
+          <t>TEL</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>TIPO_DOCUMENTO</t>
+          <t>TEL</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>TIPO_DOCUMENTO</t>
+          <t>TEL</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>TIPO_DOCUMENTO</t>
+          <t>TEL</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>TIPO_DOCUMENTO</t>
+          <t>TEL</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>TIPO_DOCUMENTO</t>
+          <t>TEL</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>TIPO_DOCUMENTO</t>
+          <t>TEL</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>TIPO_DOCUMENTO</t>
+          <t>TEL</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>TIPO_DOCUMENTO</t>
+          <t>TEL</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>TIPO_DOCUMENTO</t>
+          <t>TEL</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>TIPO_DOCUMENTO</t>
+          <t>TEL</t>
         </is>
       </c>
     </row>
@@ -20513,7 +20518,7 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>TIPO_DOCUM</t>
+          <t>TIPO_DOCUMENTO_ACUDIENTE</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
@@ -20534,16 +20539,16 @@
       <c r="E500">
         <v>3.03030303030303</v>
       </c>
-      <c r="I500" t="inlineStr">
-        <is>
-          <t>tipo_docum</t>
+      <c r="F500" t="inlineStr">
+        <is>
+          <t>NdocAcud</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>TIPO_DOCUMENTO_ACUDIENTE</t>
+          <t>TIQUETE</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
@@ -20566,134 +20571,134 @@
       </c>
       <c r="F501" t="inlineStr">
         <is>
-          <t>NdocAcud</t>
+          <t>TIQUETE</t>
         </is>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>TIQUETE</t>
+          <t>TOTAL GENERAL</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="D502" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="E502">
         <v>3.03030303030303</v>
       </c>
-      <c r="F502" t="inlineStr">
-        <is>
-          <t>TIQUETE</t>
+      <c r="U502" t="inlineStr">
+        <is>
+          <t>Total general</t>
         </is>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>TOTAL GENERAL</t>
+          <t>TOXOIDE</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="D503" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="E503">
         <v>3.03030303030303</v>
       </c>
-      <c r="U503" t="inlineStr">
-        <is>
-          <t>Total general</t>
+      <c r="F503" t="inlineStr">
+        <is>
+          <t>toxoide</t>
         </is>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>TOXOIDE</t>
+          <t>TRANSICI</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="D504" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="E504">
         <v>3.03030303030303</v>
       </c>
-      <c r="F504" t="inlineStr">
-        <is>
-          <t>toxoide</t>
+      <c r="M504" t="inlineStr">
+        <is>
+          <t>transici</t>
         </is>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>TRANSICI</t>
+          <t>TSANGRE</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="D505" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="E505">
         <v>3.03030303030303</v>
       </c>
-      <c r="M505" t="inlineStr">
-        <is>
-          <t>transici</t>
+      <c r="F505" t="inlineStr">
+        <is>
+          <t>TSangre</t>
         </is>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>TSANGRE</t>
+          <t>ULT_DPTO_EXP</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
@@ -20714,16 +20719,16 @@
       <c r="E506">
         <v>3.03030303030303</v>
       </c>
-      <c r="F506" t="inlineStr">
-        <is>
-          <t>TSangre</t>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>ult_dpto_exp</t>
         </is>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>ULT_DPTO_EXP</t>
+          <t>ULT_MPIO_EXP</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
@@ -20746,44 +20751,44 @@
       </c>
       <c r="K507" t="inlineStr">
         <is>
-          <t>ult_dpto_exp</t>
+          <t>ult_mpio_exp</t>
         </is>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>ULT_MPIO_EXP</t>
+          <t>V1</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>logical</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>logical</t>
         </is>
       </c>
       <c r="D508" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>logical</t>
         </is>
       </c>
       <c r="E508">
         <v>3.03030303030303</v>
       </c>
-      <c r="K508" t="inlineStr">
-        <is>
-          <t>ult_mpio_exp</t>
+      <c r="M508" t="inlineStr">
+        <is>
+          <t>v1</t>
         </is>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>V1</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
@@ -20806,44 +20811,44 @@
       </c>
       <c r="M509" t="inlineStr">
         <is>
-          <t>v1</t>
+          <t>v2</t>
         </is>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>VEREDA</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>logical</t>
+          <t>character</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>logical</t>
+          <t>character</t>
         </is>
       </c>
       <c r="D510" t="inlineStr">
         <is>
-          <t>logical</t>
+          <t>character</t>
         </is>
       </c>
       <c r="E510">
         <v>3.03030303030303</v>
       </c>
-      <c r="M510" t="inlineStr">
-        <is>
-          <t>v2</t>
+      <c r="Z510" t="inlineStr">
+        <is>
+          <t>VEREDA</t>
         </is>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>VEREDA</t>
+          <t>VICTIMA_CONFLICTO</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
@@ -20864,16 +20869,16 @@
       <c r="E511">
         <v>3.03030303030303</v>
       </c>
-      <c r="Z511" t="inlineStr">
-        <is>
-          <t>VEREDA</t>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>victima_conflicto</t>
         </is>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>VICTIMA_CONFLICTO</t>
+          <t>VLECHE</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
@@ -20894,16 +20899,16 @@
       <c r="E512">
         <v>3.03030303030303</v>
       </c>
-      <c r="K512" t="inlineStr">
-        <is>
-          <t>victima_conflicto</t>
+      <c r="F512" t="inlineStr">
+        <is>
+          <t>VLeche</t>
         </is>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>VLECHE</t>
+          <t>X</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
@@ -20924,16 +20929,16 @@
       <c r="E513">
         <v>3.03030303030303</v>
       </c>
-      <c r="F513" t="inlineStr">
-        <is>
-          <t>VLeche</t>
+      <c r="X513" t="inlineStr">
+        <is>
+          <t>x</t>
         </is>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>X...11</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
@@ -20954,16 +20959,16 @@
       <c r="E514">
         <v>3.03030303030303</v>
       </c>
-      <c r="X514" t="inlineStr">
-        <is>
-          <t>x</t>
+      <c r="AA514" t="inlineStr">
+        <is>
+          <t>x...11</t>
         </is>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>X...11</t>
+          <t>X...24</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
@@ -20986,14 +20991,14 @@
       </c>
       <c r="AA515" t="inlineStr">
         <is>
-          <t>x...11</t>
+          <t>x...24</t>
         </is>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>X...24</t>
+          <t>X...38</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
@@ -21016,14 +21021,14 @@
       </c>
       <c r="AA516" t="inlineStr">
         <is>
-          <t>x...24</t>
+          <t>x...38</t>
         </is>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>X...38</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
@@ -21044,16 +21049,16 @@
       <c r="E517">
         <v>3.03030303030303</v>
       </c>
-      <c r="AA517" t="inlineStr">
-        <is>
-          <t>x...38</t>
+      <c r="X517" t="inlineStr">
+        <is>
+          <t>y</t>
         </is>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>Y...12</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
@@ -21074,16 +21079,16 @@
       <c r="E518">
         <v>3.03030303030303</v>
       </c>
-      <c r="X518" t="inlineStr">
-        <is>
-          <t>y</t>
+      <c r="AA518" t="inlineStr">
+        <is>
+          <t>y...12</t>
         </is>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>Y...12</t>
+          <t>Y...25</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
@@ -21106,14 +21111,14 @@
       </c>
       <c r="AA519" t="inlineStr">
         <is>
-          <t>y...12</t>
+          <t>y...25</t>
         </is>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>Y...25</t>
+          <t>Y...39</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
@@ -21136,14 +21141,14 @@
       </c>
       <c r="AA520" t="inlineStr">
         <is>
-          <t>y...25</t>
+          <t>y...39</t>
         </is>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>Y...39</t>
+          <t>ZONA</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
@@ -21164,16 +21169,16 @@
       <c r="E521">
         <v>3.03030303030303</v>
       </c>
-      <c r="AA521" t="inlineStr">
-        <is>
-          <t>y...39</t>
+      <c r="F521" t="inlineStr">
+        <is>
+          <t>Zona</t>
         </is>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>ZONA</t>
+          <t>ZONA (GEOREFERENCIADO)</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
@@ -21194,16 +21199,16 @@
       <c r="E522">
         <v>3.03030303030303</v>
       </c>
-      <c r="F522" t="inlineStr">
-        <is>
-          <t>Zona</t>
+      <c r="Z522" t="inlineStr">
+        <is>
+          <t>ZONA (Georeferenciado)</t>
         </is>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>ZONA (GEOREFERENCIADO)</t>
+          <t>ZONA SEDE</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
@@ -21224,16 +21229,16 @@
       <c r="E523">
         <v>3.03030303030303</v>
       </c>
-      <c r="Z523" t="inlineStr">
-        <is>
-          <t>ZONA (Georeferenciado)</t>
+      <c r="N523" t="inlineStr">
+        <is>
+          <t>ZONA SEDE</t>
         </is>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>ZONA SEDE</t>
+          <t>ZONA SINEB</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
@@ -21254,16 +21259,16 @@
       <c r="E524">
         <v>3.03030303030303</v>
       </c>
-      <c r="N524" t="inlineStr">
-        <is>
-          <t>ZONA SEDE</t>
+      <c r="Z524" t="inlineStr">
+        <is>
+          <t>ZONA SINEB</t>
         </is>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>ZONA SINEB</t>
+          <t>ZONA_RESIDE_ALUM</t>
         </is>
       </c>
       <c r="B525" t="inlineStr">
@@ -21284,16 +21289,16 @@
       <c r="E525">
         <v>3.03030303030303</v>
       </c>
-      <c r="Z525" t="inlineStr">
-        <is>
-          <t>ZONA SINEB</t>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>zona_reside_alum</t>
         </is>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>ZONA_RESIDE_ALUM</t>
+          <t>º</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
@@ -21314,37 +21319,7 @@
       <c r="E526">
         <v>3.03030303030303</v>
       </c>
-      <c r="K526" t="inlineStr">
-        <is>
-          <t>zona_reside_alum</t>
-        </is>
-      </c>
-    </row>
-    <row r="527">
-      <c r="A527" t="inlineStr">
-        <is>
-          <t>º</t>
-        </is>
-      </c>
-      <c r="B527" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
-      <c r="C527" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
-      <c r="D527" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
-      <c r="E527">
-        <v>3.03030303030303</v>
-      </c>
-      <c r="V527" t="inlineStr">
+      <c r="V526" t="inlineStr">
         <is>
           <t>º</t>
         </is>
@@ -21357,7 +21332,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH527"/>
+  <dimension ref="A1:AH549"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -25666,6 +25641,11 @@
           <t>character</t>
         </is>
       </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>character</t>
+        </is>
+      </c>
       <c r="F47" t="inlineStr">
         <is>
           <t>numeric</t>
@@ -27711,20 +27691,20 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>numeric</t>
-        </is>
-      </c>
-      <c r="X96" t="inlineStr">
-        <is>
-          <t>numeric</t>
-        </is>
-      </c>
-      <c r="AC96" t="inlineStr">
+          <t>TDOC</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
         <is>
           <t>numeric</t>
         </is>
@@ -27733,20 +27713,20 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>TRASTORNOS_ESPECIFICOS</t>
-        </is>
-      </c>
-      <c r="AD97" t="inlineStr">
-        <is>
-          <t>numeric</t>
-        </is>
-      </c>
-      <c r="AG97" t="inlineStr">
-        <is>
-          <t>numeric</t>
-        </is>
-      </c>
-      <c r="AH97" t="inlineStr">
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>numeric</t>
+        </is>
+      </c>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>numeric</t>
+        </is>
+      </c>
+      <c r="AC97" t="inlineStr">
         <is>
           <t>numeric</t>
         </is>
@@ -27755,15 +27735,20 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>...10</t>
-        </is>
-      </c>
-      <c r="AE98" t="inlineStr">
-        <is>
-          <t>numeric</t>
-        </is>
-      </c>
-      <c r="AF98" t="inlineStr">
+          <t>TRASTORNOS_ESPECIFICOS</t>
+        </is>
+      </c>
+      <c r="AD98" t="inlineStr">
+        <is>
+          <t>numeric</t>
+        </is>
+      </c>
+      <c r="AG98" t="inlineStr">
+        <is>
+          <t>numeric</t>
+        </is>
+      </c>
+      <c r="AH98" t="inlineStr">
         <is>
           <t>numeric</t>
         </is>
@@ -27772,7 +27757,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>...11</t>
+          <t>...10</t>
         </is>
       </c>
       <c r="AE99" t="inlineStr">
@@ -27789,7 +27774,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>...12</t>
+          <t>...11</t>
         </is>
       </c>
       <c r="AE100" t="inlineStr">
@@ -27806,7 +27791,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>...14</t>
+          <t>...12</t>
         </is>
       </c>
       <c r="AE101" t="inlineStr">
@@ -27823,12 +27808,12 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>...15</t>
+          <t>...14</t>
         </is>
       </c>
       <c r="AE102" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="AF102" t="inlineStr">
@@ -27840,7 +27825,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>...16</t>
+          <t>...15</t>
         </is>
       </c>
       <c r="AE103" t="inlineStr">
@@ -27857,7 +27842,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>...17</t>
+          <t>...16</t>
         </is>
       </c>
       <c r="AE104" t="inlineStr">
@@ -27874,7 +27859,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>...18</t>
+          <t>...17</t>
         </is>
       </c>
       <c r="AE105" t="inlineStr">
@@ -27891,7 +27876,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>...19</t>
+          <t>...18</t>
         </is>
       </c>
       <c r="AE106" t="inlineStr">
@@ -27908,24 +27893,24 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>...2</t>
-        </is>
-      </c>
-      <c r="O107" t="inlineStr">
-        <is>
-          <t>logical</t>
+          <t>...19</t>
         </is>
       </c>
       <c r="AE107" t="inlineStr">
         <is>
           <t>character</t>
+        </is>
+      </c>
+      <c r="AF107" t="inlineStr">
+        <is>
+          <t>numeric</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>...3</t>
+          <t>...2</t>
         </is>
       </c>
       <c r="O108" t="inlineStr">
@@ -27933,21 +27918,21 @@
           <t>logical</t>
         </is>
       </c>
-      <c r="AF108" t="inlineStr">
-        <is>
-          <t>numeric</t>
+      <c r="AE108" t="inlineStr">
+        <is>
+          <t>character</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>...5</t>
-        </is>
-      </c>
-      <c r="AE109" t="inlineStr">
-        <is>
-          <t>numeric</t>
+          <t>...3</t>
+        </is>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>logical</t>
         </is>
       </c>
       <c r="AF109" t="inlineStr">
@@ -27959,7 +27944,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>...6</t>
+          <t>...5</t>
         </is>
       </c>
       <c r="AE110" t="inlineStr">
@@ -27976,7 +27961,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>...7</t>
+          <t>...6</t>
         </is>
       </c>
       <c r="AE111" t="inlineStr">
@@ -27993,7 +27978,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>...8</t>
+          <t>...7</t>
         </is>
       </c>
       <c r="AE112" t="inlineStr">
@@ -28010,7 +27995,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>...9</t>
+          <t>...8</t>
         </is>
       </c>
       <c r="AE113" t="inlineStr">
@@ -28027,15 +28012,15 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
-      <c r="Q114" t="inlineStr">
+          <t>...9</t>
+        </is>
+      </c>
+      <c r="AE114" t="inlineStr">
+        <is>
+          <t>numeric</t>
+        </is>
+      </c>
+      <c r="AF114" t="inlineStr">
         <is>
           <t>numeric</t>
         </is>
@@ -28044,15 +28029,15 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>AL_AO_ESTA</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
-      <c r="I115" t="inlineStr">
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="Q115" t="inlineStr">
         <is>
           <t>numeric</t>
         </is>
@@ -28061,7 +28046,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>AL_ESTR</t>
+          <t>AL_AO_ESTA</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -28078,7 +28063,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>AL_INDI_REPT</t>
+          <t>AL_ESTR</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -28088,14 +28073,14 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>AL_NIVE_SISB</t>
+          <t>AL_INDI_REPT</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -28105,14 +28090,14 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>AL_PUNT_SISB</t>
+          <t>AL_NIVE_SISB</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -28129,49 +28114,49 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>ANNO_CARGA</t>
-        </is>
-      </c>
-      <c r="J120" t="inlineStr">
-        <is>
-          <t>numeric</t>
-        </is>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>numeric</t>
+          <t>AL_NOMB_ACUD</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>character</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>APELLIDO1_FON</t>
-        </is>
-      </c>
-      <c r="M121" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
-      <c r="R121" t="inlineStr">
-        <is>
-          <t>character</t>
+          <t>AL_PUNT_SISB</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>numeric</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>APELLIDO2_FON</t>
-        </is>
-      </c>
-      <c r="M122" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
-      <c r="R122" t="inlineStr">
+          <t>AL_TELE_RESI_ACU</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
         <is>
           <t>character</t>
         </is>
@@ -28180,15 +28165,15 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>BR_CODI_ID</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
-      <c r="I123" t="inlineStr">
+          <t>ANNO_CARGA</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>numeric</t>
+        </is>
+      </c>
+      <c r="K123" t="inlineStr">
         <is>
           <t>numeric</t>
         </is>
@@ -28197,46 +28182,46 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>C_DANE</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>numeric</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>numeric</t>
+          <t>APELLIDO1_FON</t>
+        </is>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="R124" t="inlineStr">
+        <is>
+          <t>character</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>CARÁCTER</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>numeric</t>
+          <t>APELLIDO2_FON</t>
+        </is>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="R125" t="inlineStr">
+        <is>
+          <t>character</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>COD_DANE</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>numeric</t>
+          <t>BR_CODI_ID</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>character</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -28248,32 +28233,32 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>COMUNA 2014</t>
+          <t>C_DANE</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>numeric</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
           <t>numeric</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>logical</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>CONSECUTIVO DANE</t>
-        </is>
-      </c>
-      <c r="N128" t="inlineStr">
-        <is>
-          <t>numeric</t>
-        </is>
-      </c>
-      <c r="V128" t="inlineStr">
+          <t>CARÁCTER</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
         <is>
           <t>numeric</t>
         </is>
@@ -28282,41 +28267,41 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>COR_ID</t>
-        </is>
-      </c>
-      <c r="J129" t="inlineStr">
-        <is>
-          <t>logical</t>
-        </is>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>logical</t>
+          <t>COD_DANE</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>numeric</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>numeric</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>CORTE_EDAD_FINAL</t>
-        </is>
-      </c>
-      <c r="AD130" t="inlineStr">
-        <is>
-          <t>POSIXct;POSIXt</t>
-        </is>
-      </c>
-      <c r="AG130" t="inlineStr">
-        <is>
-          <t>POSIXct;POSIXt</t>
+          <t>COMUNA 2014</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>numeric</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>logical</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>DANE ANTERIOR</t>
+          <t>CONSECUTIVO DANE</t>
         </is>
       </c>
       <c r="N131" t="inlineStr">
@@ -28333,49 +28318,49 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>DANE ESTABLECIMIENTO</t>
-        </is>
-      </c>
-      <c r="N132" t="inlineStr">
-        <is>
-          <t>numeric</t>
-        </is>
-      </c>
-      <c r="V132" t="inlineStr">
-        <is>
-          <t>numeric</t>
+          <t>COR_ID</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>logical</t>
+        </is>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>logical</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>DISCAPACIDAD_HOMOLGADA_2021</t>
+          <t>CORTE_EDAD_FINAL</t>
+        </is>
+      </c>
+      <c r="AD133" t="inlineStr">
+        <is>
+          <t>POSIXct;POSIXt</t>
         </is>
       </c>
       <c r="AG133" t="inlineStr">
         <is>
-          <t>numeric</t>
-        </is>
-      </c>
-      <c r="AH133" t="inlineStr">
-        <is>
-          <t>numeric</t>
+          <t>POSIXct;POSIXt</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>EDAD_FINAL</t>
-        </is>
-      </c>
-      <c r="AD134" t="inlineStr">
-        <is>
-          <t>numeric</t>
-        </is>
-      </c>
-      <c r="AG134" t="inlineStr">
+          <t>DANE ANTERIOR</t>
+        </is>
+      </c>
+      <c r="N134" t="inlineStr">
+        <is>
+          <t>numeric</t>
+        </is>
+      </c>
+      <c r="V134" t="inlineStr">
         <is>
           <t>numeric</t>
         </is>
@@ -28384,15 +28369,15 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>EFICIENCIA</t>
-        </is>
-      </c>
-      <c r="AA135" t="inlineStr">
-        <is>
-          <t>numeric</t>
-        </is>
-      </c>
-      <c r="AD135" t="inlineStr">
+          <t>DANE ESTABLECIMIENTO</t>
+        </is>
+      </c>
+      <c r="N135" t="inlineStr">
+        <is>
+          <t>numeric</t>
+        </is>
+      </c>
+      <c r="V135" t="inlineStr">
         <is>
           <t>numeric</t>
         </is>
@@ -28401,15 +28386,15 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>EL_CODI_ID</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
-      <c r="I136" t="inlineStr">
+          <t>DISCAPACIDAD_HOMOLGADA_2021</t>
+        </is>
+      </c>
+      <c r="AG136" t="inlineStr">
+        <is>
+          <t>numeric</t>
+        </is>
+      </c>
+      <c r="AH136" t="inlineStr">
         <is>
           <t>numeric</t>
         </is>
@@ -28418,15 +28403,15 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>ES_CODI_ID</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
-      <c r="I137" t="inlineStr">
+          <t>EDAD_FINAL</t>
+        </is>
+      </c>
+      <c r="AD137" t="inlineStr">
+        <is>
+          <t>numeric</t>
+        </is>
+      </c>
+      <c r="AG137" t="inlineStr">
         <is>
           <t>numeric</t>
         </is>
@@ -28435,41 +28420,41 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>FECHA DE CORTE</t>
-        </is>
-      </c>
-      <c r="I138" t="inlineStr">
-        <is>
-          <t>numeric</t>
-        </is>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>POSIXct;POSIXt</t>
+          <t>EFICIENCIA</t>
+        </is>
+      </c>
+      <c r="AA138" t="inlineStr">
+        <is>
+          <t>numeric</t>
+        </is>
+      </c>
+      <c r="AD138" t="inlineStr">
+        <is>
+          <t>numeric</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>FECHA_NOVEDAD</t>
-        </is>
-      </c>
-      <c r="M139" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
-      <c r="AH139" t="inlineStr">
-        <is>
-          <t>character</t>
+          <t>EL_CODI_ID</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>numeric</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>GP_CODI_ID</t>
+          <t>ES_CODI_ID</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -28486,58 +28471,58 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>GR_CODI_ID</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>character</t>
+          <t>FECHA DE CORTE</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
           <t>numeric</t>
+        </is>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>POSIXct;POSIXt</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>INDICATIVO</t>
-        </is>
-      </c>
-      <c r="R142" t="inlineStr">
-        <is>
-          <t>numeric</t>
-        </is>
-      </c>
-      <c r="T142" t="inlineStr">
-        <is>
-          <t>numeric</t>
+          <t>FECHA_NOVEDAD</t>
+        </is>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="AH142" t="inlineStr">
+        <is>
+          <t>character</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>JORNADA</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
-      <c r="G143" t="inlineStr">
-        <is>
-          <t>character</t>
+          <t>GP_CODI_ID</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>numeric</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>JR_CODI_ID</t>
+          <t>GR_CODI_ID</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -28554,15 +28539,15 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>logical</t>
-        </is>
-      </c>
-      <c r="Q145" t="inlineStr">
+          <t>INDICATIVO</t>
+        </is>
+      </c>
+      <c r="R145" t="inlineStr">
+        <is>
+          <t>numeric</t>
+        </is>
+      </c>
+      <c r="T145" t="inlineStr">
         <is>
           <t>numeric</t>
         </is>
@@ -28571,15 +28556,15 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>MATRICULA_CONTRATADA</t>
-        </is>
-      </c>
-      <c r="I146" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
-      <c r="U146" t="inlineStr">
+          <t>JORNADA</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
         <is>
           <t>character</t>
         </is>
@@ -28588,15 +28573,15 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>MUNI_CARGA</t>
-        </is>
-      </c>
-      <c r="J147" t="inlineStr">
-        <is>
-          <t>numeric</t>
-        </is>
-      </c>
-      <c r="K147" t="inlineStr">
+          <t>JR_CODI_ID</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
         <is>
           <t>numeric</t>
         </is>
@@ -28605,32 +28590,32 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>NIV_CONPES</t>
-        </is>
-      </c>
-      <c r="M148" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
-      <c r="R148" t="inlineStr">
-        <is>
-          <t>character</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>logical</t>
+        </is>
+      </c>
+      <c r="Q148" t="inlineStr">
+        <is>
+          <t>numeric</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>NIVEL</t>
-        </is>
-      </c>
-      <c r="P149" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
-      <c r="R149" t="inlineStr">
+          <t>MATRICULA_CONTRATADA</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="U149" t="inlineStr">
         <is>
           <t>character</t>
         </is>
@@ -28639,32 +28624,32 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>NOMBRE</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>character</t>
+          <t>MUNI_CARGA</t>
+        </is>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>numeric</t>
+        </is>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>numeric</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>NOMBRE COMUNA</t>
-        </is>
-      </c>
-      <c r="N151" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
-      <c r="V151" t="inlineStr">
+          <t>NDOC</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
         <is>
           <t>character</t>
         </is>
@@ -28673,15 +28658,15 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>NOMBRE SEDE</t>
-        </is>
-      </c>
-      <c r="N152" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
-      <c r="V152" t="inlineStr">
+          <t>NIV_CONPES</t>
+        </is>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="R152" t="inlineStr">
         <is>
           <t>character</t>
         </is>
@@ -28690,10 +28675,10 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>NOMBRE1_FON</t>
-        </is>
-      </c>
-      <c r="M153" t="inlineStr">
+          <t>NIVEL</t>
+        </is>
+      </c>
+      <c r="P153" t="inlineStr">
         <is>
           <t>character</t>
         </is>
@@ -28707,15 +28692,15 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>NOMBRE2_FON</t>
-        </is>
-      </c>
-      <c r="M154" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
-      <c r="R154" t="inlineStr">
+          <t>NOMBRE</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
         <is>
           <t>character</t>
         </is>
@@ -28724,49 +28709,49 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>ORDEN</t>
-        </is>
-      </c>
-      <c r="U155" t="inlineStr">
-        <is>
-          <t>numeric</t>
-        </is>
-      </c>
-      <c r="AA155" t="inlineStr">
-        <is>
-          <t>numeric</t>
+          <t>NOMBRE COMUNA</t>
+        </is>
+      </c>
+      <c r="N155" t="inlineStr">
+        <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="V155" t="inlineStr">
+        <is>
+          <t>character</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>PE_CODI_ID</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
-      <c r="I156" t="inlineStr">
-        <is>
-          <t>numeric</t>
+          <t>NOMBRE SEDE</t>
+        </is>
+      </c>
+      <c r="N156" t="inlineStr">
+        <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="V156" t="inlineStr">
+        <is>
+          <t>character</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>PREESTACION SERV</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
+          <t>NOMBRE1_FON</t>
+        </is>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="R157" t="inlineStr">
         <is>
           <t>character</t>
         </is>
@@ -28775,15 +28760,15 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>PREST SERVICIO</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
-      <c r="L158" t="inlineStr">
+          <t>NOMBRE2_FON</t>
+        </is>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="R158" t="inlineStr">
         <is>
           <t>character</t>
         </is>
@@ -28792,49 +28777,49 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>PRESTACION DEL SERVICIO</t>
-        </is>
-      </c>
-      <c r="J159" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
-      <c r="V159" t="inlineStr">
-        <is>
-          <t>character</t>
+          <t>ORDEN</t>
+        </is>
+      </c>
+      <c r="U159" t="inlineStr">
+        <is>
+          <t>numeric</t>
+        </is>
+      </c>
+      <c r="AA159" t="inlineStr">
+        <is>
+          <t>numeric</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>PRESTACIÒN DEL SERVICIO</t>
-        </is>
-      </c>
-      <c r="Q160" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
-      <c r="R160" t="inlineStr">
-        <is>
-          <t>character</t>
+          <t>PE_CODI_ID</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>numeric</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>SECTOR</t>
-        </is>
-      </c>
-      <c r="V161" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
-      <c r="Z161" t="inlineStr">
+          <t>PREESTACION SERV</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
         <is>
           <t>character</t>
         </is>
@@ -28843,15 +28828,15 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>SEDE</t>
-        </is>
-      </c>
-      <c r="I162" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
-      <c r="J162" t="inlineStr">
+          <t>PREST SERVICIO</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="L162" t="inlineStr">
         <is>
           <t>character</t>
         </is>
@@ -28860,34 +28845,49 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="Q163" t="inlineStr">
-        <is>
-          <t>numeric</t>
+          <t>PRESTACION DEL SERVICIO</t>
+        </is>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="V163" t="inlineStr">
+        <is>
+          <t>character</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>PRESTACIÒN DEL SERVICIO</t>
         </is>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="R164" t="inlineStr">
+        <is>
+          <t>character</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>...1</t>
-        </is>
-      </c>
-      <c r="O165" t="inlineStr">
+          <t>SECTOR</t>
+        </is>
+      </c>
+      <c r="V165" t="inlineStr">
+        <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="Z165" t="inlineStr">
         <is>
           <t>character</t>
         </is>
@@ -28896,22 +28896,27 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>...20</t>
-        </is>
-      </c>
-      <c r="AF166" t="inlineStr">
-        <is>
-          <t>numeric</t>
+          <t>SEDE</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>character</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>...21</t>
-        </is>
-      </c>
-      <c r="AF167" t="inlineStr">
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="Q167" t="inlineStr">
         <is>
           <t>numeric</t>
         </is>
@@ -28920,10 +28925,10 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>...22</t>
-        </is>
-      </c>
-      <c r="AF168" t="inlineStr">
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="Q168" t="inlineStr">
         <is>
           <t>numeric</t>
         </is>
@@ -28932,19 +28937,19 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>...23</t>
-        </is>
-      </c>
-      <c r="AF169" t="inlineStr">
-        <is>
-          <t>numeric</t>
+          <t>...1</t>
+        </is>
+      </c>
+      <c r="O169" t="inlineStr">
+        <is>
+          <t>character</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>...24</t>
+          <t>...20</t>
         </is>
       </c>
       <c r="AF170" t="inlineStr">
@@ -28956,46 +28961,46 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>...25</t>
+          <t>...21</t>
         </is>
       </c>
       <c r="AF171" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>...26</t>
-        </is>
-      </c>
-      <c r="W172" t="inlineStr">
-        <is>
-          <t>logical</t>
+          <t>...22</t>
+        </is>
+      </c>
+      <c r="AF172" t="inlineStr">
+        <is>
+          <t>numeric</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>...27</t>
-        </is>
-      </c>
-      <c r="W173" t="inlineStr">
-        <is>
-          <t>logical</t>
+          <t>...23</t>
+        </is>
+      </c>
+      <c r="AF173" t="inlineStr">
+        <is>
+          <t>numeric</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q174" t="inlineStr">
+          <t>...24</t>
+        </is>
+      </c>
+      <c r="AF174" t="inlineStr">
         <is>
           <t>numeric</t>
         </is>
@@ -29004,55 +29009,55 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Q175" t="inlineStr">
-        <is>
-          <t>numeric</t>
+          <t>...25</t>
+        </is>
+      </c>
+      <c r="AF175" t="inlineStr">
+        <is>
+          <t>character</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="Q176" t="inlineStr">
-        <is>
-          <t>numeric</t>
+          <t>...26</t>
+        </is>
+      </c>
+      <c r="W176" t="inlineStr">
+        <is>
+          <t>logical</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="Q177" t="inlineStr">
-        <is>
-          <t>numeric</t>
+          <t>...27</t>
+        </is>
+      </c>
+      <c r="W177" t="inlineStr">
+        <is>
+          <t>logical</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>11383</t>
-        </is>
-      </c>
-      <c r="G178" t="inlineStr">
-        <is>
-          <t>POSIXct;POSIXt</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q178" t="inlineStr">
+        <is>
+          <t>numeric</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Q179" t="inlineStr">
@@ -29064,7 +29069,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>10</t>
         </is>
       </c>
       <c r="Q180" t="inlineStr">
@@ -29076,7 +29081,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>11</t>
         </is>
       </c>
       <c r="Q181" t="inlineStr">
@@ -29088,19 +29093,19 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="Q182" t="inlineStr">
-        <is>
-          <t>numeric</t>
+          <t>11383</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>POSIXct;POSIXt</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>12</t>
         </is>
       </c>
       <c r="Q183" t="inlineStr">
@@ -29112,7 +29117,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>13</t>
         </is>
       </c>
       <c r="Q184" t="inlineStr">
@@ -29124,7 +29129,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Q185" t="inlineStr">
@@ -29136,7 +29141,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>21</t>
         </is>
       </c>
       <c r="Q186" t="inlineStr">
@@ -29148,7 +29153,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>22</t>
         </is>
       </c>
       <c r="Q187" t="inlineStr">
@@ -29160,10 +29165,10 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>36982</t>
-        </is>
-      </c>
-      <c r="AD188" t="inlineStr">
+          <t>23</t>
+        </is>
+      </c>
+      <c r="Q188" t="inlineStr">
         <is>
           <t>numeric</t>
         </is>
@@ -29172,10 +29177,10 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>37012</t>
-        </is>
-      </c>
-      <c r="AD189" t="inlineStr">
+          <t>24</t>
+        </is>
+      </c>
+      <c r="Q189" t="inlineStr">
         <is>
           <t>numeric</t>
         </is>
@@ -29184,10 +29189,10 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>37043</t>
-        </is>
-      </c>
-      <c r="AD190" t="inlineStr">
+          <t>25</t>
+        </is>
+      </c>
+      <c r="Q190" t="inlineStr">
         <is>
           <t>numeric</t>
         </is>
@@ -29196,10 +29201,10 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>37073</t>
-        </is>
-      </c>
-      <c r="AD191" t="inlineStr">
+          <t>26</t>
+        </is>
+      </c>
+      <c r="Q191" t="inlineStr">
         <is>
           <t>numeric</t>
         </is>
@@ -29208,7 +29213,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>37104</t>
+          <t>36982</t>
         </is>
       </c>
       <c r="AD192" t="inlineStr">
@@ -29220,7 +29225,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>37135</t>
+          <t>37012</t>
         </is>
       </c>
       <c r="AD193" t="inlineStr">
@@ -29232,7 +29237,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>37165</t>
+          <t>37043</t>
         </is>
       </c>
       <c r="AD194" t="inlineStr">
@@ -29244,7 +29249,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>37196</t>
+          <t>37073</t>
         </is>
       </c>
       <c r="AD195" t="inlineStr">
@@ -29256,22 +29261,22 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>39538</t>
-        </is>
-      </c>
-      <c r="F196" t="inlineStr">
-        <is>
-          <t>POSIXct;POSIXt</t>
+          <t>37104</t>
+        </is>
+      </c>
+      <c r="AD196" t="inlineStr">
+        <is>
+          <t>numeric</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="Q197" t="inlineStr">
+          <t>37135</t>
+        </is>
+      </c>
+      <c r="AD197" t="inlineStr">
         <is>
           <t>numeric</t>
         </is>
@@ -29280,19 +29285,19 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>41364</t>
-        </is>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>logical</t>
+          <t>37165</t>
+        </is>
+      </c>
+      <c r="AD198" t="inlineStr">
+        <is>
+          <t>numeric</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>43921</t>
+          <t>37196</t>
         </is>
       </c>
       <c r="AD199" t="inlineStr">
@@ -29304,19 +29309,19 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>44286</t>
-        </is>
-      </c>
-      <c r="AG200" t="inlineStr">
-        <is>
-          <t>numeric</t>
+          <t>39538</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>POSIXct;POSIXt</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q201" t="inlineStr">
@@ -29328,22 +29333,22 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="Q202" t="inlineStr">
-        <is>
-          <t>numeric</t>
+          <t>41364</t>
+        </is>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>logical</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="Q203" t="inlineStr">
+          <t>43921</t>
+        </is>
+      </c>
+      <c r="AD203" t="inlineStr">
         <is>
           <t>numeric</t>
         </is>
@@ -29352,10 +29357,10 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="Q204" t="inlineStr">
+          <t>44286</t>
+        </is>
+      </c>
+      <c r="AG204" t="inlineStr">
         <is>
           <t>numeric</t>
         </is>
@@ -29364,7 +29369,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>5</t>
         </is>
       </c>
       <c r="Q205" t="inlineStr">
@@ -29376,7 +29381,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>6</t>
         </is>
       </c>
       <c r="Q206" t="inlineStr">
@@ -29388,7 +29393,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>7</t>
         </is>
       </c>
       <c r="Q207" t="inlineStr">
@@ -29400,46 +29405,46 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>AGUDEZVIS</t>
-        </is>
-      </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>character</t>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="Q208" t="inlineStr">
+        <is>
+          <t>numeric</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>NRO_DOCUMENTO_ACUDIENTE</t>
-        </is>
-      </c>
-      <c r="C209" t="inlineStr">
-        <is>
-          <t>character</t>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="Q209" t="inlineStr">
+        <is>
+          <t>numeric</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>AL_FACT_RH</t>
-        </is>
-      </c>
-      <c r="C210" t="inlineStr">
-        <is>
-          <t>character</t>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="Q210" t="inlineStr">
+        <is>
+          <t>numeric</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>AL_FECH_ESTA</t>
-        </is>
-      </c>
-      <c r="C211" t="inlineStr">
+          <t>A</t>
+        </is>
+      </c>
+      <c r="Q211" t="inlineStr">
         <is>
           <t>numeric</t>
         </is>
@@ -29448,19 +29453,19 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>AL_FECH_NACI</t>
-        </is>
-      </c>
-      <c r="C212" t="inlineStr">
-        <is>
-          <t>numeric</t>
+          <t>AGUDEZVIS</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>character</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>AL_GENE</t>
+          <t>NRO_DOCUMENTO_ACUDIENTE</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -29472,7 +29477,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>AL_GRUP_SANG</t>
+          <t>AL_FACT_RH</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -29484,31 +29489,31 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>AL_INDI_CONDE</t>
+          <t>AL_FECH_ESTA</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>NRO_DOCUMENTO_MADRE</t>
+          <t>AL_FECH_NACI</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>NOMBRE_MADRE</t>
+          <t>AL_GENE</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -29520,7 +29525,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>TEL_MADRE</t>
+          <t>AL_GRUP_SANG</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -29532,19 +29537,19 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>AL_NOMB_JARD</t>
+          <t>AL_INDI_CONDE</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>logical</t>
+          <t>character</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>NRO_DOCUMENTO_PADRE</t>
+          <t>NRO_DOCUMENTO_MADRE</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -29556,7 +29561,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>NOMBRE_PADRE</t>
+          <t>NOMBRE_MADRE</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -29568,7 +29573,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>TEL_PADRE</t>
+          <t>TEL_MADRE</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -29580,22 +29585,22 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>AL_TALE</t>
+          <t>AL_NOMB_JARD</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>logical</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>ALMUERZO</t>
-        </is>
-      </c>
-      <c r="B224" t="inlineStr">
+          <t>AL_NUME_ID</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
         <is>
           <t>character</t>
         </is>
@@ -29604,10 +29609,10 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>ALUM_MADRE_CAB_FLIA</t>
-        </is>
-      </c>
-      <c r="G225" t="inlineStr">
+          <t>NRO_DOCUMENTO_PADRE</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
         <is>
           <t>character</t>
         </is>
@@ -29616,10 +29621,10 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>AÑO INFO</t>
-        </is>
-      </c>
-      <c r="G226" t="inlineStr">
+          <t>NOMBRE_PADRE</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
         <is>
           <t>character</t>
         </is>
@@ -29628,10 +29633,10 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>AÑO_INF</t>
-        </is>
-      </c>
-      <c r="E227" t="inlineStr">
+          <t>TEL_PADRE</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
         <is>
           <t>character</t>
         </is>
@@ -29640,10 +29645,10 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>APEL1 ACUD</t>
-        </is>
-      </c>
-      <c r="B228" t="inlineStr">
+          <t>AL_PRIM_APEL</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
         <is>
           <t>character</t>
         </is>
@@ -29652,10 +29657,10 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>APEL2 ACUD</t>
-        </is>
-      </c>
-      <c r="B229" t="inlineStr">
+          <t>AL_PRIM_NOMB</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
         <is>
           <t>character</t>
         </is>
@@ -29664,7 +29669,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>AR_CODI_ID</t>
+          <t>AL_SEGU_APEL</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -29676,10 +29681,10 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>ARS</t>
-        </is>
-      </c>
-      <c r="B231" t="inlineStr">
+          <t>AL_SEGU_NOMB</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
         <is>
           <t>character</t>
         </is>
@@ -29688,10 +29693,10 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>BARRIO SEDE</t>
-        </is>
-      </c>
-      <c r="J232" t="inlineStr">
+          <t>AL_TALE</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
         <is>
           <t>character</t>
         </is>
@@ -29700,10 +29705,10 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>BARRIO...10</t>
-        </is>
-      </c>
-      <c r="W233" t="inlineStr">
+          <t>AL_TELE_RESI</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
         <is>
           <t>character</t>
         </is>
@@ -29712,10 +29717,10 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>BARRIO...23</t>
-        </is>
-      </c>
-      <c r="W234" t="inlineStr">
+          <t>ALMUERZO</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
         <is>
           <t>character</t>
         </is>
@@ -29724,10 +29729,10 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>BARRIO...37</t>
-        </is>
-      </c>
-      <c r="W235" t="inlineStr">
+          <t>ALUM_MADRE_CAB_FLIA</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
         <is>
           <t>character</t>
         </is>
@@ -29736,22 +29741,22 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>BASE</t>
-        </is>
-      </c>
-      <c r="J236" t="inlineStr">
-        <is>
-          <t>logical</t>
+          <t>AÑO INFO</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>character</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>BENEF_HEROES_NACION</t>
-        </is>
-      </c>
-      <c r="G237" t="inlineStr">
+          <t>AÑO_INF</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
         <is>
           <t>character</t>
         </is>
@@ -29760,10 +29765,10 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>BENEF_VETER_FUERZ_PUB</t>
-        </is>
-      </c>
-      <c r="G238" t="inlineStr">
+          <t>APEL1 ACUD</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
         <is>
           <t>character</t>
         </is>
@@ -29772,34 +29777,34 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>BP</t>
-        </is>
-      </c>
-      <c r="Q239" t="inlineStr">
-        <is>
-          <t>numeric</t>
+          <t>APEL2 ACUD</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>character</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>BS</t>
-        </is>
-      </c>
-      <c r="Q240" t="inlineStr">
-        <is>
-          <t>numeric</t>
+          <t>AR_CODI_ID</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>character</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>BUENO</t>
-        </is>
-      </c>
-      <c r="R241" t="inlineStr">
+          <t>ARS</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
         <is>
           <t>character</t>
         </is>
@@ -29808,10 +29813,10 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="B242" t="inlineStr">
+          <t>BARRIO SEDE</t>
+        </is>
+      </c>
+      <c r="J242" t="inlineStr">
         <is>
           <t>character</t>
         </is>
@@ -29820,10 +29825,10 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>C_DPTO</t>
-        </is>
-      </c>
-      <c r="B243" t="inlineStr">
+          <t>BARRIO...10</t>
+        </is>
+      </c>
+      <c r="W243" t="inlineStr">
         <is>
           <t>character</t>
         </is>
@@ -29832,10 +29837,10 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>C_MCPIO</t>
-        </is>
-      </c>
-      <c r="B244" t="inlineStr">
+          <t>BARRIO...23</t>
+        </is>
+      </c>
+      <c r="W244" t="inlineStr">
         <is>
           <t>character</t>
         </is>
@@ -29844,31 +29849,31 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>C_SEDE</t>
-        </is>
-      </c>
-      <c r="B245" t="inlineStr">
-        <is>
-          <t>numeric</t>
+          <t>BARRIO...37</t>
+        </is>
+      </c>
+      <c r="W245" t="inlineStr">
+        <is>
+          <t>character</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>C1</t>
-        </is>
-      </c>
-      <c r="B246" t="inlineStr">
-        <is>
-          <t>character</t>
+          <t>BASE</t>
+        </is>
+      </c>
+      <c r="J246" t="inlineStr">
+        <is>
+          <t>logical</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>CAPAC_EXCEPC</t>
+          <t>BENEF_HEROES_NACION</t>
         </is>
       </c>
       <c r="G247" t="inlineStr">
@@ -29880,10 +29885,10 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>CAPEXCEP</t>
-        </is>
-      </c>
-      <c r="B248" t="inlineStr">
+          <t>BENEF_VETER_FUERZ_PUB</t>
+        </is>
+      </c>
+      <c r="G248" t="inlineStr">
         <is>
           <t>character</t>
         </is>
@@ -29892,10 +29897,10 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>CAR_ID</t>
-        </is>
-      </c>
-      <c r="R249" t="inlineStr">
+          <t>BP</t>
+        </is>
+      </c>
+      <c r="Q249" t="inlineStr">
         <is>
           <t>numeric</t>
         </is>
@@ -29904,22 +29909,22 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>CBML</t>
-        </is>
-      </c>
-      <c r="T250" t="inlineStr">
-        <is>
-          <t>character</t>
+          <t>BS</t>
+        </is>
+      </c>
+      <c r="Q250" t="inlineStr">
+        <is>
+          <t>numeric</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>CBML...20</t>
-        </is>
-      </c>
-      <c r="W251" t="inlineStr">
+          <t>BUENO</t>
+        </is>
+      </c>
+      <c r="R251" t="inlineStr">
         <is>
           <t>character</t>
         </is>
@@ -29928,10 +29933,10 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>CBML...34</t>
-        </is>
-      </c>
-      <c r="W252" t="inlineStr">
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
         <is>
           <t>character</t>
         </is>
@@ -29940,10 +29945,10 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>CBML...7</t>
-        </is>
-      </c>
-      <c r="W253" t="inlineStr">
+          <t>C_DPTO</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
         <is>
           <t>character</t>
         </is>
@@ -29952,7 +29957,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>CERTIFN</t>
+          <t>C_MCPIO</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
@@ -29964,22 +29969,22 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>CLAVE 1: NOMBRE 1+NOMBRE2+APRELLIDO1+APELLIDO2+DOCUMENTO</t>
-        </is>
-      </c>
-      <c r="J255" t="inlineStr">
-        <is>
-          <t>character</t>
+          <t>C_SEDE</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>numeric</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>CLAVE 2: CONSECUTIVO+SEDE</t>
-        </is>
-      </c>
-      <c r="J256" t="inlineStr">
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
         <is>
           <t>character</t>
         </is>
@@ -29988,10 +29993,10 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>COBERTURA CONTRATADA</t>
-        </is>
-      </c>
-      <c r="AB257" t="inlineStr">
+          <t>CAPAC_EXCEPC</t>
+        </is>
+      </c>
+      <c r="G257" t="inlineStr">
         <is>
           <t>character</t>
         </is>
@@ -30000,34 +30005,34 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>COD</t>
-        </is>
-      </c>
-      <c r="S258" t="inlineStr">
-        <is>
-          <t>numeric</t>
+          <t>CAPEXCEP</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>character</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>COD_ALUM_FINAL_AÑO</t>
-        </is>
-      </c>
-      <c r="G259" t="inlineStr">
-        <is>
-          <t>character</t>
+          <t>CAR_ID</t>
+        </is>
+      </c>
+      <c r="R259" t="inlineStr">
+        <is>
+          <t>numeric</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>COD_DANE_SEDE</t>
-        </is>
-      </c>
-      <c r="E260" t="inlineStr">
+          <t>CBML</t>
+        </is>
+      </c>
+      <c r="T260" t="inlineStr">
         <is>
           <t>character</t>
         </is>
@@ -30036,10 +30041,10 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>COD_MPIO</t>
-        </is>
-      </c>
-      <c r="G261" t="inlineStr">
+          <t>CBML...20</t>
+        </is>
+      </c>
+      <c r="W261" t="inlineStr">
         <is>
           <t>character</t>
         </is>
@@ -30048,10 +30053,10 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>COD_MUN1</t>
-        </is>
-      </c>
-      <c r="M262" t="inlineStr">
+          <t>CBML...34</t>
+        </is>
+      </c>
+      <c r="W262" t="inlineStr">
         <is>
           <t>character</t>
         </is>
@@ -30060,70 +30065,70 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>CODCOMUNA</t>
-        </is>
-      </c>
-      <c r="X263" t="inlineStr">
-        <is>
-          <t>numeric</t>
+          <t>CBML...7</t>
+        </is>
+      </c>
+      <c r="W263" t="inlineStr">
+        <is>
+          <t>character</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>CODGRADO</t>
-        </is>
-      </c>
-      <c r="R264" t="inlineStr">
-        <is>
-          <t>numeric</t>
+          <t>CERTIFN</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>character</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>CÓDIGO COMUNA ESTUDIANTE</t>
-        </is>
-      </c>
-      <c r="U265" t="inlineStr">
-        <is>
-          <t>numeric</t>
+          <t>CLAVE 1: NOMBRE 1+NOMBRE2+APRELLIDO1+APELLIDO2+DOCUMENTO</t>
+        </is>
+      </c>
+      <c r="J265" t="inlineStr">
+        <is>
+          <t>character</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>CODIGO COMUNA XY</t>
-        </is>
-      </c>
-      <c r="R266" t="inlineStr">
-        <is>
-          <t>numeric</t>
+          <t>CLAVE 2: CONSECUTIVO+SEDE</t>
+        </is>
+      </c>
+      <c r="J266" t="inlineStr">
+        <is>
+          <t>character</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>CODIGO_ANTERIOR</t>
-        </is>
-      </c>
-      <c r="M267" t="inlineStr">
-        <is>
-          <t>logical</t>
+          <t>COBERTURA CONTRATADA</t>
+        </is>
+      </c>
+      <c r="AB267" t="inlineStr">
+        <is>
+          <t>character</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>CODIGO_INTERNADO</t>
-        </is>
-      </c>
-      <c r="U268" t="inlineStr">
+          <t>COD</t>
+        </is>
+      </c>
+      <c r="S268" t="inlineStr">
         <is>
           <t>numeric</t>
         </is>
@@ -30132,10 +30137,10 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>CODIGO_METODOLOGIA</t>
-        </is>
-      </c>
-      <c r="C269" t="inlineStr">
+          <t>COD_ALUM_FINAL_AÑO</t>
+        </is>
+      </c>
+      <c r="G269" t="inlineStr">
         <is>
           <t>character</t>
         </is>
@@ -30144,10 +30149,10 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>CODIGO_RESGUARDO</t>
-        </is>
-      </c>
-      <c r="C270" t="inlineStr">
+          <t>COD_DANE_SEDE</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
         <is>
           <t>character</t>
         </is>
@@ -30156,34 +30161,34 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>CODIGO_SED_05</t>
-        </is>
-      </c>
-      <c r="AD271" t="inlineStr">
-        <is>
-          <t>numeric</t>
+          <t>COD_MPIO</t>
+        </is>
+      </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>character</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>CODIGO_SED_06</t>
-        </is>
-      </c>
-      <c r="AD272" t="inlineStr">
-        <is>
-          <t>numeric</t>
+          <t>COD_MUN1</t>
+        </is>
+      </c>
+      <c r="M272" t="inlineStr">
+        <is>
+          <t>character</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>CODIGO_SED_07</t>
-        </is>
-      </c>
-      <c r="AD273" t="inlineStr">
+          <t>CODCOMUNA</t>
+        </is>
+      </c>
+      <c r="X273" t="inlineStr">
         <is>
           <t>numeric</t>
         </is>
@@ -30192,10 +30197,10 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>CODIGO_SED_08</t>
-        </is>
-      </c>
-      <c r="AD274" t="inlineStr">
+          <t>CODGRADO</t>
+        </is>
+      </c>
+      <c r="R274" t="inlineStr">
         <is>
           <t>numeric</t>
         </is>
@@ -30204,10 +30209,10 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>CODIGO_SED_09</t>
-        </is>
-      </c>
-      <c r="AD275" t="inlineStr">
+          <t>CÓDIGO COMUNA ESTUDIANTE</t>
+        </is>
+      </c>
+      <c r="U275" t="inlineStr">
         <is>
           <t>numeric</t>
         </is>
@@ -30216,10 +30221,10 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>CODIGO_SED_10</t>
-        </is>
-      </c>
-      <c r="AD276" t="inlineStr">
+          <t>CODIGO COMUNA XY</t>
+        </is>
+      </c>
+      <c r="R276" t="inlineStr">
         <is>
           <t>numeric</t>
         </is>
@@ -30228,22 +30233,22 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>CODIGO_SED_11</t>
-        </is>
-      </c>
-      <c r="AD277" t="inlineStr">
-        <is>
-          <t>numeric</t>
+          <t>CODIGO_ANTERIOR</t>
+        </is>
+      </c>
+      <c r="M277" t="inlineStr">
+        <is>
+          <t>logical</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>CODIGO_SED_4</t>
-        </is>
-      </c>
-      <c r="AD278" t="inlineStr">
+          <t>CODIGO_INTERNADO</t>
+        </is>
+      </c>
+      <c r="U278" t="inlineStr">
         <is>
           <t>numeric</t>
         </is>
@@ -30252,34 +30257,34 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>CODIGO_VALORACION_1</t>
-        </is>
-      </c>
-      <c r="U279" t="inlineStr">
-        <is>
-          <t>numeric</t>
+          <t>CODIGO_METODOLOGIA</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>character</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>CODIGO_VALORACION_2</t>
-        </is>
-      </c>
-      <c r="U280" t="inlineStr">
-        <is>
-          <t>numeric</t>
+          <t>CODIGO_RESGUARDO</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>character</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>COMUNA ( IMPUTADA CON DIRECTORIO)</t>
-        </is>
-      </c>
-      <c r="F281" t="inlineStr">
+          <t>CODIGO_SED_05</t>
+        </is>
+      </c>
+      <c r="AD281" t="inlineStr">
         <is>
           <t>numeric</t>
         </is>
@@ -30288,34 +30293,34 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>COMUNA ALUMNO</t>
+          <t>CODIGO_SED_06</t>
         </is>
       </c>
       <c r="AD282" t="inlineStr">
         <is>
-          <t>logical</t>
+          <t>numeric</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>COMUNA ESTUDIANTE</t>
-        </is>
-      </c>
-      <c r="U283" t="inlineStr">
-        <is>
-          <t>character</t>
+          <t>CODIGO_SED_07</t>
+        </is>
+      </c>
+      <c r="AD283" t="inlineStr">
+        <is>
+          <t>numeric</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>COMUNA ESTUDIANTE IMPUTADA CON SEDE EDUCATIVA</t>
-        </is>
-      </c>
-      <c r="U284" t="inlineStr">
+          <t>CODIGO_SED_08</t>
+        </is>
+      </c>
+      <c r="AD284" t="inlineStr">
         <is>
           <t>numeric</t>
         </is>
@@ -30324,10 +30329,10 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>COMUNA ESTUDIANTE XY + ESTABLECIMIENTO</t>
-        </is>
-      </c>
-      <c r="R285" t="inlineStr">
+          <t>CODIGO_SED_09</t>
+        </is>
+      </c>
+      <c r="AD285" t="inlineStr">
         <is>
           <t>numeric</t>
         </is>
@@ -30336,7 +30341,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>COMUNA IE</t>
+          <t>CODIGO_SED_10</t>
         </is>
       </c>
       <c r="AD286" t="inlineStr">
@@ -30348,58 +30353,58 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>COMUNA XY</t>
-        </is>
-      </c>
-      <c r="R287" t="inlineStr">
-        <is>
-          <t>character</t>
+          <t>CODIGO_SED_11</t>
+        </is>
+      </c>
+      <c r="AD287" t="inlineStr">
+        <is>
+          <t>numeric</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>COMUNA...22</t>
-        </is>
-      </c>
-      <c r="W288" t="inlineStr">
-        <is>
-          <t>character</t>
+          <t>CODIGO_SED_4</t>
+        </is>
+      </c>
+      <c r="AD288" t="inlineStr">
+        <is>
+          <t>numeric</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>COMUNA...36</t>
-        </is>
-      </c>
-      <c r="W289" t="inlineStr">
-        <is>
-          <t>character</t>
+          <t>CODIGO_VALORACION_1</t>
+        </is>
+      </c>
+      <c r="U289" t="inlineStr">
+        <is>
+          <t>numeric</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>COMUNA...9</t>
-        </is>
-      </c>
-      <c r="W290" t="inlineStr">
-        <is>
-          <t>character</t>
+          <t>CODIGO_VALORACION_2</t>
+        </is>
+      </c>
+      <c r="U290" t="inlineStr">
+        <is>
+          <t>numeric</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>COMUNASEDE</t>
-        </is>
-      </c>
-      <c r="U291" t="inlineStr">
+          <t>COMUNA ( IMPUTADA CON DIRECTORIO)</t>
+        </is>
+      </c>
+      <c r="F291" t="inlineStr">
         <is>
           <t>numeric</t>
         </is>
@@ -30408,22 +30413,22 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>CON_ALUM_AÑO_ANT</t>
-        </is>
-      </c>
-      <c r="E292" t="inlineStr">
-        <is>
-          <t>character</t>
+          <t>COMUNA ALUMNO</t>
+        </is>
+      </c>
+      <c r="AD292" t="inlineStr">
+        <is>
+          <t>logical</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>CONPES_POB_ATENDIDA</t>
-        </is>
-      </c>
-      <c r="M293" t="inlineStr">
+          <t>COMUNA ESTUDIANTE</t>
+        </is>
+      </c>
+      <c r="U293" t="inlineStr">
         <is>
           <t>character</t>
         </is>
@@ -30432,10 +30437,10 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>CONSECUTIVO SEDE</t>
-        </is>
-      </c>
-      <c r="J294" t="inlineStr">
+          <t>COMUNA ESTUDIANTE IMPUTADA CON SEDE EDUCATIVA</t>
+        </is>
+      </c>
+      <c r="U294" t="inlineStr">
         <is>
           <t>numeric</t>
         </is>
@@ -30444,46 +30449,46 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>CORREO ELECTRONICO</t>
-        </is>
-      </c>
-      <c r="V295" t="inlineStr">
-        <is>
-          <t>character</t>
+          <t>COMUNA ESTUDIANTE XY + ESTABLECIMIENTO</t>
+        </is>
+      </c>
+      <c r="R295" t="inlineStr">
+        <is>
+          <t>numeric</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>CORTE</t>
-        </is>
-      </c>
-      <c r="U296" t="inlineStr">
-        <is>
-          <t>POSIXct;POSIXt</t>
+          <t>COMUNA IE</t>
+        </is>
+      </c>
+      <c r="AD296" t="inlineStr">
+        <is>
+          <t>numeric</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>CORTE EDAD</t>
-        </is>
-      </c>
-      <c r="J297" t="inlineStr">
-        <is>
-          <t>POSIXct;POSIXt</t>
+          <t>COMUNA XY</t>
+        </is>
+      </c>
+      <c r="R297" t="inlineStr">
+        <is>
+          <t>character</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>CUENTA DE NRO_DOCUMENTO</t>
-        </is>
-      </c>
-      <c r="AF298" t="inlineStr">
+          <t>COMUNA...22</t>
+        </is>
+      </c>
+      <c r="W298" t="inlineStr">
         <is>
           <t>character</t>
         </is>
@@ -30492,118 +30497,118 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>DANE</t>
-        </is>
-      </c>
-      <c r="B299" t="inlineStr">
-        <is>
-          <t>numeric</t>
+          <t>COMUNA...36</t>
+        </is>
+      </c>
+      <c r="W299" t="inlineStr">
+        <is>
+          <t>character</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>DANE ANTIGUO</t>
-        </is>
-      </c>
-      <c r="D300" t="inlineStr">
-        <is>
-          <t>numeric</t>
+          <t>COMUNA...9</t>
+        </is>
+      </c>
+      <c r="W300" t="inlineStr">
+        <is>
+          <t>character</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>DANE_ANTIGUO</t>
-        </is>
-      </c>
-      <c r="G301" t="inlineStr">
-        <is>
-          <t>character</t>
+          <t>COMUNASEDE</t>
+        </is>
+      </c>
+      <c r="U301" t="inlineStr">
+        <is>
+          <t>numeric</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>DANE_IE...3</t>
-        </is>
-      </c>
-      <c r="G302" t="inlineStr">
-        <is>
-          <t>numeric</t>
+          <t>CON_ALUM_AÑO_ANT</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>character</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>DANE_IE...9</t>
-        </is>
-      </c>
-      <c r="G303" t="inlineStr">
-        <is>
-          <t>numeric</t>
+          <t>CONPES_POB_ATENDIDA</t>
+        </is>
+      </c>
+      <c r="M303" t="inlineStr">
+        <is>
+          <t>character</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>DD_CODI_EXPU</t>
-        </is>
-      </c>
-      <c r="C304" t="inlineStr">
-        <is>
-          <t>character</t>
+          <t>CONSECUTIVO SEDE</t>
+        </is>
+      </c>
+      <c r="J304" t="inlineStr">
+        <is>
+          <t>numeric</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>DD_CODI_ID_EXPU</t>
-        </is>
-      </c>
-      <c r="C305" t="inlineStr">
-        <is>
-          <t>logical</t>
+          <t>CORREO ELECTRONICO</t>
+        </is>
+      </c>
+      <c r="V305" t="inlineStr">
+        <is>
+          <t>character</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>DD_CODI_ID_NACE</t>
-        </is>
-      </c>
-      <c r="C306" t="inlineStr">
-        <is>
-          <t>character</t>
+          <t>CORTE</t>
+        </is>
+      </c>
+      <c r="U306" t="inlineStr">
+        <is>
+          <t>POSIXct;POSIXt</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>DEPTO_NAC</t>
-        </is>
-      </c>
-      <c r="B307" t="inlineStr">
-        <is>
-          <t>character</t>
+          <t>CORTE EDAD</t>
+        </is>
+      </c>
+      <c r="J307" t="inlineStr">
+        <is>
+          <t>POSIXct;POSIXt</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>DESAY</t>
-        </is>
-      </c>
-      <c r="B308" t="inlineStr">
+          <t>CUENTA DE NRO_DOCUMENTO</t>
+        </is>
+      </c>
+      <c r="AF308" t="inlineStr">
         <is>
           <t>character</t>
         </is>
@@ -30612,46 +30617,46 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>DESAYPREP</t>
+          <t>DANE</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>DEXP</t>
-        </is>
-      </c>
-      <c r="B310" t="inlineStr">
-        <is>
-          <t>character</t>
+          <t>DANE ANTIGUO</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>numeric</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>DIF EDAD JUNIO...64</t>
-        </is>
-      </c>
-      <c r="I311" t="inlineStr">
-        <is>
-          <t>numeric</t>
+          <t>DANE_ANTIGUO</t>
+        </is>
+      </c>
+      <c r="G311" t="inlineStr">
+        <is>
+          <t>character</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>DIF EDAD JUNIO...66</t>
-        </is>
-      </c>
-      <c r="I312" t="inlineStr">
+          <t>DANE_IE...3</t>
+        </is>
+      </c>
+      <c r="G312" t="inlineStr">
         <is>
           <t>numeric</t>
         </is>
@@ -30660,10 +30665,10 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>DIF_EDAD MARZO...63</t>
-        </is>
-      </c>
-      <c r="I313" t="inlineStr">
+          <t>DANE_IE...9</t>
+        </is>
+      </c>
+      <c r="G313" t="inlineStr">
         <is>
           <t>numeric</t>
         </is>
@@ -30672,34 +30677,34 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>DIF_EDAD MARZO...65</t>
-        </is>
-      </c>
-      <c r="I314" t="inlineStr">
-        <is>
-          <t>numeric</t>
+          <t>DD_CODI_EXPU</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>character</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>DIREC_RESID</t>
-        </is>
-      </c>
-      <c r="G315" t="inlineStr">
-        <is>
-          <t>character</t>
+          <t>DD_CODI_ID_EXPU</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>logical</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>DIRECCION ENCASILLADA</t>
-        </is>
-      </c>
-      <c r="T316" t="inlineStr">
+          <t>DD_CODI_ID_NACE</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
         <is>
           <t>character</t>
         </is>
@@ -30708,10 +30713,10 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>DIRECCION ENCASILLADA...18</t>
-        </is>
-      </c>
-      <c r="W317" t="inlineStr">
+          <t>DEPTO_NAC</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
         <is>
           <t>character</t>
         </is>
@@ -30720,10 +30725,10 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>DIRECCION ENCASILLADA...32</t>
-        </is>
-      </c>
-      <c r="W318" t="inlineStr">
+          <t>DESAY</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
         <is>
           <t>character</t>
         </is>
@@ -30732,10 +30737,10 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>DIRECCION ENCASILLADA...5</t>
-        </is>
-      </c>
-      <c r="W319" t="inlineStr">
+          <t>DESAYPREP</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
         <is>
           <t>character</t>
         </is>
@@ -30744,10 +30749,10 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>DIRECCION SEDE</t>
-        </is>
-      </c>
-      <c r="V320" t="inlineStr">
+          <t>DEXP</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
         <is>
           <t>character</t>
         </is>
@@ -30756,58 +30761,58 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>DIRECCION_RESIDENCIA  HOMOLOGADA</t>
-        </is>
-      </c>
-      <c r="U321" t="inlineStr">
-        <is>
-          <t>character</t>
+          <t>DIF EDAD JUNIO...64</t>
+        </is>
+      </c>
+      <c r="I321" t="inlineStr">
+        <is>
+          <t>numeric</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>DIRECCIONHOMOLOGADA...15</t>
-        </is>
-      </c>
-      <c r="W322" t="inlineStr">
-        <is>
-          <t>character</t>
+          <t>DIF EDAD JUNIO...66</t>
+        </is>
+      </c>
+      <c r="I322" t="inlineStr">
+        <is>
+          <t>numeric</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>DIRECCIONHOMOLOGADA...2</t>
-        </is>
-      </c>
-      <c r="W323" t="inlineStr">
-        <is>
-          <t>character</t>
+          <t>DIF_EDAD MARZO...63</t>
+        </is>
+      </c>
+      <c r="I323" t="inlineStr">
+        <is>
+          <t>numeric</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>DIRECCIONHOMOLOGADA...29</t>
-        </is>
-      </c>
-      <c r="W324" t="inlineStr">
-        <is>
-          <t>character</t>
+          <t>DIF_EDAD MARZO...65</t>
+        </is>
+      </c>
+      <c r="I324" t="inlineStr">
+        <is>
+          <t>numeric</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>DIRECCIONRESIDENCIA</t>
-        </is>
-      </c>
-      <c r="T325" t="inlineStr">
+          <t>DIR_RES</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
         <is>
           <t>character</t>
         </is>
@@ -30816,7 +30821,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>DISCAP</t>
+          <t>DIRACUD</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
@@ -30828,22 +30833,22 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>DISCAPACIDAD1</t>
-        </is>
-      </c>
-      <c r="AG327" t="inlineStr">
-        <is>
-          <t>numeric</t>
+          <t>DIREC_RESID</t>
+        </is>
+      </c>
+      <c r="G327" t="inlineStr">
+        <is>
+          <t>character</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>DM_CODI_EXPU</t>
-        </is>
-      </c>
-      <c r="C328" t="inlineStr">
+          <t>DIREC_RESIDENCIA</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
         <is>
           <t>character</t>
         </is>
@@ -30852,22 +30857,22 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>DM_CODI_ID_EXPU</t>
-        </is>
-      </c>
-      <c r="C329" t="inlineStr">
-        <is>
-          <t>logical</t>
+          <t>DIRECCION ENCASILLADA</t>
+        </is>
+      </c>
+      <c r="T329" t="inlineStr">
+        <is>
+          <t>character</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>DM_CODI_ID_NACE</t>
-        </is>
-      </c>
-      <c r="C330" t="inlineStr">
+          <t>DIRECCION ENCASILLADA...18</t>
+        </is>
+      </c>
+      <c r="W330" t="inlineStr">
         <is>
           <t>character</t>
         </is>
@@ -30876,10 +30881,10 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>DPTO_RES</t>
-        </is>
-      </c>
-      <c r="B331" t="inlineStr">
+          <t>DIRECCION ENCASILLADA...32</t>
+        </is>
+      </c>
+      <c r="W331" t="inlineStr">
         <is>
           <t>character</t>
         </is>
@@ -30888,10 +30893,10 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>E_VACUNA</t>
-        </is>
-      </c>
-      <c r="B332" t="inlineStr">
+          <t>DIRECCION ENCASILLADA...5</t>
+        </is>
+      </c>
+      <c r="W332" t="inlineStr">
         <is>
           <t>character</t>
         </is>
@@ -30900,94 +30905,94 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>EDAD 2</t>
-        </is>
-      </c>
-      <c r="M333" t="inlineStr">
-        <is>
-          <t>numeric</t>
+          <t>DIRECCION SEDE</t>
+        </is>
+      </c>
+      <c r="V333" t="inlineStr">
+        <is>
+          <t>character</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>EDAD 31 MARZO</t>
-        </is>
-      </c>
-      <c r="J334" t="inlineStr">
-        <is>
-          <t>numeric</t>
+          <t>DIRECCION_RESIDENCIA  HOMOLOGADA</t>
+        </is>
+      </c>
+      <c r="U334" t="inlineStr">
+        <is>
+          <t>character</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>EDAD A 31 DE MARZO</t>
-        </is>
-      </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>numeric</t>
+          <t>DIRECCIONHOMOLOGADA...15</t>
+        </is>
+      </c>
+      <c r="W335" t="inlineStr">
+        <is>
+          <t>character</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>EDAD A MARZO 31</t>
-        </is>
-      </c>
-      <c r="F336" t="inlineStr">
-        <is>
-          <t>numeric</t>
+          <t>DIRECCIONHOMOLOGADA...2</t>
+        </is>
+      </c>
+      <c r="W336" t="inlineStr">
+        <is>
+          <t>character</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>EDAD CALCULADA A 31/03/2015</t>
-        </is>
-      </c>
-      <c r="R337" t="inlineStr">
-        <is>
-          <t>numeric</t>
+          <t>DIRECCIONHOMOLOGADA...29</t>
+        </is>
+      </c>
+      <c r="W337" t="inlineStr">
+        <is>
+          <t>character</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>EDAD CALCULADA AL CORTE</t>
-        </is>
-      </c>
-      <c r="U338" t="inlineStr">
-        <is>
-          <t>numeric</t>
+          <t>DIRECCIONRESIDENCIA</t>
+        </is>
+      </c>
+      <c r="T338" t="inlineStr">
+        <is>
+          <t>character</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>EDAD IDEAL X GRADO</t>
-        </is>
-      </c>
-      <c r="I339" t="inlineStr">
-        <is>
-          <t>numeric</t>
+          <t>DISCAP</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>character</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>EDAD JAAM</t>
-        </is>
-      </c>
-      <c r="I340" t="inlineStr">
+          <t>DISCAPACIDAD1</t>
+        </is>
+      </c>
+      <c r="AG340" t="inlineStr">
         <is>
           <t>numeric</t>
         </is>
@@ -30996,70 +31001,70 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>EDAD JUNIO</t>
-        </is>
-      </c>
-      <c r="I341" t="inlineStr">
-        <is>
-          <t>numeric</t>
+          <t>DM_CODI_EXPU</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>character</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>EDAD JUNIO 30</t>
-        </is>
-      </c>
-      <c r="G342" t="inlineStr">
-        <is>
-          <t>numeric</t>
+          <t>DM_CODI_ID_EXPU</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>logical</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>EDAD MARZO</t>
-        </is>
-      </c>
-      <c r="I343" t="inlineStr">
-        <is>
-          <t>numeric</t>
+          <t>DM_CODI_ID_NACE</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>character</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>EDAD MARZO 31</t>
-        </is>
-      </c>
-      <c r="G344" t="inlineStr">
-        <is>
-          <t>numeric</t>
+          <t>DPTO_RES</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>character</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>EDAD MEN</t>
-        </is>
-      </c>
-      <c r="U345" t="inlineStr">
-        <is>
-          <t>numeric</t>
+          <t>E_VACUNA</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>character</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>EDAD-MEN</t>
-        </is>
-      </c>
-      <c r="R346" t="inlineStr">
+          <t>EDAD 2</t>
+        </is>
+      </c>
+      <c r="M346" t="inlineStr">
         <is>
           <t>numeric</t>
         </is>
@@ -31068,130 +31073,130 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>EI_CODI_ID</t>
-        </is>
-      </c>
-      <c r="C347" t="inlineStr">
-        <is>
-          <t>character</t>
+          <t>EDAD 31 MARZO</t>
+        </is>
+      </c>
+      <c r="J347" t="inlineStr">
+        <is>
+          <t>numeric</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>EMBARAZOPRE</t>
-        </is>
-      </c>
-      <c r="B348" t="inlineStr">
-        <is>
-          <t>character</t>
+          <t>EDAD A 31 DE MARZO</t>
+        </is>
+      </c>
+      <c r="H348" t="inlineStr">
+        <is>
+          <t>numeric</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>EP_CODI_ID</t>
-        </is>
-      </c>
-      <c r="C349" t="inlineStr">
-        <is>
-          <t>character</t>
+          <t>EDAD A MARZO 31</t>
+        </is>
+      </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>numeric</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>EPS</t>
-        </is>
-      </c>
-      <c r="B350" t="inlineStr">
-        <is>
-          <t>character</t>
+          <t>EDAD CALCULADA A 31/03/2015</t>
+        </is>
+      </c>
+      <c r="R350" t="inlineStr">
+        <is>
+          <t>numeric</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>ESTABLECIMIENTO DUE</t>
+          <t>EDAD CALCULADA AL CORTE</t>
         </is>
       </c>
       <c r="U351" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>ESTABLECIMIENTO EDUCATIVO</t>
-        </is>
-      </c>
-      <c r="R352" t="inlineStr">
-        <is>
-          <t>character</t>
+          <t>EDAD IDEAL X GRADO</t>
+        </is>
+      </c>
+      <c r="I352" t="inlineStr">
+        <is>
+          <t>numeric</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>ESTADO_DEFINTIVO</t>
-        </is>
-      </c>
-      <c r="M353" t="inlineStr">
-        <is>
-          <t>character</t>
+          <t>EDAD JAAM</t>
+        </is>
+      </c>
+      <c r="I353" t="inlineStr">
+        <is>
+          <t>numeric</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>ESTADO_INTERMEDIO</t>
-        </is>
-      </c>
-      <c r="M354" t="inlineStr">
-        <is>
-          <t>character</t>
+          <t>EDAD JUNIO</t>
+        </is>
+      </c>
+      <c r="I354" t="inlineStr">
+        <is>
+          <t>numeric</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>ESTADOF</t>
-        </is>
-      </c>
-      <c r="J355" t="inlineStr">
-        <is>
-          <t>character</t>
+          <t>EDAD JUNIO 30</t>
+        </is>
+      </c>
+      <c r="G355" t="inlineStr">
+        <is>
+          <t>numeric</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>ESTRATO ESTUD</t>
-        </is>
-      </c>
-      <c r="G356" t="inlineStr">
-        <is>
-          <t>character</t>
+          <t>EDAD MARZO</t>
+        </is>
+      </c>
+      <c r="I356" t="inlineStr">
+        <is>
+          <t>numeric</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>ETNIA1</t>
-        </is>
-      </c>
-      <c r="U357" t="inlineStr">
+          <t>EDAD MARZO 31</t>
+        </is>
+      </c>
+      <c r="G357" t="inlineStr">
         <is>
           <t>numeric</t>
         </is>
@@ -31200,34 +31205,34 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>EXP_DPTO</t>
-        </is>
-      </c>
-      <c r="E358" t="inlineStr">
-        <is>
-          <t>character</t>
+          <t>EDAD MEN</t>
+        </is>
+      </c>
+      <c r="U358" t="inlineStr">
+        <is>
+          <t>numeric</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>EXPED_DCTO_DPTO</t>
-        </is>
-      </c>
-      <c r="G359" t="inlineStr">
-        <is>
-          <t>character</t>
+          <t>EDAD-MEN</t>
+        </is>
+      </c>
+      <c r="R359" t="inlineStr">
+        <is>
+          <t>numeric</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>EXPED_DCTO_MPIO</t>
-        </is>
-      </c>
-      <c r="G360" t="inlineStr">
+          <t>EI_CODI_ID</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
         <is>
           <t>character</t>
         </is>
@@ -31236,10 +31241,10 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>EXPR1045</t>
-        </is>
-      </c>
-      <c r="D361" t="inlineStr">
+          <t>EMBARAZOPRE</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
         <is>
           <t>character</t>
         </is>
@@ -31248,106 +31253,106 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>EXTRAEDAD JUNIO</t>
-        </is>
-      </c>
-      <c r="I362" t="inlineStr">
-        <is>
-          <t>numeric</t>
+          <t>EP_CODI_ID</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>character</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>EXTRAEDAD MARZO</t>
-        </is>
-      </c>
-      <c r="I363" t="inlineStr">
-        <is>
-          <t>numeric</t>
+          <t>EPS</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>character</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>F_NAC</t>
-        </is>
-      </c>
-      <c r="B364" t="inlineStr">
-        <is>
-          <t>POSIXct;POSIXt</t>
+          <t>ESTABLECIMIENTO DUE</t>
+        </is>
+      </c>
+      <c r="U364" t="inlineStr">
+        <is>
+          <t>character</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>FECHA MARZO 31</t>
-        </is>
-      </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>POSIXct;POSIXt</t>
+          <t>ESTABLECIMIENTO EDUCATIVO</t>
+        </is>
+      </c>
+      <c r="R365" t="inlineStr">
+        <is>
+          <t>character</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>FECHA NACIM</t>
-        </is>
-      </c>
-      <c r="G366" t="inlineStr">
-        <is>
-          <t>POSIXct;POSIXt</t>
+          <t>ESTADO_DEFINTIVO</t>
+        </is>
+      </c>
+      <c r="M366" t="inlineStr">
+        <is>
+          <t>character</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>FECHA_ANEXO</t>
-        </is>
-      </c>
-      <c r="U367" t="inlineStr">
-        <is>
-          <t>logical</t>
+          <t>ESTADO_INTERMEDIO</t>
+        </is>
+      </c>
+      <c r="M367" t="inlineStr">
+        <is>
+          <t>character</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>FECHA_CORTE1</t>
-        </is>
-      </c>
-      <c r="I368" t="inlineStr">
-        <is>
-          <t>numeric</t>
+          <t>ESTADOF</t>
+        </is>
+      </c>
+      <c r="J368" t="inlineStr">
+        <is>
+          <t>character</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>FECHA_CORTE2</t>
-        </is>
-      </c>
-      <c r="I369" t="inlineStr">
-        <is>
-          <t>numeric</t>
+          <t>ESTRATO ESTUD</t>
+        </is>
+      </c>
+      <c r="G369" t="inlineStr">
+        <is>
+          <t>character</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>FECHA_NACIMIENT</t>
-        </is>
-      </c>
-      <c r="I370" t="inlineStr">
+          <t>ETNIA1</t>
+        </is>
+      </c>
+      <c r="U370" t="inlineStr">
         <is>
           <t>numeric</t>
         </is>
@@ -31356,34 +31361,34 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>FECHA_NACIMIENTO (EN OTRO FORMATO)</t>
-        </is>
-      </c>
-      <c r="U371" t="inlineStr">
-        <is>
-          <t>POSIXct;POSIXt</t>
+          <t>EXP_DPTO</t>
+        </is>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>character</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>FECHA_NACIMIENTO2</t>
-        </is>
-      </c>
-      <c r="J372" t="inlineStr">
-        <is>
-          <t>POSIXct;POSIXt</t>
+          <t>EXPED_DCTO_DPTO</t>
+        </is>
+      </c>
+      <c r="G372" t="inlineStr">
+        <is>
+          <t>character</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>FF_CODI_ID</t>
-        </is>
-      </c>
-      <c r="C373" t="inlineStr">
+          <t>EXPED_DCTO_MPIO</t>
+        </is>
+      </c>
+      <c r="G373" t="inlineStr">
         <is>
           <t>character</t>
         </is>
@@ -31392,10 +31397,10 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>FUENTE_RECURSOS</t>
-        </is>
-      </c>
-      <c r="G374" t="inlineStr">
+          <t>EXPR1045</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr">
         <is>
           <t>character</t>
         </is>
@@ -31404,10 +31409,10 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>GRADO 2</t>
-        </is>
-      </c>
-      <c r="M375" t="inlineStr">
+          <t>EXTRAEDAD JUNIO</t>
+        </is>
+      </c>
+      <c r="I375" t="inlineStr">
         <is>
           <t>numeric</t>
         </is>
@@ -31416,166 +31421,166 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>GRATUIDAD</t>
-        </is>
-      </c>
-      <c r="M376" t="inlineStr">
-        <is>
-          <t>character</t>
+          <t>EXTRAEDAD MARZO</t>
+        </is>
+      </c>
+      <c r="I376" t="inlineStr">
+        <is>
+          <t>numeric</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>GRUOP</t>
-        </is>
-      </c>
-      <c r="E377" t="inlineStr">
-        <is>
-          <t>character</t>
+          <t>F_NAC</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>POSIXct;POSIXt</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>GRUPO_CURSO</t>
-        </is>
-      </c>
-      <c r="G378" t="inlineStr">
-        <is>
-          <t>character</t>
+          <t>FECHA MARZO 31</t>
+        </is>
+      </c>
+      <c r="H378" t="inlineStr">
+        <is>
+          <t>POSIXct;POSIXt</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>HIJO_DEPEND_CAB_FLIA</t>
+          <t>FECHA NACIM</t>
         </is>
       </c>
       <c r="G379" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>POSIXct;POSIXt</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>ID...17</t>
-        </is>
-      </c>
-      <c r="W380" t="inlineStr">
-        <is>
-          <t>character</t>
+          <t>FECHA_ANEXO</t>
+        </is>
+      </c>
+      <c r="U380" t="inlineStr">
+        <is>
+          <t>logical</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>ID...31</t>
-        </is>
-      </c>
-      <c r="W381" t="inlineStr">
-        <is>
-          <t>character</t>
+          <t>FECHA_CORTE1</t>
+        </is>
+      </c>
+      <c r="I381" t="inlineStr">
+        <is>
+          <t>numeric</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>ID...4</t>
-        </is>
-      </c>
-      <c r="W382" t="inlineStr">
-        <is>
-          <t>character</t>
+          <t>FECHA_CORTE2</t>
+        </is>
+      </c>
+      <c r="I382" t="inlineStr">
+        <is>
+          <t>numeric</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>ID+DANE</t>
-        </is>
-      </c>
-      <c r="AD383" t="inlineStr">
-        <is>
-          <t>character</t>
+          <t>FECHA_NACIMIENT</t>
+        </is>
+      </c>
+      <c r="I383" t="inlineStr">
+        <is>
+          <t>numeric</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>IN_CODI_ID</t>
-        </is>
-      </c>
-      <c r="C384" t="inlineStr">
-        <is>
-          <t>numeric</t>
+          <t>FECHA_NACIMIENTO (EN OTRO FORMATO)</t>
+        </is>
+      </c>
+      <c r="U384" t="inlineStr">
+        <is>
+          <t>POSIXct;POSIXt</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>INDICATIVO TEXTO...1</t>
-        </is>
-      </c>
-      <c r="T385" t="inlineStr">
-        <is>
-          <t>numeric</t>
+          <t>FECHA_NACIMIENTO2</t>
+        </is>
+      </c>
+      <c r="J385" t="inlineStr">
+        <is>
+          <t>POSIXct;POSIXt</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>INDICATIVO TEXTO...17</t>
-        </is>
-      </c>
-      <c r="T386" t="inlineStr">
-        <is>
-          <t>numeric</t>
+          <t>FF_CODI_ID</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>character</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>INST_BIENES_ORIGEN</t>
+          <t>FUENTE_RECURSOS</t>
         </is>
       </c>
       <c r="G387" t="inlineStr">
         <is>
-          <t>logical</t>
+          <t>character</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>INSTBIEN</t>
-        </is>
-      </c>
-      <c r="B388" t="inlineStr">
-        <is>
-          <t>character</t>
+          <t>GRADO 2</t>
+        </is>
+      </c>
+      <c r="M388" t="inlineStr">
+        <is>
+          <t>numeric</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>INSTITUCIÓN EDUCATIVO</t>
-        </is>
-      </c>
-      <c r="I389" t="inlineStr">
+          <t>GRATUIDAD</t>
+        </is>
+      </c>
+      <c r="M389" t="inlineStr">
         <is>
           <t>character</t>
         </is>
@@ -31584,10 +31589,10 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>INSTITUCIONES EDUCATIVA</t>
-        </is>
-      </c>
-      <c r="J390" t="inlineStr">
+          <t>GRUOP</t>
+        </is>
+      </c>
+      <c r="E390" t="inlineStr">
         <is>
           <t>character</t>
         </is>
@@ -31596,10 +31601,10 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>INSTITUCIONES EDUCATIVAS</t>
-        </is>
-      </c>
-      <c r="K391" t="inlineStr">
+          <t>GRUPO_CURSO</t>
+        </is>
+      </c>
+      <c r="G391" t="inlineStr">
         <is>
           <t>character</t>
         </is>
@@ -31608,118 +31613,118 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>JUNIO 30 DE 2009</t>
+          <t>HIJO_DEPEND_CAB_FLIA</t>
         </is>
       </c>
       <c r="G392" t="inlineStr">
         <is>
-          <t>POSIXct;POSIXt</t>
+          <t>character</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>JUNIO3006</t>
-        </is>
-      </c>
-      <c r="D393" t="inlineStr">
-        <is>
-          <t>numeric</t>
+          <t>ID...17</t>
+        </is>
+      </c>
+      <c r="W393" t="inlineStr">
+        <is>
+          <t>character</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>JUNIO3007</t>
-        </is>
-      </c>
-      <c r="E394" t="inlineStr">
-        <is>
-          <t>numeric</t>
+          <t>ID...31</t>
+        </is>
+      </c>
+      <c r="W394" t="inlineStr">
+        <is>
+          <t>character</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>JUNIO302004</t>
-        </is>
-      </c>
-      <c r="B395" t="inlineStr">
-        <is>
-          <t>POSIXct;POSIXt</t>
+          <t>ID...4</t>
+        </is>
+      </c>
+      <c r="W395" t="inlineStr">
+        <is>
+          <t>character</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>JUNIO302005</t>
-        </is>
-      </c>
-      <c r="C396" t="inlineStr">
-        <is>
-          <t>numeric</t>
+          <t>ID+DANE</t>
+        </is>
+      </c>
+      <c r="AD396" t="inlineStr">
+        <is>
+          <t>character</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>LC_CODI_ID</t>
+          <t>IN_CODI_ID</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>LEXPDACUD</t>
-        </is>
-      </c>
-      <c r="B398" t="inlineStr">
-        <is>
-          <t>character</t>
+          <t>INDICATIVO TEXTO...1</t>
+        </is>
+      </c>
+      <c r="T398" t="inlineStr">
+        <is>
+          <t>numeric</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>LEXPMACUD</t>
-        </is>
-      </c>
-      <c r="B399" t="inlineStr">
-        <is>
-          <t>character</t>
+          <t>INDICATIVO TEXTO...17</t>
+        </is>
+      </c>
+      <c r="T399" t="inlineStr">
+        <is>
+          <t>numeric</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>LUGAR_NAC_DPTO</t>
+          <t>INST_BIENES_ORIGEN</t>
         </is>
       </c>
       <c r="G400" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>logical</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>LUGAR_NAC_MPIO</t>
-        </is>
-      </c>
-      <c r="G401" t="inlineStr">
+          <t>INSTBIEN</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
         <is>
           <t>character</t>
         </is>
@@ -31728,10 +31733,10 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>MALTRATO</t>
-        </is>
-      </c>
-      <c r="B402" t="inlineStr">
+          <t>INSTITUCIÓN EDUCATIVO</t>
+        </is>
+      </c>
+      <c r="I402" t="inlineStr">
         <is>
           <t>character</t>
         </is>
@@ -31740,34 +31745,34 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>MARZO3106</t>
-        </is>
-      </c>
-      <c r="D403" t="inlineStr">
-        <is>
-          <t>numeric</t>
+          <t>INSTITUCIONES EDUCATIVA</t>
+        </is>
+      </c>
+      <c r="J403" t="inlineStr">
+        <is>
+          <t>character</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>MARZO3107</t>
-        </is>
-      </c>
-      <c r="E404" t="inlineStr">
-        <is>
-          <t>numeric</t>
+          <t>INSTITUCIONES EDUCATIVAS</t>
+        </is>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>character</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>MARZO312004</t>
-        </is>
-      </c>
-      <c r="B405" t="inlineStr">
+          <t>JUNIO 30 DE 2009</t>
+        </is>
+      </c>
+      <c r="G405" t="inlineStr">
         <is>
           <t>POSIXct;POSIXt</t>
         </is>
@@ -31776,10 +31781,10 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>MARZO312005</t>
-        </is>
-      </c>
-      <c r="C406" t="inlineStr">
+          <t>JUNIO3006</t>
+        </is>
+      </c>
+      <c r="D406" t="inlineStr">
         <is>
           <t>numeric</t>
         </is>
@@ -31788,34 +31793,34 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>MATRICULA</t>
-        </is>
-      </c>
-      <c r="T407" t="inlineStr">
-        <is>
-          <t>character</t>
+          <t>JUNIO3007</t>
+        </is>
+      </c>
+      <c r="E407" t="inlineStr">
+        <is>
+          <t>numeric</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>MATRÍCULA_DEFINITIVA</t>
-        </is>
-      </c>
-      <c r="M408" t="inlineStr">
-        <is>
-          <t>character</t>
+          <t>JUNIO302004</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>POSIXct;POSIXt</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>MATRICULA_DEFINITIVA_SUM</t>
-        </is>
-      </c>
-      <c r="U409" t="inlineStr">
+          <t>JUNIO302005</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr">
         <is>
           <t>numeric</t>
         </is>
@@ -31824,10 +31829,10 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>MATRICULA...19</t>
-        </is>
-      </c>
-      <c r="W410" t="inlineStr">
+          <t>LC_CODI_ID</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
         <is>
           <t>character</t>
         </is>
@@ -31836,10 +31841,10 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>MATRICULA...33</t>
-        </is>
-      </c>
-      <c r="W411" t="inlineStr">
+          <t>LEXPDACUD</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
         <is>
           <t>character</t>
         </is>
@@ -31848,10 +31853,10 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>MATRICULA...6</t>
-        </is>
-      </c>
-      <c r="W412" t="inlineStr">
+          <t>LEXPMACUD</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
         <is>
           <t>character</t>
         </is>
@@ -31860,31 +31865,31 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>MES_ATENCION</t>
-        </is>
-      </c>
-      <c r="M413" t="inlineStr">
-        <is>
-          <t>numeric</t>
+          <t>LUGAR_NAC_DPTO</t>
+        </is>
+      </c>
+      <c r="G413" t="inlineStr">
+        <is>
+          <t>character</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>MES_FINAL</t>
-        </is>
-      </c>
-      <c r="M414" t="inlineStr">
-        <is>
-          <t>numeric</t>
+          <t>LUGAR_NAC_MPIO</t>
+        </is>
+      </c>
+      <c r="G414" t="inlineStr">
+        <is>
+          <t>character</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>METODOL</t>
+          <t>MALTRATO</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
@@ -31896,58 +31901,58 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>MEXP</t>
-        </is>
-      </c>
-      <c r="B416" t="inlineStr">
-        <is>
-          <t>character</t>
+          <t>MARZO3106</t>
+        </is>
+      </c>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>numeric</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>MOTIVO</t>
-        </is>
-      </c>
-      <c r="U417" t="inlineStr">
-        <is>
-          <t>character</t>
+          <t>MARZO3107</t>
+        </is>
+      </c>
+      <c r="E417" t="inlineStr">
+        <is>
+          <t>numeric</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>MPIO_EXP</t>
+          <t>MARZO312004</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>POSIXct;POSIXt</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>MPIO_NAC</t>
-        </is>
-      </c>
-      <c r="B419" t="inlineStr">
-        <is>
-          <t>character</t>
+          <t>MARZO312005</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>numeric</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>MPIO_RES</t>
-        </is>
-      </c>
-      <c r="B420" t="inlineStr">
+          <t>MATRICULA</t>
+        </is>
+      </c>
+      <c r="T420" t="inlineStr">
         <is>
           <t>character</t>
         </is>
@@ -31956,10 +31961,10 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>MUN_COD</t>
-        </is>
-      </c>
-      <c r="E421" t="inlineStr">
+          <t>MATRÍCULA_DEFINITIVA</t>
+        </is>
+      </c>
+      <c r="M421" t="inlineStr">
         <is>
           <t>character</t>
         </is>
@@ -31968,22 +31973,22 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>NAC_DPTO</t>
-        </is>
-      </c>
-      <c r="E422" t="inlineStr">
-        <is>
-          <t>character</t>
+          <t>MATRICULA_DEFINITIVA_SUM</t>
+        </is>
+      </c>
+      <c r="U422" t="inlineStr">
+        <is>
+          <t>numeric</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>TIPO_DOCUMENTO_ACUDIENTE</t>
-        </is>
-      </c>
-      <c r="B423" t="inlineStr">
+          <t>MATRICULA...19</t>
+        </is>
+      </c>
+      <c r="W423" t="inlineStr">
         <is>
           <t>character</t>
         </is>
@@ -31992,20 +31997,10 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>NOMBRE1_ACUDIENTE</t>
-        </is>
-      </c>
-      <c r="B424" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
-      <c r="C424" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
-      <c r="I424" t="inlineStr">
+          <t>MATRICULA...33</t>
+        </is>
+      </c>
+      <c r="W424" t="inlineStr">
         <is>
           <t>character</t>
         </is>
@@ -32014,10 +32009,10 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>NOMBRE2_ACUDIENTE</t>
-        </is>
-      </c>
-      <c r="B425" t="inlineStr">
+          <t>MATRICULA...6</t>
+        </is>
+      </c>
+      <c r="W425" t="inlineStr">
         <is>
           <t>character</t>
         </is>
@@ -32026,22 +32021,22 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>NOMBRE IE</t>
-        </is>
-      </c>
-      <c r="D426" t="inlineStr">
-        <is>
-          <t>character</t>
+          <t>MES_ATENCION</t>
+        </is>
+      </c>
+      <c r="M426" t="inlineStr">
+        <is>
+          <t>numeric</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>NOMBREGRADO</t>
-        </is>
-      </c>
-      <c r="J427" t="inlineStr">
+          <t>MES_FINAL</t>
+        </is>
+      </c>
+      <c r="M427" t="inlineStr">
         <is>
           <t>numeric</t>
         </is>
@@ -32050,22 +32045,22 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>NRO.OFICIAL</t>
-        </is>
-      </c>
-      <c r="V428" t="inlineStr">
-        <is>
-          <t>numeric</t>
+          <t>METODOL</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>character</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>NRODOCUMENTO</t>
-        </is>
-      </c>
-      <c r="T429" t="inlineStr">
+          <t>MEXP</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
         <is>
           <t>character</t>
         </is>
@@ -32074,22 +32069,22 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>NUCLEO SEDE</t>
-        </is>
-      </c>
-      <c r="J430" t="inlineStr">
-        <is>
-          <t>numeric</t>
+          <t>MOTIVO</t>
+        </is>
+      </c>
+      <c r="U430" t="inlineStr">
+        <is>
+          <t>character</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>NUEVO_IE</t>
-        </is>
-      </c>
-      <c r="G431" t="inlineStr">
+          <t>MPIO_EXP</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
         <is>
           <t>character</t>
         </is>
@@ -32098,34 +32093,34 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>NUMERO</t>
-        </is>
-      </c>
-      <c r="O432" t="inlineStr">
-        <is>
-          <t>numeric</t>
+          <t>MPIO_NAC</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>character</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>NÚMERO</t>
-        </is>
-      </c>
-      <c r="I433" t="inlineStr">
-        <is>
-          <t>numeric</t>
+          <t>MPIO_RES</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>character</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>º</t>
-        </is>
-      </c>
-      <c r="R434" t="inlineStr">
+          <t>MUN_COD</t>
+        </is>
+      </c>
+      <c r="E434" t="inlineStr">
         <is>
           <t>character</t>
         </is>
@@ -32134,46 +32129,56 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>ORD</t>
-        </is>
-      </c>
-      <c r="J435" t="inlineStr">
-        <is>
-          <t>numeric</t>
+          <t>NAC_DPTO</t>
+        </is>
+      </c>
+      <c r="E435" t="inlineStr">
+        <is>
+          <t>character</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>ORDEN...1</t>
-        </is>
-      </c>
-      <c r="W436" t="inlineStr">
-        <is>
-          <t>numeric</t>
+          <t>NAME1</t>
+        </is>
+      </c>
+      <c r="F436" t="inlineStr">
+        <is>
+          <t>character</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>ORDEN...14</t>
-        </is>
-      </c>
-      <c r="W437" t="inlineStr">
-        <is>
-          <t>numeric</t>
+          <t>TIPO_DOCUMENTO_ACUDIENTE</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>character</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>ORDEN...16</t>
-        </is>
-      </c>
-      <c r="W438" t="inlineStr">
+          <t>NOMBRE1_ACUDIENTE</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="I438" t="inlineStr">
         <is>
           <t>character</t>
         </is>
@@ -32182,22 +32187,22 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>ORDEN...28</t>
-        </is>
-      </c>
-      <c r="W439" t="inlineStr">
-        <is>
-          <t>numeric</t>
+          <t>NOMBRE2_ACUDIENTE</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>character</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>ORDEN...3</t>
-        </is>
-      </c>
-      <c r="W440" t="inlineStr">
+          <t>NOMBRE IE</t>
+        </is>
+      </c>
+      <c r="D440" t="inlineStr">
         <is>
           <t>character</t>
         </is>
@@ -32206,22 +32211,22 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>ORDEN...30</t>
-        </is>
-      </c>
-      <c r="W441" t="inlineStr">
-        <is>
-          <t>character</t>
+          <t>NOMBREGRADO</t>
+        </is>
+      </c>
+      <c r="J441" t="inlineStr">
+        <is>
+          <t>numeric</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>PARENTE</t>
-        </is>
-      </c>
-      <c r="B442" t="inlineStr">
+          <t>NRO_DCTO</t>
+        </is>
+      </c>
+      <c r="G442" t="inlineStr">
         <is>
           <t>character</t>
         </is>
@@ -32230,58 +32235,58 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>PC_CODI_ID</t>
-        </is>
-      </c>
-      <c r="C443" t="inlineStr">
-        <is>
-          <t>character</t>
+          <t>NRO_DOCUM</t>
+        </is>
+      </c>
+      <c r="E443" t="inlineStr">
+        <is>
+          <t>numeric</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>PI_CODI_ID</t>
-        </is>
-      </c>
-      <c r="C444" t="inlineStr">
-        <is>
-          <t>character</t>
+          <t>NRO.OFICIAL</t>
+        </is>
+      </c>
+      <c r="V444" t="inlineStr">
+        <is>
+          <t>numeric</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>PJ</t>
-        </is>
-      </c>
-      <c r="Q445" t="inlineStr">
-        <is>
-          <t>numeric</t>
+          <t>NRODOCUMENTO</t>
+        </is>
+      </c>
+      <c r="T445" t="inlineStr">
+        <is>
+          <t>character</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>POB_VICT_ CONF</t>
-        </is>
-      </c>
-      <c r="D446" t="inlineStr">
-        <is>
-          <t>character</t>
+          <t>NUCLEO SEDE</t>
+        </is>
+      </c>
+      <c r="J446" t="inlineStr">
+        <is>
+          <t>numeric</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>PRES SERVICIO</t>
-        </is>
-      </c>
-      <c r="B447" t="inlineStr">
+          <t>NUEVO_IE</t>
+        </is>
+      </c>
+      <c r="G447" t="inlineStr">
         <is>
           <t>character</t>
         </is>
@@ -32290,34 +32295,34 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>PREST SERVICI</t>
-        </is>
-      </c>
-      <c r="G448" t="inlineStr">
-        <is>
-          <t>character</t>
+          <t>NUMERO</t>
+        </is>
+      </c>
+      <c r="O448" t="inlineStr">
+        <is>
+          <t>numeric</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>PRESTACIÓN DEL SERVICIO...21</t>
+          <t>NÚMERO</t>
         </is>
       </c>
       <c r="I449" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>PRESTACIÓN DEL SERVICIO...42</t>
-        </is>
-      </c>
-      <c r="I450" t="inlineStr">
+          <t>º</t>
+        </is>
+      </c>
+      <c r="R450" t="inlineStr">
         <is>
           <t>character</t>
         </is>
@@ -32326,46 +32331,46 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>PRESTACIÓN DEL SERVICIO...77</t>
-        </is>
-      </c>
-      <c r="U451" t="inlineStr">
-        <is>
-          <t>character</t>
+          <t>ORD</t>
+        </is>
+      </c>
+      <c r="J451" t="inlineStr">
+        <is>
+          <t>numeric</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>PRESTACIÓN DEL SERVICIO...86</t>
-        </is>
-      </c>
-      <c r="U452" t="inlineStr">
-        <is>
-          <t>character</t>
+          <t>ORDEN...1</t>
+        </is>
+      </c>
+      <c r="W452" t="inlineStr">
+        <is>
+          <t>numeric</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>PROV_OTRO_MPIO</t>
-        </is>
-      </c>
-      <c r="G453" t="inlineStr">
-        <is>
-          <t>character</t>
+          <t>ORDEN...14</t>
+        </is>
+      </c>
+      <c r="W453" t="inlineStr">
+        <is>
+          <t>numeric</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>PROV_OTRO_MUN</t>
-        </is>
-      </c>
-      <c r="E454" t="inlineStr">
+          <t>ORDEN...16</t>
+        </is>
+      </c>
+      <c r="W454" t="inlineStr">
         <is>
           <t>character</t>
         </is>
@@ -32374,22 +32379,22 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>PROV_SECT_PRIVADO</t>
-        </is>
-      </c>
-      <c r="G455" t="inlineStr">
-        <is>
-          <t>character</t>
+          <t>ORDEN...28</t>
+        </is>
+      </c>
+      <c r="W455" t="inlineStr">
+        <is>
+          <t>numeric</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>PROV_SECTOR_PRIV</t>
-        </is>
-      </c>
-      <c r="E456" t="inlineStr">
+          <t>ORDEN...3</t>
+        </is>
+      </c>
+      <c r="W456" t="inlineStr">
         <is>
           <t>character</t>
         </is>
@@ -32398,10 +32403,10 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>PROVSPV</t>
-        </is>
-      </c>
-      <c r="B457" t="inlineStr">
+          <t>ORDEN...30</t>
+        </is>
+      </c>
+      <c r="W457" t="inlineStr">
         <is>
           <t>character</t>
         </is>
@@ -32410,22 +32415,22 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>PRUEBA PARA CRUCE 4751</t>
-        </is>
-      </c>
-      <c r="I458" t="inlineStr">
-        <is>
-          <t>numeric</t>
+          <t>PARENTE</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>character</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>PVICT_CONFLI</t>
-        </is>
-      </c>
-      <c r="B459" t="inlineStr">
+          <t>PC_CODI_ID</t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr">
         <is>
           <t>character</t>
         </is>
@@ -32434,10 +32439,10 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>PVOMPIO</t>
-        </is>
-      </c>
-      <c r="B460" t="inlineStr">
+          <t>PI_CODI_ID</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr">
         <is>
           <t>character</t>
         </is>
@@ -32446,10 +32451,10 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="M461" t="inlineStr">
+          <t>PJ</t>
+        </is>
+      </c>
+      <c r="Q461" t="inlineStr">
         <is>
           <t>numeric</t>
         </is>
@@ -32458,10 +32463,10 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>RANGO</t>
-        </is>
-      </c>
-      <c r="I462" t="inlineStr">
+          <t>POB_VICT_ CONF</t>
+        </is>
+      </c>
+      <c r="D462" t="inlineStr">
         <is>
           <t>character</t>
         </is>
@@ -32470,10 +32475,10 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>RECTOR</t>
-        </is>
-      </c>
-      <c r="V463" t="inlineStr">
+          <t>PRES SERVICIO</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
         <is>
           <t>character</t>
         </is>
@@ -32482,10 +32487,10 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>REPITENT</t>
-        </is>
-      </c>
-      <c r="B464" t="inlineStr">
+          <t>PREST SERVICI</t>
+        </is>
+      </c>
+      <c r="G464" t="inlineStr">
         <is>
           <t>character</t>
         </is>
@@ -32494,10 +32499,10 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>RES_DPTO</t>
-        </is>
-      </c>
-      <c r="E465" t="inlineStr">
+          <t>PRESTACIÓN DEL SERVICIO...21</t>
+        </is>
+      </c>
+      <c r="I465" t="inlineStr">
         <is>
           <t>character</t>
         </is>
@@ -32506,34 +32511,34 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>RES...32</t>
-        </is>
-      </c>
-      <c r="U466" t="inlineStr">
-        <is>
-          <t>logical</t>
+          <t>PRESTACIÓN DEL SERVICIO...42</t>
+        </is>
+      </c>
+      <c r="I466" t="inlineStr">
+        <is>
+          <t>character</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>RES...56</t>
+          <t>PRESTACIÓN DEL SERVICIO...77</t>
         </is>
       </c>
       <c r="U467" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>RESGUARD</t>
-        </is>
-      </c>
-      <c r="B468" t="inlineStr">
+          <t>PRESTACIÓN DEL SERVICIO...86</t>
+        </is>
+      </c>
+      <c r="U468" t="inlineStr">
         <is>
           <t>character</t>
         </is>
@@ -32542,7 +32547,7 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>RESGUARDO</t>
+          <t>PROV_OTRO_MPIO</t>
         </is>
       </c>
       <c r="G469" t="inlineStr">
@@ -32554,10 +32559,10 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>RESID_DPTO</t>
-        </is>
-      </c>
-      <c r="G470" t="inlineStr">
+          <t>PROV_OTRO_MUN</t>
+        </is>
+      </c>
+      <c r="E470" t="inlineStr">
         <is>
           <t>character</t>
         </is>
@@ -32566,7 +32571,7 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>RESID_MPIO</t>
+          <t>PROV_SECT_PRIVADO</t>
         </is>
       </c>
       <c r="G471" t="inlineStr">
@@ -32578,43 +32583,43 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>RESPONSABILIDAD_PENAL</t>
-        </is>
-      </c>
-      <c r="Y472" t="inlineStr">
-        <is>
-          <t>numeric</t>
+          <t>PROV_SECTOR_PRIV</t>
+        </is>
+      </c>
+      <c r="E472" t="inlineStr">
+        <is>
+          <t>character</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>RETIRADO_CALC</t>
-        </is>
-      </c>
-      <c r="L473" t="inlineStr">
-        <is>
-          <t>numeric</t>
+          <t>PROVSPV</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>character</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>RIESGON</t>
-        </is>
-      </c>
-      <c r="B474" t="inlineStr">
-        <is>
-          <t>character</t>
+          <t>PRUEBA PARA CRUCE 4751</t>
+        </is>
+      </c>
+      <c r="I474" t="inlineStr">
+        <is>
+          <t>numeric</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>SACAÑANT</t>
+          <t>PVICT_CONFLI</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
@@ -32626,34 +32631,34 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>SE IMPUTO EL CONSEDES</t>
-        </is>
-      </c>
-      <c r="R476" t="inlineStr">
-        <is>
-          <t>logical</t>
+          <t>PVOMPIO</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>character</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>SECTOR 2</t>
-        </is>
-      </c>
-      <c r="L477" t="inlineStr">
-        <is>
-          <t>character</t>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="M477" t="inlineStr">
+        <is>
+          <t>numeric</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>SECTOR SEDE</t>
-        </is>
-      </c>
-      <c r="J478" t="inlineStr">
+          <t>RANGO</t>
+        </is>
+      </c>
+      <c r="I478" t="inlineStr">
         <is>
           <t>character</t>
         </is>
@@ -32662,10 +32667,10 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>SEDE - DUE</t>
-        </is>
-      </c>
-      <c r="U479" t="inlineStr">
+          <t>RECTOR</t>
+        </is>
+      </c>
+      <c r="V479" t="inlineStr">
         <is>
           <t>character</t>
         </is>
@@ -32674,10 +32679,10 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>SEDE EDUCATIVA</t>
-        </is>
-      </c>
-      <c r="R480" t="inlineStr">
+          <t>REPITENT</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
         <is>
           <t>character</t>
         </is>
@@ -32686,10 +32691,10 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>SEDES</t>
-        </is>
-      </c>
-      <c r="K481" t="inlineStr">
+          <t>RES_DPTO</t>
+        </is>
+      </c>
+      <c r="E481" t="inlineStr">
         <is>
           <t>character</t>
         </is>
@@ -32698,31 +32703,31 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>SIT_ACAD_AÑO_ANT</t>
-        </is>
-      </c>
-      <c r="E482" t="inlineStr">
-        <is>
-          <t>character</t>
+          <t>RES...32</t>
+        </is>
+      </c>
+      <c r="U482" t="inlineStr">
+        <is>
+          <t>logical</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>SIT_ACAD_AÑO_ANTERIOR</t>
-        </is>
-      </c>
-      <c r="G483" t="inlineStr">
-        <is>
-          <t>character</t>
+          <t>RES...56</t>
+        </is>
+      </c>
+      <c r="U483" t="inlineStr">
+        <is>
+          <t>numeric</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>SUBSID</t>
+          <t>RESGUARD</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
@@ -32734,10 +32739,10 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>SUBSIDIADA JAAM</t>
-        </is>
-      </c>
-      <c r="I485" t="inlineStr">
+          <t>RESGUARDO</t>
+        </is>
+      </c>
+      <c r="G485" t="inlineStr">
         <is>
           <t>character</t>
         </is>
@@ -32746,10 +32751,10 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>SUMA DE EXTRAEDAD</t>
-        </is>
-      </c>
-      <c r="AE486" t="inlineStr">
+          <t>RESID_DPTO</t>
+        </is>
+      </c>
+      <c r="G486" t="inlineStr">
         <is>
           <t>character</t>
         </is>
@@ -32758,56 +32763,46 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="Q487" t="inlineStr">
-        <is>
-          <t>numeric</t>
+          <t>RESID_MPIO</t>
+        </is>
+      </c>
+      <c r="G487" t="inlineStr">
+        <is>
+          <t>character</t>
         </is>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>TDOCACUD</t>
-        </is>
-      </c>
-      <c r="B488" t="inlineStr">
-        <is>
-          <t>character</t>
+          <t>RESPONSABILIDAD_PENAL</t>
+        </is>
+      </c>
+      <c r="Y488" t="inlineStr">
+        <is>
+          <t>numeric</t>
         </is>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>TEL_ACUDIENTE</t>
-        </is>
-      </c>
-      <c r="B489" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
-      <c r="C489" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
-      <c r="I489" t="inlineStr">
-        <is>
-          <t>character</t>
+          <t>RETIRADO_CALC</t>
+        </is>
+      </c>
+      <c r="L489" t="inlineStr">
+        <is>
+          <t>numeric</t>
         </is>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>TELÉFONO SEDE</t>
-        </is>
-      </c>
-      <c r="V490" t="inlineStr">
+          <t>RIESGON</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
         <is>
           <t>character</t>
         </is>
@@ -32816,10 +32811,10 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>TIPO</t>
-        </is>
-      </c>
-      <c r="T491" t="inlineStr">
+          <t>SACAÑANT</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
         <is>
           <t>character</t>
         </is>
@@ -32828,22 +32823,22 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>TIPO ANEXO</t>
+          <t>SE IMPUTO EL CONSEDES</t>
         </is>
       </c>
       <c r="R492" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>logical</t>
         </is>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>TIPO DE SEDE</t>
-        </is>
-      </c>
-      <c r="V493" t="inlineStr">
+          <t>SECTOR 2</t>
+        </is>
+      </c>
+      <c r="L493" t="inlineStr">
         <is>
           <t>character</t>
         </is>
@@ -32852,10 +32847,10 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>TIPO E IDENTIFICACIÓN</t>
-        </is>
-      </c>
-      <c r="I494" t="inlineStr">
+          <t>SECTOR SEDE</t>
+        </is>
+      </c>
+      <c r="J494" t="inlineStr">
         <is>
           <t>character</t>
         </is>
@@ -32864,22 +32859,22 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>TIPO_ANEXO_ID</t>
+          <t>SEDE - DUE</t>
         </is>
       </c>
       <c r="U495" t="inlineStr">
         <is>
-          <t>logical</t>
+          <t>character</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>TIPO_DCTO...8</t>
-        </is>
-      </c>
-      <c r="G496" t="inlineStr">
+          <t>SEDE EDUCATIVA</t>
+        </is>
+      </c>
+      <c r="R496" t="inlineStr">
         <is>
           <t>character</t>
         </is>
@@ -32888,10 +32883,10 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>TIPO_DISCAP</t>
-        </is>
-      </c>
-      <c r="E497" t="inlineStr">
+          <t>SEDES</t>
+        </is>
+      </c>
+      <c r="K497" t="inlineStr">
         <is>
           <t>character</t>
         </is>
@@ -32900,7 +32895,7 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>TIPO_DOCUM</t>
+          <t>SIT_ACAD_AÑO_ANT</t>
         </is>
       </c>
       <c r="E498" t="inlineStr">
@@ -32912,10 +32907,10 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>TIPO...21</t>
-        </is>
-      </c>
-      <c r="W499" t="inlineStr">
+          <t>SIT_ACAD_AÑO_ANTERIOR</t>
+        </is>
+      </c>
+      <c r="G499" t="inlineStr">
         <is>
           <t>character</t>
         </is>
@@ -32924,10 +32919,10 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>TIPO...35</t>
-        </is>
-      </c>
-      <c r="W500" t="inlineStr">
+          <t>SUBSID</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
         <is>
           <t>character</t>
         </is>
@@ -32936,10 +32931,10 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>TIPO...8</t>
-        </is>
-      </c>
-      <c r="W501" t="inlineStr">
+          <t>SUBSIDIADA JAAM</t>
+        </is>
+      </c>
+      <c r="I501" t="inlineStr">
         <is>
           <t>character</t>
         </is>
@@ -32948,10 +32943,10 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>TIPOANEXO</t>
-        </is>
-      </c>
-      <c r="T502" t="inlineStr">
+          <t>SUMA DE EXTRAEDAD</t>
+        </is>
+      </c>
+      <c r="AE502" t="inlineStr">
         <is>
           <t>character</t>
         </is>
@@ -32960,22 +32955,22 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>TIQUETE</t>
-        </is>
-      </c>
-      <c r="B503" t="inlineStr">
-        <is>
-          <t>character</t>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="Q503" t="inlineStr">
+        <is>
+          <t>numeric</t>
         </is>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>TOTAL GENERAL</t>
-        </is>
-      </c>
-      <c r="Q504" t="inlineStr">
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="I504" t="inlineStr">
         <is>
           <t>numeric</t>
         </is>
@@ -32984,7 +32979,7 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>TOXOIDE</t>
+          <t>TDOCACUD</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
@@ -32996,22 +32991,22 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>TRANSICI</t>
-        </is>
-      </c>
-      <c r="I506" t="inlineStr">
-        <is>
-          <t>numeric</t>
+          <t>TEL_RES</t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>character</t>
         </is>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>TSANGRE</t>
-        </is>
-      </c>
-      <c r="B507" t="inlineStr">
+          <t>TEL_UBICAC</t>
+        </is>
+      </c>
+      <c r="G507" t="inlineStr">
         <is>
           <t>character</t>
         </is>
@@ -33020,10 +33015,20 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>ULT_DPTO_EXP</t>
-        </is>
-      </c>
-      <c r="G508" t="inlineStr">
+          <t>TEL_ACUDIENTE</t>
+        </is>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="C508" t="inlineStr">
+        <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="I508" t="inlineStr">
         <is>
           <t>character</t>
         </is>
@@ -33032,10 +33037,10 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>ULT_MPIO_EXP</t>
-        </is>
-      </c>
-      <c r="G509" t="inlineStr">
+          <t>TELEFONO</t>
+        </is>
+      </c>
+      <c r="E509" t="inlineStr">
         <is>
           <t>character</t>
         </is>
@@ -33044,34 +33049,34 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>V1</t>
-        </is>
-      </c>
-      <c r="I510" t="inlineStr">
-        <is>
-          <t>logical</t>
+          <t>TELÉFONO SEDE</t>
+        </is>
+      </c>
+      <c r="V510" t="inlineStr">
+        <is>
+          <t>character</t>
         </is>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>V2</t>
-        </is>
-      </c>
-      <c r="I511" t="inlineStr">
-        <is>
-          <t>logical</t>
+          <t>TI_CODI_ID</t>
+        </is>
+      </c>
+      <c r="C511" t="inlineStr">
+        <is>
+          <t>character</t>
         </is>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>VEREDA</t>
-        </is>
-      </c>
-      <c r="V512" t="inlineStr">
+          <t>TIPO</t>
+        </is>
+      </c>
+      <c r="T512" t="inlineStr">
         <is>
           <t>character</t>
         </is>
@@ -33080,10 +33085,10 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>VICTIMA_CONFLICTO</t>
-        </is>
-      </c>
-      <c r="G513" t="inlineStr">
+          <t>TIPO ANEXO</t>
+        </is>
+      </c>
+      <c r="R513" t="inlineStr">
         <is>
           <t>character</t>
         </is>
@@ -33092,10 +33097,10 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>VLECHE</t>
-        </is>
-      </c>
-      <c r="B514" t="inlineStr">
+          <t>TIPO DE SEDE</t>
+        </is>
+      </c>
+      <c r="V514" t="inlineStr">
         <is>
           <t>character</t>
         </is>
@@ -33104,10 +33109,10 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="T515" t="inlineStr">
+          <t>TIPO E IDENTIFICACIÓN</t>
+        </is>
+      </c>
+      <c r="I515" t="inlineStr">
         <is>
           <t>character</t>
         </is>
@@ -33116,22 +33121,22 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>X...11</t>
-        </is>
-      </c>
-      <c r="W516" t="inlineStr">
-        <is>
-          <t>character</t>
+          <t>TIPO_ANEXO_ID</t>
+        </is>
+      </c>
+      <c r="U516" t="inlineStr">
+        <is>
+          <t>logical</t>
         </is>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>X...24</t>
-        </is>
-      </c>
-      <c r="W517" t="inlineStr">
+          <t>TIPO_DCTO...6</t>
+        </is>
+      </c>
+      <c r="G517" t="inlineStr">
         <is>
           <t>character</t>
         </is>
@@ -33140,10 +33145,10 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>X...38</t>
-        </is>
-      </c>
-      <c r="W518" t="inlineStr">
+          <t>TIPO_DCTO...8</t>
+        </is>
+      </c>
+      <c r="G518" t="inlineStr">
         <is>
           <t>character</t>
         </is>
@@ -33152,10 +33157,10 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="T519" t="inlineStr">
+          <t>TIPO_DISCAP</t>
+        </is>
+      </c>
+      <c r="E519" t="inlineStr">
         <is>
           <t>character</t>
         </is>
@@ -33164,10 +33169,10 @@
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>Y...12</t>
-        </is>
-      </c>
-      <c r="W520" t="inlineStr">
+          <t>TIPO_DOCUM</t>
+        </is>
+      </c>
+      <c r="E520" t="inlineStr">
         <is>
           <t>character</t>
         </is>
@@ -33176,7 +33181,7 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>Y...25</t>
+          <t>TIPO...21</t>
         </is>
       </c>
       <c r="W521" t="inlineStr">
@@ -33188,7 +33193,7 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>Y...39</t>
+          <t>TIPO...35</t>
         </is>
       </c>
       <c r="W522" t="inlineStr">
@@ -33200,10 +33205,10 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>ZONA</t>
-        </is>
-      </c>
-      <c r="B523" t="inlineStr">
+          <t>TIPO...8</t>
+        </is>
+      </c>
+      <c r="W523" t="inlineStr">
         <is>
           <t>character</t>
         </is>
@@ -33212,10 +33217,10 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>ZONA (GEOREFERENCIADO)</t>
-        </is>
-      </c>
-      <c r="V524" t="inlineStr">
+          <t>TIPOANEXO</t>
+        </is>
+      </c>
+      <c r="T524" t="inlineStr">
         <is>
           <t>character</t>
         </is>
@@ -33224,10 +33229,10 @@
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>ZONA SEDE</t>
-        </is>
-      </c>
-      <c r="J525" t="inlineStr">
+          <t>TIQUETE</t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr">
         <is>
           <t>character</t>
         </is>
@@ -33236,22 +33241,286 @@
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>ZONA SINEB</t>
-        </is>
-      </c>
-      <c r="V526" t="inlineStr">
-        <is>
-          <t>character</t>
+          <t>TOTAL GENERAL</t>
+        </is>
+      </c>
+      <c r="Q526" t="inlineStr">
+        <is>
+          <t>numeric</t>
         </is>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
+          <t>TOXOIDE</t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>character</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>TRANSICI</t>
+        </is>
+      </c>
+      <c r="I528" t="inlineStr">
+        <is>
+          <t>numeric</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>TSANGRE</t>
+        </is>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>character</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>ULT_DPTO_EXP</t>
+        </is>
+      </c>
+      <c r="G530" t="inlineStr">
+        <is>
+          <t>character</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>ULT_MPIO_EXP</t>
+        </is>
+      </c>
+      <c r="G531" t="inlineStr">
+        <is>
+          <t>character</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>V1</t>
+        </is>
+      </c>
+      <c r="I532" t="inlineStr">
+        <is>
+          <t>logical</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>V2</t>
+        </is>
+      </c>
+      <c r="I533" t="inlineStr">
+        <is>
+          <t>logical</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>VEREDA</t>
+        </is>
+      </c>
+      <c r="V534" t="inlineStr">
+        <is>
+          <t>character</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>VICTIMA_CONFLICTO</t>
+        </is>
+      </c>
+      <c r="G535" t="inlineStr">
+        <is>
+          <t>character</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>VLECHE</t>
+        </is>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>character</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="T537" t="inlineStr">
+        <is>
+          <t>character</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>X...11</t>
+        </is>
+      </c>
+      <c r="W538" t="inlineStr">
+        <is>
+          <t>character</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>X...24</t>
+        </is>
+      </c>
+      <c r="W539" t="inlineStr">
+        <is>
+          <t>character</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>X...38</t>
+        </is>
+      </c>
+      <c r="W540" t="inlineStr">
+        <is>
+          <t>character</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="T541" t="inlineStr">
+        <is>
+          <t>character</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>Y...12</t>
+        </is>
+      </c>
+      <c r="W542" t="inlineStr">
+        <is>
+          <t>character</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>Y...25</t>
+        </is>
+      </c>
+      <c r="W543" t="inlineStr">
+        <is>
+          <t>character</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>Y...39</t>
+        </is>
+      </c>
+      <c r="W544" t="inlineStr">
+        <is>
+          <t>character</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>ZONA</t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>character</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>ZONA (GEOREFERENCIADO)</t>
+        </is>
+      </c>
+      <c r="V546" t="inlineStr">
+        <is>
+          <t>character</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>ZONA SEDE</t>
+        </is>
+      </c>
+      <c r="J547" t="inlineStr">
+        <is>
+          <t>character</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>ZONA SINEB</t>
+        </is>
+      </c>
+      <c r="V548" t="inlineStr">
+        <is>
+          <t>character</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
           <t>ZONA_RESIDE_ALUM</t>
         </is>
       </c>
-      <c r="G527" t="inlineStr">
+      <c r="G549" t="inlineStr">
         <is>
           <t>character</t>
         </is>

--- a/data/metadata/dicts/raw_SIMAT_clean.xlsx
+++ b/data/metadata/dicts/raw_SIMAT_clean.xlsx
@@ -352,7 +352,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AL526"/>
+  <dimension ref="A1:AL525"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1443,7 +1443,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>TEL</t>
+          <t>DIRECCION_RESIDENCIA</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1466,239 +1466,239 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Tel_res</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>AL_TELE_RESI</t>
+          <t>Dir_res</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>TEL</t>
+          <t>DIRECCION_RESIDENCIA</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>telefono</t>
+          <t>direc_residencia</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>TEL</t>
+          <t>DIRECCION_RESIDENCIA</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>tel_ubicac</t>
+          <t>direc_resid</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>TEL</t>
+          <t>DIRECCION_RESIDENCIA</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>tel</t>
+          <t>direccion_residencia</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>TEL</t>
+          <t>DIRECCION_RESIDENCIA</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>TEL</t>
+          <t>DIRECCION_RESIDENCIA</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>TEL</t>
+          <t>DIRECCION_RESIDENCIA</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>TEL</t>
+          <t>DIRECCION_RESIDENCIA</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>TEL</t>
+          <t>DIRECCION_RESIDENCIA</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>TEL</t>
+          <t>DIRECCION_RESIDENCIA</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>TEL</t>
+          <t>DIRECCION_RESIDENCIA</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>TEL</t>
+          <t>DIRECCION_RESIDENCIA</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>TEL</t>
+          <t>DIRECCION_RESIDENCIA</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>TEL</t>
+          <t>DIRECCION_RESIDENCIA</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>TEL</t>
+          <t>DIRECCION_RESIDENCIA</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>TEL</t>
+          <t>DIRECCION_RESIDENCIA</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CONS_SEDE</t>
+          <t>TEL</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>character</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>character; numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="E10">
-        <v>57.5757575757576</v>
+        <v>60.60606060606062</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Cons_sede</t>
+          <t>Tel_res</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>CONS_SEDE</t>
+          <t>AL_TELE_RESI</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Cons_sede</t>
+          <t>TEL</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>cons_sede</t>
+          <t>telefono</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>CONS_SEDE</t>
+          <t>TEL</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>cons_sede</t>
+          <t>tel_ubicac</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>CONS_SEDE</t>
+          <t>TEL</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>cons_sede</t>
+          <t>tel</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>TEL</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>CONS_SEDE</t>
+          <t>TEL</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>CONS_SEDE</t>
+          <t>TEL</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>CONS_SEDE</t>
+          <t>TEL</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>CONS_SEDE</t>
+          <t>TEL</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>CONS_SEDE</t>
+          <t>TEL</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>CONS_SEDE</t>
+          <t>TEL</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>CONS_SEDE</t>
+          <t>TEL</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>CONS_SEDE</t>
+          <t>TEL</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>CONS_SEDE</t>
+          <t>TEL</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>CONS_SEDE</t>
+          <t>TEL</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>CONS_SEDE</t>
+          <t>TEL</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>GENERO</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>character</t>
+          <t>CONS_SEDE</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>character; numeric</t>
         </is>
       </c>
       <c r="E11">
@@ -1706,104 +1706,104 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Genero</t>
+          <t>Cons_sede</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>CONS_SEDE</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>GENERO</t>
+          <t>Cons_sede</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>genero</t>
+          <t>cons_sede</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>GENERO</t>
+          <t>CONS_SEDE</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>genero</t>
+          <t>cons_sede</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>GENERO</t>
+          <t>CONS_SEDE</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>genero</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>GENERO</t>
+          <t>cons_sede</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>GENERO</t>
+          <t>CONS_SEDE</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>GENERO</t>
+          <t>CONS_SEDE</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>GENERO</t>
+          <t>CONS_SEDE</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>GENERO</t>
+          <t>CONS_SEDE</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>GENERO</t>
+          <t>CONS_SEDE</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>GENERO</t>
+          <t>CONS_SEDE</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>GENERO</t>
+          <t>CONS_SEDE</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>GENERO</t>
+          <t>CONS_SEDE</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>GENERO</t>
+          <t>CONS_SEDE</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>GENERO</t>
+          <t>CONS_SEDE</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>GENERO</t>
+          <t>CONS_SEDE</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>DIRECCION_RESIDENCIA</t>
+          <t>GENERO</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1822,96 +1822,101 @@
         </is>
       </c>
       <c r="E12">
-        <v>57.57575757575759</v>
+        <v>57.5757575757576</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Dir_res</t>
+          <t>Genero</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>DIRECCION_RESIDENCIA</t>
+          <t>GENERO</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>direc_residencia</t>
+          <t>genero</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>DIRECCION_RESIDENCIA</t>
+          <t>GENERO</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>genero</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>DIRECCION_RESIDENCIA</t>
+          <t>GENERO</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>direccion_residencia</t>
+          <t>genero</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>DIRECCION_RESIDENCIA</t>
+          <t>GENERO</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>DIRECCION_RESIDENCIA</t>
+          <t>GENERO</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>DIRECCION_RESIDENCIA</t>
+          <t>GENERO</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>DIRECCION_RESIDENCIA</t>
+          <t>GENERO</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>DIRECCION_RESIDENCIA</t>
+          <t>GENERO</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>DIRECCION_RESIDENCIA</t>
+          <t>GENERO</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>DIRECCION_RESIDENCIA</t>
+          <t>GENERO</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>DIRECCION_RESIDENCIA</t>
+          <t>GENERO</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>DIRECCION_RESIDENCIA</t>
+          <t>GENERO</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>DIRECCION_RESIDENCIA</t>
+          <t>GENERO</t>
         </is>
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>DIRECCION_RESIDENCIA</t>
+          <t>GENERO</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>DIRECCION_RESIDENCIA</t>
+          <t>GENERO</t>
         </is>
       </c>
     </row>
@@ -15238,7 +15243,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>DIREC_RESID</t>
+          <t>DISCAP</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
@@ -15259,91 +15264,91 @@
       <c r="E324">
         <v>3.03030303030303</v>
       </c>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>direc_resid</t>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>Discap</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>DISCAP</t>
+          <t>DISCAPACIDAD1</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="E325">
         <v>3.03030303030303</v>
       </c>
-      <c r="F325" t="inlineStr">
-        <is>
-          <t>Discap</t>
+      <c r="AK325" t="inlineStr">
+        <is>
+          <t>DISCAPACIDAD1</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>DISCAPACIDAD1</t>
+          <t>DM_CODI_EXPU</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="E326">
         <v>3.03030303030303</v>
       </c>
-      <c r="AK326" t="inlineStr">
-        <is>
-          <t>DISCAPACIDAD1</t>
+      <c r="G326" t="inlineStr">
+        <is>
+          <t>DM_CODI_EXPU</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>DM_CODI_EXPU</t>
+          <t>DM_CODI_ID_EXPU</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>logical</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>logical</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>logical</t>
         </is>
       </c>
       <c r="E327">
@@ -15351,29 +15356,29 @@
       </c>
       <c r="G327" t="inlineStr">
         <is>
-          <t>DM_CODI_EXPU</t>
+          <t>DM_CODI_ID_EXPU</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>DM_CODI_ID_EXPU</t>
+          <t>DM_CODI_ID_NACE</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>logical</t>
+          <t>character</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>logical</t>
+          <t>character</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>logical</t>
+          <t>character</t>
         </is>
       </c>
       <c r="E328">
@@ -15381,14 +15386,14 @@
       </c>
       <c r="G328" t="inlineStr">
         <is>
-          <t>DM_CODI_ID_EXPU</t>
+          <t>DM_CODI_ID_NACE</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>DM_CODI_ID_NACE</t>
+          <t>DPTO_RES</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
@@ -15409,46 +15414,46 @@
       <c r="E329">
         <v>3.03030303030303</v>
       </c>
-      <c r="G329" t="inlineStr">
-        <is>
-          <t>DM_CODI_ID_NACE</t>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>Dpto_res</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>DPTO_RES</t>
+          <t>EDAD 2</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="E330">
         <v>3.03030303030303</v>
       </c>
-      <c r="F330" t="inlineStr">
-        <is>
-          <t>Dpto_res</t>
+      <c r="Q330" t="inlineStr">
+        <is>
+          <t>EDAD 2</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>EDAD 2</t>
+          <t>EDAD 31 MARZO</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
@@ -15469,16 +15474,16 @@
       <c r="E331">
         <v>3.03030303030303</v>
       </c>
-      <c r="Q331" t="inlineStr">
-        <is>
-          <t>EDAD 2</t>
+      <c r="N331" t="inlineStr">
+        <is>
+          <t>edad 31 marzo</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>EDAD 31 MARZO</t>
+          <t>EDAD A 31 DE MARZO</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
@@ -15499,16 +15504,16 @@
       <c r="E332">
         <v>3.03030303030303</v>
       </c>
-      <c r="N332" t="inlineStr">
-        <is>
-          <t>edad 31 marzo</t>
+      <c r="L332" t="inlineStr">
+        <is>
+          <t>edad a 31 de marzo</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>EDAD A 31 DE MARZO</t>
+          <t>EDAD A MARZO 31</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
@@ -15529,16 +15534,16 @@
       <c r="E333">
         <v>3.03030303030303</v>
       </c>
-      <c r="L333" t="inlineStr">
-        <is>
-          <t>edad a 31 de marzo</t>
+      <c r="J333" t="inlineStr">
+        <is>
+          <t>edad a marzo 31</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>EDAD A MARZO 31</t>
+          <t>EDAD CALCULADA A 31/03/2015</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
@@ -15559,16 +15564,16 @@
       <c r="E334">
         <v>3.03030303030303</v>
       </c>
-      <c r="J334" t="inlineStr">
-        <is>
-          <t>edad a marzo 31</t>
+      <c r="V334" t="inlineStr">
+        <is>
+          <t>Edad calculada a 31/03/2015</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>EDAD CALCULADA A 31/03/2015</t>
+          <t>EDAD CALCULADA AL CORTE</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
@@ -15589,16 +15594,16 @@
       <c r="E335">
         <v>3.03030303030303</v>
       </c>
-      <c r="V335" t="inlineStr">
-        <is>
-          <t>Edad calculada a 31/03/2015</t>
+      <c r="Y335" t="inlineStr">
+        <is>
+          <t>Edad Calculada al Corte</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>EDAD CALCULADA AL CORTE</t>
+          <t>EDAD IDEAL X GRADO</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
@@ -15619,16 +15624,16 @@
       <c r="E336">
         <v>3.03030303030303</v>
       </c>
-      <c r="Y336" t="inlineStr">
-        <is>
-          <t>Edad Calculada al Corte</t>
+      <c r="M336" t="inlineStr">
+        <is>
+          <t>Edad ideal x grado</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>EDAD IDEAL X GRADO</t>
+          <t>EDAD JAAM</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
@@ -15651,14 +15656,14 @@
       </c>
       <c r="M337" t="inlineStr">
         <is>
-          <t>Edad ideal x grado</t>
+          <t>edad JAAM</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>EDAD JAAM</t>
+          <t>EDAD JUNIO</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
@@ -15681,14 +15686,14 @@
       </c>
       <c r="M338" t="inlineStr">
         <is>
-          <t>edad JAAM</t>
+          <t>edad junio</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>EDAD JUNIO</t>
+          <t>EDAD JUNIO 30</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
@@ -15709,16 +15714,16 @@
       <c r="E339">
         <v>3.03030303030303</v>
       </c>
-      <c r="M339" t="inlineStr">
-        <is>
-          <t>edad junio</t>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>Edad junio 30</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>EDAD JUNIO 30</t>
+          <t>EDAD MARZO</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
@@ -15739,16 +15744,16 @@
       <c r="E340">
         <v>3.03030303030303</v>
       </c>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>Edad junio 30</t>
+      <c r="M340" t="inlineStr">
+        <is>
+          <t>edad marzo</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>EDAD MARZO</t>
+          <t>EDAD MARZO 31</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
@@ -15769,16 +15774,16 @@
       <c r="E341">
         <v>3.03030303030303</v>
       </c>
-      <c r="M341" t="inlineStr">
-        <is>
-          <t>edad marzo</t>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>edad marzo 31</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>EDAD MARZO 31</t>
+          <t>EDAD MEN</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
@@ -15799,16 +15804,16 @@
       <c r="E342">
         <v>3.03030303030303</v>
       </c>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>edad marzo 31</t>
+      <c r="Y342" t="inlineStr">
+        <is>
+          <t>EDAD MEN</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>EDAD MEN</t>
+          <t>EDAD-MEN</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
@@ -15829,46 +15834,46 @@
       <c r="E343">
         <v>3.03030303030303</v>
       </c>
-      <c r="Y343" t="inlineStr">
-        <is>
-          <t>EDAD MEN</t>
+      <c r="V343" t="inlineStr">
+        <is>
+          <t>EDAD-MEN</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>EDAD-MEN</t>
+          <t>EI_CODI_ID</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="E344">
         <v>3.03030303030303</v>
       </c>
-      <c r="V344" t="inlineStr">
-        <is>
-          <t>EDAD-MEN</t>
+      <c r="G344" t="inlineStr">
+        <is>
+          <t>EI_CODI_ID</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>EI_CODI_ID</t>
+          <t>EMBARAZOPRE</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
@@ -15889,16 +15894,16 @@
       <c r="E345">
         <v>3.03030303030303</v>
       </c>
-      <c r="G345" t="inlineStr">
-        <is>
-          <t>EI_CODI_ID</t>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>EmbarazoPre</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>EMBARAZOPRE</t>
+          <t>EPS</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
@@ -15921,14 +15926,14 @@
       </c>
       <c r="F346" t="inlineStr">
         <is>
-          <t>EmbarazoPre</t>
+          <t>EPS</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>EPS</t>
+          <t>EP_CODI_ID</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
@@ -15949,16 +15954,16 @@
       <c r="E347">
         <v>3.03030303030303</v>
       </c>
-      <c r="F347" t="inlineStr">
-        <is>
-          <t>EPS</t>
+      <c r="G347" t="inlineStr">
+        <is>
+          <t>EP_CODI_ID</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>EP_CODI_ID</t>
+          <t>ESTABLECIMIENTO DUE</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
@@ -15979,16 +15984,16 @@
       <c r="E348">
         <v>3.03030303030303</v>
       </c>
-      <c r="G348" t="inlineStr">
-        <is>
-          <t>EP_CODI_ID</t>
+      <c r="Y348" t="inlineStr">
+        <is>
+          <t>Establecimiento DUE</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>ESTABLECIMIENTO DUE</t>
+          <t>ESTABLECIMIENTO EDUCATIVO</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
@@ -16009,16 +16014,16 @@
       <c r="E349">
         <v>3.03030303030303</v>
       </c>
-      <c r="Y349" t="inlineStr">
-        <is>
-          <t>Establecimiento DUE</t>
+      <c r="V349" t="inlineStr">
+        <is>
+          <t>Establecimiento Educativo</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>ESTABLECIMIENTO EDUCATIVO</t>
+          <t>ESTADOF</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
@@ -16039,16 +16044,16 @@
       <c r="E350">
         <v>3.03030303030303</v>
       </c>
-      <c r="V350" t="inlineStr">
-        <is>
-          <t>Establecimiento Educativo</t>
+      <c r="N350" t="inlineStr">
+        <is>
+          <t>ESTADOF</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>ESTADOF</t>
+          <t>ESTADO_DEFINTIVO</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
@@ -16069,16 +16074,16 @@
       <c r="E351">
         <v>3.03030303030303</v>
       </c>
-      <c r="N351" t="inlineStr">
-        <is>
-          <t>ESTADOF</t>
+      <c r="Q351" t="inlineStr">
+        <is>
+          <t>ESTADO_DEFINTIVO</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>ESTADO_DEFINTIVO</t>
+          <t>ESTADO_INTERMEDIO</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
@@ -16101,14 +16106,14 @@
       </c>
       <c r="Q352" t="inlineStr">
         <is>
-          <t>ESTADO_DEFINTIVO</t>
+          <t>Estado_Intermedio</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>ESTADO_INTERMEDIO</t>
+          <t>ESTRATO ESTUD</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
@@ -16129,76 +16134,76 @@
       <c r="E353">
         <v>3.03030303030303</v>
       </c>
-      <c r="Q353" t="inlineStr">
-        <is>
-          <t>Estado_Intermedio</t>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>estrato estud</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>ESTRATO ESTUD</t>
+          <t>ETNIA1</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="E354">
         <v>3.03030303030303</v>
       </c>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>estrato estud</t>
+      <c r="Y354" t="inlineStr">
+        <is>
+          <t>ETNIA1</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>ETNIA1</t>
+          <t>EXPED_DCTO_DPTO</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="E355">
         <v>3.03030303030303</v>
       </c>
-      <c r="Y355" t="inlineStr">
-        <is>
-          <t>ETNIA1</t>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>exped_dcto_dpto</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>EXPED_DCTO_DPTO</t>
+          <t>EXPED_DCTO_MPIO</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
@@ -16221,14 +16226,14 @@
       </c>
       <c r="K356" t="inlineStr">
         <is>
-          <t>exped_dcto_dpto</t>
+          <t>exped_dcto_mpio</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>EXPED_DCTO_MPIO</t>
+          <t>EXPR1045</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
@@ -16249,16 +16254,16 @@
       <c r="E357">
         <v>3.03030303030303</v>
       </c>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>exped_dcto_mpio</t>
+      <c r="H357" t="inlineStr">
+        <is>
+          <t>Expr1045</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>EXPR1045</t>
+          <t>EXP_DPTO</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
@@ -16279,46 +16284,46 @@
       <c r="E358">
         <v>3.03030303030303</v>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>Expr1045</t>
+      <c r="I358" t="inlineStr">
+        <is>
+          <t>exp_dpto</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>EXP_DPTO</t>
+          <t>EXTRAEDAD JUNIO</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="E359">
         <v>3.03030303030303</v>
       </c>
-      <c r="I359" t="inlineStr">
-        <is>
-          <t>exp_dpto</t>
+      <c r="M359" t="inlineStr">
+        <is>
+          <t>extraedad junio</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>EXTRAEDAD JUNIO</t>
+          <t>EXTRAEDAD MARZO</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
@@ -16341,74 +16346,74 @@
       </c>
       <c r="M360" t="inlineStr">
         <is>
-          <t>extraedad junio</t>
+          <t>extraedad marzo</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>EXTRAEDAD MARZO</t>
+          <t>E_VACUNA</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="E361">
         <v>3.03030303030303</v>
       </c>
-      <c r="M361" t="inlineStr">
-        <is>
-          <t>extraedad marzo</t>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>E_Vacuna</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>E_VACUNA</t>
+          <t>FECHA MARZO 31</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>POSIXct;POSIXt</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>POSIXct;POSIXt</t>
         </is>
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>POSIXct;POSIXt</t>
         </is>
       </c>
       <c r="E362">
         <v>3.03030303030303</v>
       </c>
-      <c r="F362" t="inlineStr">
-        <is>
-          <t>E_Vacuna</t>
+      <c r="L362" t="inlineStr">
+        <is>
+          <t>fecha marzo 31</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>FECHA MARZO 31</t>
+          <t>FECHA NACIM</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
@@ -16429,76 +16434,76 @@
       <c r="E363">
         <v>3.03030303030303</v>
       </c>
-      <c r="L363" t="inlineStr">
-        <is>
-          <t>fecha marzo 31</t>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>fecha nacim</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>FECHA NACIM</t>
+          <t>FECHA_ANEXO</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>POSIXct;POSIXt</t>
+          <t>logical</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>POSIXct;POSIXt</t>
+          <t>logical</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>POSIXct;POSIXt</t>
+          <t>logical</t>
         </is>
       </c>
       <c r="E364">
         <v>3.03030303030303</v>
       </c>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>fecha nacim</t>
+      <c r="Y364" t="inlineStr">
+        <is>
+          <t>fecha_anexo</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>FECHA_ANEXO</t>
+          <t>FECHA_CORTE1</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>logical</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>logical</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>logical</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="E365">
         <v>3.03030303030303</v>
       </c>
-      <c r="Y365" t="inlineStr">
-        <is>
-          <t>fecha_anexo</t>
+      <c r="M365" t="inlineStr">
+        <is>
+          <t>fecha_corte1</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>FECHA_CORTE1</t>
+          <t>FECHA_CORTE2</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
@@ -16521,14 +16526,14 @@
       </c>
       <c r="M366" t="inlineStr">
         <is>
-          <t>fecha_corte1</t>
+          <t>fecha_corte2</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>FECHA_CORTE2</t>
+          <t>FECHA_NACIMIENT</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
@@ -16551,44 +16556,44 @@
       </c>
       <c r="M367" t="inlineStr">
         <is>
-          <t>fecha_corte2</t>
+          <t>fecha_nacimient</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>FECHA_NACIMIENT</t>
+          <t>FECHA_NACIMIENTO (EN OTRO FORMATO)</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>POSIXct;POSIXt</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>POSIXct;POSIXt</t>
         </is>
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>POSIXct;POSIXt</t>
         </is>
       </c>
       <c r="E368">
         <v>3.03030303030303</v>
       </c>
-      <c r="M368" t="inlineStr">
-        <is>
-          <t>fecha_nacimient</t>
+      <c r="Y368" t="inlineStr">
+        <is>
+          <t>FECHA_NACIMIENTO (En otro Formato)</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>FECHA_NACIMIENTO (EN OTRO FORMATO)</t>
+          <t>FECHA_NACIMIENTO2</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
@@ -16609,46 +16614,46 @@
       <c r="E369">
         <v>3.03030303030303</v>
       </c>
-      <c r="Y369" t="inlineStr">
-        <is>
-          <t>FECHA_NACIMIENTO (En otro Formato)</t>
+      <c r="N369" t="inlineStr">
+        <is>
+          <t>FECHA_NACIMIENTO2</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>FECHA_NACIMIENTO2</t>
+          <t>FF_CODI_ID</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>POSIXct;POSIXt</t>
+          <t>character</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>POSIXct;POSIXt</t>
+          <t>character</t>
         </is>
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>POSIXct;POSIXt</t>
+          <t>character</t>
         </is>
       </c>
       <c r="E370">
         <v>3.03030303030303</v>
       </c>
-      <c r="N370" t="inlineStr">
-        <is>
-          <t>FECHA_NACIMIENTO2</t>
+      <c r="G370" t="inlineStr">
+        <is>
+          <t>FF_CODI_ID</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>FF_CODI_ID</t>
+          <t>FUENTE_RECURSOS</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
@@ -16669,91 +16674,91 @@
       <c r="E371">
         <v>3.03030303030303</v>
       </c>
-      <c r="G371" t="inlineStr">
-        <is>
-          <t>FF_CODI_ID</t>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>fuente_recursos</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>FUENTE_RECURSOS</t>
+          <t>F_NAC</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>POSIXct;POSIXt</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>POSIXct;POSIXt</t>
         </is>
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>POSIXct;POSIXt</t>
         </is>
       </c>
       <c r="E372">
         <v>3.03030303030303</v>
       </c>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>fuente_recursos</t>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>F_Nac</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>F_NAC</t>
+          <t>GRADO 2</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>POSIXct;POSIXt</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>POSIXct;POSIXt</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>POSIXct;POSIXt</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="E373">
         <v>3.03030303030303</v>
       </c>
-      <c r="F373" t="inlineStr">
-        <is>
-          <t>F_Nac</t>
+      <c r="Q373" t="inlineStr">
+        <is>
+          <t>GRADO 2</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>GRADO 2</t>
+          <t>GRATUIDAD</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="E374">
@@ -16761,14 +16766,14 @@
       </c>
       <c r="Q374" t="inlineStr">
         <is>
-          <t>GRADO 2</t>
+          <t>GRATUIDAD</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>GRATUIDAD</t>
+          <t>GRUOP</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
@@ -16789,16 +16794,16 @@
       <c r="E375">
         <v>3.03030303030303</v>
       </c>
-      <c r="Q375" t="inlineStr">
-        <is>
-          <t>GRATUIDAD</t>
+      <c r="I375" t="inlineStr">
+        <is>
+          <t>gruop</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>GRUOP</t>
+          <t>GRUPO_CURSO</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
@@ -16819,16 +16824,16 @@
       <c r="E376">
         <v>3.03030303030303</v>
       </c>
-      <c r="I376" t="inlineStr">
-        <is>
-          <t>gruop</t>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>grupo_curso</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>GRUPO_CURSO</t>
+          <t>HIJO_DEPEND_CAB_FLIA</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
@@ -16851,14 +16856,14 @@
       </c>
       <c r="K377" t="inlineStr">
         <is>
-          <t>grupo_curso</t>
+          <t>hijo_depend_cab_flia</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>HIJO_DEPEND_CAB_FLIA</t>
+          <t>ID+DANE</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
@@ -16879,16 +16884,16 @@
       <c r="E378">
         <v>3.03030303030303</v>
       </c>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>hijo_depend_cab_flia</t>
+      <c r="AH378" t="inlineStr">
+        <is>
+          <t>ID+DANE</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>ID+DANE</t>
+          <t>ID...17</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
@@ -16909,16 +16914,16 @@
       <c r="E379">
         <v>3.03030303030303</v>
       </c>
-      <c r="AH379" t="inlineStr">
-        <is>
-          <t>ID+DANE</t>
+      <c r="AA379" t="inlineStr">
+        <is>
+          <t>Id...17</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>ID...17</t>
+          <t>ID...31</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
@@ -16941,14 +16946,14 @@
       </c>
       <c r="AA380" t="inlineStr">
         <is>
-          <t>Id...17</t>
+          <t>Id...31</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>ID...31</t>
+          <t>ID...4</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
@@ -16971,44 +16976,44 @@
       </c>
       <c r="AA381" t="inlineStr">
         <is>
-          <t>Id...31</t>
+          <t>Id...4</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>ID...4</t>
+          <t>INDICATIVO TEXTO...1</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="E382">
         <v>3.03030303030303</v>
       </c>
-      <c r="AA382" t="inlineStr">
-        <is>
-          <t>Id...4</t>
+      <c r="X382" t="inlineStr">
+        <is>
+          <t>indicativo TEXTO...1</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>INDICATIVO TEXTO...1</t>
+          <t>INDICATIVO TEXTO...17</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
@@ -17031,44 +17036,44 @@
       </c>
       <c r="X383" t="inlineStr">
         <is>
-          <t>indicativo TEXTO...1</t>
+          <t>indicativo TEXTO...17</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>INDICATIVO TEXTO...17</t>
+          <t>INSTBIEN</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="E384">
         <v>3.03030303030303</v>
       </c>
-      <c r="X384" t="inlineStr">
-        <is>
-          <t>indicativo TEXTO...17</t>
+      <c r="F384" t="inlineStr">
+        <is>
+          <t>InstBien</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>INSTBIEN</t>
+          <t>INSTITUCIONES EDUCATIVA</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
@@ -17089,16 +17094,16 @@
       <c r="E385">
         <v>3.03030303030303</v>
       </c>
-      <c r="F385" t="inlineStr">
-        <is>
-          <t>InstBien</t>
+      <c r="N385" t="inlineStr">
+        <is>
+          <t>INSTITUCIONES EDUCATIVA</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>INSTITUCIONES EDUCATIVA</t>
+          <t>INSTITUCIONES EDUCATIVAS</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
@@ -17119,16 +17124,16 @@
       <c r="E386">
         <v>3.03030303030303</v>
       </c>
-      <c r="N386" t="inlineStr">
-        <is>
-          <t>INSTITUCIONES EDUCATIVA</t>
+      <c r="O386" t="inlineStr">
+        <is>
+          <t>INSTITUCIONES EDUCATIVAS</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>INSTITUCIONES EDUCATIVAS</t>
+          <t>INSTITUCIÓN EDUCATIVO</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
@@ -17149,136 +17154,136 @@
       <c r="E387">
         <v>3.03030303030303</v>
       </c>
-      <c r="O387" t="inlineStr">
-        <is>
-          <t>INSTITUCIONES EDUCATIVAS</t>
+      <c r="M387" t="inlineStr">
+        <is>
+          <t>INSTITUCIÓN EDUCATIVO</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>INSTITUCIÓN EDUCATIVO</t>
+          <t>INST_BIENES_ORIGEN</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>logical</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>logical</t>
         </is>
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>logical</t>
         </is>
       </c>
       <c r="E388">
         <v>3.03030303030303</v>
       </c>
-      <c r="M388" t="inlineStr">
-        <is>
-          <t>INSTITUCIÓN EDUCATIVO</t>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>inst_bienes_origen</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>INST_BIENES_ORIGEN</t>
+          <t>IN_CODI_ID</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>logical</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>logical</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t>logical</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="E389">
         <v>3.03030303030303</v>
       </c>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>inst_bienes_origen</t>
+      <c r="G389" t="inlineStr">
+        <is>
+          <t>IN_CODI_ID</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>IN_CODI_ID</t>
+          <t>JUNIO 30 DE 2009</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>POSIXct;POSIXt</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>POSIXct;POSIXt</t>
         </is>
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>POSIXct;POSIXt</t>
         </is>
       </c>
       <c r="E390">
         <v>3.03030303030303</v>
       </c>
-      <c r="G390" t="inlineStr">
-        <is>
-          <t>IN_CODI_ID</t>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>junio 30 de 2009</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>JUNIO 30 DE 2009</t>
+          <t>JUNIO3006</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>POSIXct;POSIXt</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>POSIXct;POSIXt</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>POSIXct;POSIXt</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="E391">
         <v>3.03030303030303</v>
       </c>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>junio 30 de 2009</t>
+      <c r="H391" t="inlineStr">
+        <is>
+          <t>junio3006</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>JUNIO3006</t>
+          <t>JUNIO3007</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
@@ -17299,91 +17304,91 @@
       <c r="E392">
         <v>3.03030303030303</v>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>junio3006</t>
+      <c r="I392" t="inlineStr">
+        <is>
+          <t>junio3007</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>JUNIO3007</t>
+          <t>JUNIO302004</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>POSIXct;POSIXt</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>POSIXct;POSIXt</t>
         </is>
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>POSIXct;POSIXt</t>
         </is>
       </c>
       <c r="E393">
         <v>3.03030303030303</v>
       </c>
-      <c r="I393" t="inlineStr">
-        <is>
-          <t>junio3007</t>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>junio302004</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>JUNIO302004</t>
+          <t>JUNIO302005</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>POSIXct;POSIXt</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>POSIXct;POSIXt</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>POSIXct;POSIXt</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="E394">
         <v>3.03030303030303</v>
       </c>
-      <c r="F394" t="inlineStr">
-        <is>
-          <t>junio302004</t>
+      <c r="G394" t="inlineStr">
+        <is>
+          <t>junio302005</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>JUNIO302005</t>
+          <t>LC_CODI_ID</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="E395">
@@ -17391,14 +17396,14 @@
       </c>
       <c r="G395" t="inlineStr">
         <is>
-          <t>junio302005</t>
+          <t>LC_CODI_ID</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>LC_CODI_ID</t>
+          <t>LEXPDACUD</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
@@ -17419,16 +17424,16 @@
       <c r="E396">
         <v>3.03030303030303</v>
       </c>
-      <c r="G396" t="inlineStr">
-        <is>
-          <t>LC_CODI_ID</t>
+      <c r="F396" t="inlineStr">
+        <is>
+          <t>LexpDacud</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>LEXPDACUD</t>
+          <t>LEXPMACUD</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
@@ -17451,14 +17456,14 @@
       </c>
       <c r="F397" t="inlineStr">
         <is>
-          <t>LexpDacud</t>
+          <t>LexpMacud</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>LEXPMACUD</t>
+          <t>LUGAR_NAC_DPTO</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
@@ -17479,16 +17484,16 @@
       <c r="E398">
         <v>3.03030303030303</v>
       </c>
-      <c r="F398" t="inlineStr">
-        <is>
-          <t>LexpMacud</t>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>lugar_nac_dpto</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>LUGAR_NAC_DPTO</t>
+          <t>LUGAR_NAC_MPIO</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
@@ -17511,14 +17516,14 @@
       </c>
       <c r="K399" t="inlineStr">
         <is>
-          <t>lugar_nac_dpto</t>
+          <t>lugar_nac_mpio</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>LUGAR_NAC_MPIO</t>
+          <t>MALTRATO</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
@@ -17539,46 +17544,46 @@
       <c r="E400">
         <v>3.03030303030303</v>
       </c>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>lugar_nac_mpio</t>
+      <c r="F400" t="inlineStr">
+        <is>
+          <t>Maltrato</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>MALTRATO</t>
+          <t>MARZO3106</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="E401">
         <v>3.03030303030303</v>
       </c>
-      <c r="F401" t="inlineStr">
-        <is>
-          <t>Maltrato</t>
+      <c r="H401" t="inlineStr">
+        <is>
+          <t>marzo3106</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>MARZO3106</t>
+          <t>MARZO3107</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
@@ -17599,106 +17604,106 @@
       <c r="E402">
         <v>3.03030303030303</v>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>marzo3106</t>
+      <c r="I402" t="inlineStr">
+        <is>
+          <t>marzo3107</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>MARZO3107</t>
+          <t>MARZO312004</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>POSIXct;POSIXt</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>POSIXct;POSIXt</t>
         </is>
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>POSIXct;POSIXt</t>
         </is>
       </c>
       <c r="E403">
         <v>3.03030303030303</v>
       </c>
-      <c r="I403" t="inlineStr">
-        <is>
-          <t>marzo3107</t>
+      <c r="F403" t="inlineStr">
+        <is>
+          <t>marzo312004</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>MARZO312004</t>
+          <t>MARZO312005</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>POSIXct;POSIXt</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>POSIXct;POSIXt</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>POSIXct;POSIXt</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="E404">
         <v>3.03030303030303</v>
       </c>
-      <c r="F404" t="inlineStr">
-        <is>
-          <t>marzo312004</t>
+      <c r="G404" t="inlineStr">
+        <is>
+          <t>marzo312005</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>MARZO312005</t>
+          <t>MATRICULA</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="E405">
         <v>3.03030303030303</v>
       </c>
-      <c r="G405" t="inlineStr">
-        <is>
-          <t>marzo312005</t>
+      <c r="X405" t="inlineStr">
+        <is>
+          <t>Matricula</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>MATRICULA</t>
+          <t>MATRICULA...19</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
@@ -17719,16 +17724,16 @@
       <c r="E406">
         <v>3.03030303030303</v>
       </c>
-      <c r="X406" t="inlineStr">
-        <is>
-          <t>Matricula</t>
+      <c r="AA406" t="inlineStr">
+        <is>
+          <t>Matricula...19</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>MATRICULA...19</t>
+          <t>MATRICULA...33</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
@@ -17751,14 +17756,14 @@
       </c>
       <c r="AA407" t="inlineStr">
         <is>
-          <t>Matricula...19</t>
+          <t>Matricula...33</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>MATRICULA...33</t>
+          <t>MATRICULA...6</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
@@ -17781,89 +17786,89 @@
       </c>
       <c r="AA408" t="inlineStr">
         <is>
-          <t>Matricula...33</t>
+          <t>Matricula...6</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>MATRICULA...6</t>
+          <t>MATRICULA_DEFINITIVA_SUM</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="E409">
         <v>3.03030303030303</v>
       </c>
-      <c r="AA409" t="inlineStr">
-        <is>
-          <t>Matricula...6</t>
+      <c r="Y409" t="inlineStr">
+        <is>
+          <t>Matricula_Definitiva_Sum</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>MATRICULA_DEFINITIVA_SUM</t>
+          <t>MATRÍCULA_DEFINITIVA</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="E410">
         <v>3.03030303030303</v>
       </c>
-      <c r="Y410" t="inlineStr">
-        <is>
-          <t>Matricula_Definitiva_Sum</t>
+      <c r="Q410" t="inlineStr">
+        <is>
+          <t>Matrícula_Definitiva</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>MATRÍCULA_DEFINITIVA</t>
+          <t>MES_ATENCION</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="E411">
@@ -17871,14 +17876,14 @@
       </c>
       <c r="Q411" t="inlineStr">
         <is>
-          <t>Matrícula_Definitiva</t>
+          <t>mes_atencion</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>MES_ATENCION</t>
+          <t>MES_FINAL</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
@@ -17901,44 +17906,44 @@
       </c>
       <c r="Q412" t="inlineStr">
         <is>
-          <t>mes_atencion</t>
+          <t>mes_final</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>MES_FINAL</t>
+          <t>METODOL</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="E413">
         <v>3.03030303030303</v>
       </c>
-      <c r="Q413" t="inlineStr">
-        <is>
-          <t>mes_final</t>
+      <c r="F413" t="inlineStr">
+        <is>
+          <t>Metodol</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>METODOL</t>
+          <t>MEXP</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
@@ -17961,14 +17966,14 @@
       </c>
       <c r="F414" t="inlineStr">
         <is>
-          <t>Metodol</t>
+          <t>Mexp</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>MEXP</t>
+          <t>MOTIVO</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
@@ -17989,16 +17994,16 @@
       <c r="E415">
         <v>3.03030303030303</v>
       </c>
-      <c r="F415" t="inlineStr">
-        <is>
-          <t>Mexp</t>
+      <c r="Y415" t="inlineStr">
+        <is>
+          <t>MOTIVO</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>MOTIVO</t>
+          <t>MPIO_EXP</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
@@ -18019,16 +18024,16 @@
       <c r="E416">
         <v>3.03030303030303</v>
       </c>
-      <c r="Y416" t="inlineStr">
-        <is>
-          <t>MOTIVO</t>
+      <c r="F416" t="inlineStr">
+        <is>
+          <t>Mpio_exp</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>MPIO_EXP</t>
+          <t>MPIO_NAC</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
@@ -18051,14 +18056,14 @@
       </c>
       <c r="F417" t="inlineStr">
         <is>
-          <t>Mpio_exp</t>
+          <t>Mpio_Nac</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>MPIO_NAC</t>
+          <t>MPIO_RES</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
@@ -18081,14 +18086,14 @@
       </c>
       <c r="F418" t="inlineStr">
         <is>
-          <t>Mpio_Nac</t>
+          <t>Mpio_res</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>MPIO_RES</t>
+          <t>MUN_COD</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
@@ -18109,16 +18114,16 @@
       <c r="E419">
         <v>3.03030303030303</v>
       </c>
-      <c r="F419" t="inlineStr">
-        <is>
-          <t>Mpio_res</t>
+      <c r="I419" t="inlineStr">
+        <is>
+          <t>mun_cod</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>MUN_COD</t>
+          <t>NAC_DPTO</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
@@ -18141,14 +18146,14 @@
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>mun_cod</t>
+          <t>nac_dpto</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>NAC_DPTO</t>
+          <t>NOMBRE2_ACUDIENTE</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
@@ -18169,16 +18174,16 @@
       <c r="E421">
         <v>3.03030303030303</v>
       </c>
-      <c r="I421" t="inlineStr">
-        <is>
-          <t>nac_dpto</t>
+      <c r="F421" t="inlineStr">
+        <is>
+          <t>Nomb2 Acud</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>NOMBRE2_ACUDIENTE</t>
+          <t>NOMBRE IE</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
@@ -18199,46 +18204,46 @@
       <c r="E422">
         <v>3.03030303030303</v>
       </c>
-      <c r="F422" t="inlineStr">
-        <is>
-          <t>Nomb2 Acud</t>
+      <c r="H422" t="inlineStr">
+        <is>
+          <t>Nombre IE</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>NOMBRE IE</t>
+          <t>NOMBREGRADO</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="E423">
         <v>3.03030303030303</v>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>Nombre IE</t>
+      <c r="N423" t="inlineStr">
+        <is>
+          <t>NombreGrado</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>NOMBREGRADO</t>
+          <t>NRO.OFICIAL</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
@@ -18259,46 +18264,46 @@
       <c r="E424">
         <v>3.03030303030303</v>
       </c>
-      <c r="N424" t="inlineStr">
-        <is>
-          <t>NombreGrado</t>
+      <c r="Z424" t="inlineStr">
+        <is>
+          <t>Nro.Oficial</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>NRO.OFICIAL</t>
+          <t>NRODOCUMENTO</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="E425">
         <v>3.03030303030303</v>
       </c>
-      <c r="Z425" t="inlineStr">
-        <is>
-          <t>Nro.Oficial</t>
+      <c r="X425" t="inlineStr">
+        <is>
+          <t>NRODOCUMENTO</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>NRODOCUMENTO</t>
+          <t>NRO_DOCUMENTO_ACUDIENTE</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
@@ -18319,106 +18324,106 @@
       <c r="E426">
         <v>3.03030303030303</v>
       </c>
-      <c r="X426" t="inlineStr">
-        <is>
-          <t>NRODOCUMENTO</t>
+      <c r="G426" t="inlineStr">
+        <is>
+          <t>AL_CEDU_ACUD</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>NRO_DOCUMENTO_ACUDIENTE</t>
+          <t>NUCLEO SEDE</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="E427">
         <v>3.03030303030303</v>
       </c>
-      <c r="G427" t="inlineStr">
-        <is>
-          <t>AL_CEDU_ACUD</t>
+      <c r="N427" t="inlineStr">
+        <is>
+          <t>NUCLEO SEDE</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>NUCLEO SEDE</t>
+          <t>NUEVO_IE</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="E428">
         <v>3.03030303030303</v>
       </c>
-      <c r="N428" t="inlineStr">
-        <is>
-          <t>NUCLEO SEDE</t>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>nuevo_ie</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>NUEVO_IE</t>
+          <t>NUMERO</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="E429">
         <v>3.03030303030303</v>
       </c>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>nuevo_ie</t>
+      <c r="S429" t="inlineStr">
+        <is>
+          <t>Numero</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>NUMERO</t>
+          <t>NÚMERO</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
@@ -18439,16 +18444,16 @@
       <c r="E430">
         <v>3.03030303030303</v>
       </c>
-      <c r="S430" t="inlineStr">
-        <is>
-          <t>Numero</t>
+      <c r="M430" t="inlineStr">
+        <is>
+          <t>Número</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>NÚMERO</t>
+          <t>ORD</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
@@ -18469,16 +18474,16 @@
       <c r="E431">
         <v>3.03030303030303</v>
       </c>
-      <c r="M431" t="inlineStr">
-        <is>
-          <t>Número</t>
+      <c r="N431" t="inlineStr">
+        <is>
+          <t>ord</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>ORD</t>
+          <t>ORDEN...1</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
@@ -18499,16 +18504,16 @@
       <c r="E432">
         <v>3.03030303030303</v>
       </c>
-      <c r="N432" t="inlineStr">
-        <is>
-          <t>ord</t>
+      <c r="AA432" t="inlineStr">
+        <is>
+          <t>Orden...1</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>ORDEN...1</t>
+          <t>ORDEN...14</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
@@ -18531,29 +18536,29 @@
       </c>
       <c r="AA433" t="inlineStr">
         <is>
-          <t>Orden...1</t>
+          <t>Orden...14</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>ORDEN...14</t>
+          <t>ORDEN...16</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="D434" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="E434">
@@ -18561,29 +18566,29 @@
       </c>
       <c r="AA434" t="inlineStr">
         <is>
-          <t>Orden...14</t>
+          <t>Orden...16</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>ORDEN...16</t>
+          <t>ORDEN...28</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="D435" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="E435">
@@ -18591,29 +18596,29 @@
       </c>
       <c r="AA435" t="inlineStr">
         <is>
-          <t>Orden...16</t>
+          <t>Orden...28</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>ORDEN...28</t>
+          <t>ORDEN...3</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="D436" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="E436">
@@ -18621,14 +18626,14 @@
       </c>
       <c r="AA436" t="inlineStr">
         <is>
-          <t>Orden...28</t>
+          <t>Orden...3</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>ORDEN...3</t>
+          <t>ORDEN...30</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
@@ -18651,14 +18656,14 @@
       </c>
       <c r="AA437" t="inlineStr">
         <is>
-          <t>Orden...3</t>
+          <t>Orden...30</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>ORDEN...30</t>
+          <t>PARENTE</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
@@ -18679,16 +18684,16 @@
       <c r="E438">
         <v>3.03030303030303</v>
       </c>
-      <c r="AA438" t="inlineStr">
-        <is>
-          <t>Orden...30</t>
+      <c r="F438" t="inlineStr">
+        <is>
+          <t>Parente</t>
         </is>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>PARENTE</t>
+          <t>PC_CODI_ID</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
@@ -18709,16 +18714,16 @@
       <c r="E439">
         <v>3.03030303030303</v>
       </c>
-      <c r="F439" t="inlineStr">
-        <is>
-          <t>Parente</t>
+      <c r="G439" t="inlineStr">
+        <is>
+          <t>PC_CODI_ID</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>PC_CODI_ID</t>
+          <t>PI_CODI_ID</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
@@ -18741,74 +18746,74 @@
       </c>
       <c r="G440" t="inlineStr">
         <is>
-          <t>PC_CODI_ID</t>
+          <t>PI_CODI_ID</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>PI_CODI_ID</t>
+          <t>PJ</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="D441" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="E441">
         <v>3.03030303030303</v>
       </c>
-      <c r="G441" t="inlineStr">
-        <is>
-          <t>PI_CODI_ID</t>
+      <c r="U441" t="inlineStr">
+        <is>
+          <t>pj</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>PJ</t>
+          <t>POB_VICT_ CONF</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="D442" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="E442">
         <v>3.03030303030303</v>
       </c>
-      <c r="U442" t="inlineStr">
-        <is>
-          <t>pj</t>
+      <c r="H442" t="inlineStr">
+        <is>
+          <t>POB_VICT_ CONF</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>POB_VICT_ CONF</t>
+          <t>PRES SERVICIO</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
@@ -18829,16 +18834,16 @@
       <c r="E443">
         <v>3.03030303030303</v>
       </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>POB_VICT_ CONF</t>
+      <c r="F443" t="inlineStr">
+        <is>
+          <t>Pres servicio</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>PRES SERVICIO</t>
+          <t>PREST SERVICI</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
@@ -18859,16 +18864,16 @@
       <c r="E444">
         <v>3.03030303030303</v>
       </c>
-      <c r="F444" t="inlineStr">
-        <is>
-          <t>Pres servicio</t>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>Prest Servici</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>PREST SERVICI</t>
+          <t>PRESTACIÓN DEL SERVICIO...21</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
@@ -18889,16 +18894,16 @@
       <c r="E445">
         <v>3.03030303030303</v>
       </c>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>Prest Servici</t>
+      <c r="M445" t="inlineStr">
+        <is>
+          <t>PRESTACIÓN DEL SERVICIO...21</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>PRESTACIÓN DEL SERVICIO...21</t>
+          <t>PRESTACIÓN DEL SERVICIO...42</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
@@ -18921,14 +18926,14 @@
       </c>
       <c r="M446" t="inlineStr">
         <is>
-          <t>PRESTACIÓN DEL SERVICIO...21</t>
+          <t>PRESTACIÓN DEL SERVICIO...42</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>PRESTACIÓN DEL SERVICIO...42</t>
+          <t>PRESTACIÓN DEL SERVICIO...77</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
@@ -18949,16 +18954,16 @@
       <c r="E447">
         <v>3.03030303030303</v>
       </c>
-      <c r="M447" t="inlineStr">
-        <is>
-          <t>PRESTACIÓN DEL SERVICIO...42</t>
+      <c r="Y447" t="inlineStr">
+        <is>
+          <t>Prestación del Servicio...77</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>PRESTACIÓN DEL SERVICIO...77</t>
+          <t>PRESTACIÓN DEL SERVICIO...86</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
@@ -18981,14 +18986,14 @@
       </c>
       <c r="Y448" t="inlineStr">
         <is>
-          <t>Prestación del Servicio...77</t>
+          <t>Prestación del Servicio...86</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>PRESTACIÓN DEL SERVICIO...86</t>
+          <t>PROVSPV</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
@@ -19009,16 +19014,16 @@
       <c r="E449">
         <v>3.03030303030303</v>
       </c>
-      <c r="Y449" t="inlineStr">
-        <is>
-          <t>Prestación del Servicio...86</t>
+      <c r="F449" t="inlineStr">
+        <is>
+          <t>ProvSPv</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>PROVSPV</t>
+          <t>PROV_OTRO_MPIO</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
@@ -19039,16 +19044,16 @@
       <c r="E450">
         <v>3.03030303030303</v>
       </c>
-      <c r="F450" t="inlineStr">
-        <is>
-          <t>ProvSPv</t>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>prov_otro_mpio</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>PROV_OTRO_MPIO</t>
+          <t>PROV_OTRO_MUN</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
@@ -19069,16 +19074,16 @@
       <c r="E451">
         <v>3.03030303030303</v>
       </c>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>prov_otro_mpio</t>
+      <c r="I451" t="inlineStr">
+        <is>
+          <t>prov_otro_mun</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>PROV_OTRO_MUN</t>
+          <t>PROV_SECTOR_PRIV</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
@@ -19101,14 +19106,14 @@
       </c>
       <c r="I452" t="inlineStr">
         <is>
-          <t>prov_otro_mun</t>
+          <t>prov_sector_priv</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>PROV_SECTOR_PRIV</t>
+          <t>PROV_SECT_PRIVADO</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
@@ -19129,76 +19134,76 @@
       <c r="E453">
         <v>3.03030303030303</v>
       </c>
-      <c r="I453" t="inlineStr">
-        <is>
-          <t>prov_sector_priv</t>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>prov_sect_privado</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>PROV_SECT_PRIVADO</t>
+          <t>PRUEBA PARA CRUCE 4751</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="D454" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="E454">
         <v>3.03030303030303</v>
       </c>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>prov_sect_privado</t>
+      <c r="M454" t="inlineStr">
+        <is>
+          <t>prueba para cruce 4751</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>PRUEBA PARA CRUCE 4751</t>
+          <t>PVICT_CONFLI</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="D455" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="E455">
         <v>3.03030303030303</v>
       </c>
-      <c r="M455" t="inlineStr">
-        <is>
-          <t>prueba para cruce 4751</t>
+      <c r="F455" t="inlineStr">
+        <is>
+          <t>PvicT_confli</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>PVICT_CONFLI</t>
+          <t>PVOMPIO</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
@@ -19221,74 +19226,74 @@
       </c>
       <c r="F456" t="inlineStr">
         <is>
-          <t>PvicT_confli</t>
+          <t>PvOMpio</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>PVOMPIO</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="D457" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="E457">
         <v>3.03030303030303</v>
       </c>
-      <c r="F457" t="inlineStr">
-        <is>
-          <t>PvOMpio</t>
+      <c r="Q457" t="inlineStr">
+        <is>
+          <t>q</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>RANGO</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="D458" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="E458">
         <v>3.03030303030303</v>
       </c>
-      <c r="Q458" t="inlineStr">
-        <is>
-          <t>q</t>
+      <c r="M458" t="inlineStr">
+        <is>
+          <t>Rango</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>RANGO</t>
+          <t>RECTOR</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
@@ -19309,16 +19314,16 @@
       <c r="E459">
         <v>3.03030303030303</v>
       </c>
-      <c r="M459" t="inlineStr">
-        <is>
-          <t>Rango</t>
+      <c r="Z459" t="inlineStr">
+        <is>
+          <t>Rector</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>RECTOR</t>
+          <t>REPITENT</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
@@ -19339,61 +19344,61 @@
       <c r="E460">
         <v>3.03030303030303</v>
       </c>
-      <c r="Z460" t="inlineStr">
-        <is>
-          <t>Rector</t>
+      <c r="F460" t="inlineStr">
+        <is>
+          <t>Repitent</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>REPITENT</t>
+          <t>RES...32</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>logical</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>logical</t>
         </is>
       </c>
       <c r="D461" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>logical</t>
         </is>
       </c>
       <c r="E461">
         <v>3.03030303030303</v>
       </c>
-      <c r="F461" t="inlineStr">
-        <is>
-          <t>Repitent</t>
+      <c r="Y461" t="inlineStr">
+        <is>
+          <t>RES...32</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>RES...32</t>
+          <t>RES...56</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>logical</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>logical</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="D462" t="inlineStr">
         <is>
-          <t>logical</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="E462">
@@ -19401,44 +19406,44 @@
       </c>
       <c r="Y462" t="inlineStr">
         <is>
-          <t>RES...32</t>
+          <t>RES...56</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>RES...56</t>
+          <t>RESGUARD</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="D463" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="E463">
         <v>3.03030303030303</v>
       </c>
-      <c r="Y463" t="inlineStr">
-        <is>
-          <t>RES...56</t>
+      <c r="F463" t="inlineStr">
+        <is>
+          <t>Resguard</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>RESGUARD</t>
+          <t>RESGUARDO</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
@@ -19459,16 +19464,16 @@
       <c r="E464">
         <v>3.03030303030303</v>
       </c>
-      <c r="F464" t="inlineStr">
-        <is>
-          <t>Resguard</t>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>resguardo</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>RESGUARDO</t>
+          <t>RESID_DPTO</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
@@ -19491,14 +19496,14 @@
       </c>
       <c r="K465" t="inlineStr">
         <is>
-          <t>resguardo</t>
+          <t>resid_dpto</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>RESID_DPTO</t>
+          <t>RESID_MPIO</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
@@ -19521,134 +19526,134 @@
       </c>
       <c r="K466" t="inlineStr">
         <is>
-          <t>resid_dpto</t>
+          <t>resid_mpio</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>RESID_MPIO</t>
+          <t>RESPONSABILIDAD_PENAL</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="D467" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="E467">
         <v>3.03030303030303</v>
       </c>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>resid_mpio</t>
+      <c r="AC467" t="inlineStr">
+        <is>
+          <t>RESPONSABILIDAD_PENAL</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>RESPONSABILIDAD_PENAL</t>
+          <t>RES_DPTO</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="D468" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="E468">
         <v>3.03030303030303</v>
       </c>
-      <c r="AC468" t="inlineStr">
-        <is>
-          <t>RESPONSABILIDAD_PENAL</t>
+      <c r="I468" t="inlineStr">
+        <is>
+          <t>res_dpto</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>RES_DPTO</t>
+          <t>RETIRADO_CALC</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="E469">
         <v>3.03030303030303</v>
       </c>
-      <c r="I469" t="inlineStr">
-        <is>
-          <t>res_dpto</t>
+      <c r="P469" t="inlineStr">
+        <is>
+          <t>RETIRADO_CALC</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>RETIRADO_CALC</t>
+          <t>RIESGON</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="D470" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="E470">
         <v>3.03030303030303</v>
       </c>
-      <c r="P470" t="inlineStr">
-        <is>
-          <t>RETIRADO_CALC</t>
+      <c r="F470" t="inlineStr">
+        <is>
+          <t>RiesgoN</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>RIESGON</t>
+          <t>SACAÑANT</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
@@ -19671,74 +19676,74 @@
       </c>
       <c r="F471" t="inlineStr">
         <is>
-          <t>RiesgoN</t>
+          <t>SacAñAnt</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>SACAÑANT</t>
+          <t>SE IMPUTO EL CONSEDES</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>logical</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>logical</t>
         </is>
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>logical</t>
         </is>
       </c>
       <c r="E472">
         <v>3.03030303030303</v>
       </c>
-      <c r="F472" t="inlineStr">
-        <is>
-          <t>SacAñAnt</t>
+      <c r="V472" t="inlineStr">
+        <is>
+          <t>Se imputo el consedes</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>SE IMPUTO EL CONSEDES</t>
+          <t>SECTOR 2</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>logical</t>
+          <t>character</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>logical</t>
+          <t>character</t>
         </is>
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t>logical</t>
+          <t>character</t>
         </is>
       </c>
       <c r="E473">
         <v>3.03030303030303</v>
       </c>
-      <c r="V473" t="inlineStr">
-        <is>
-          <t>Se imputo el consedes</t>
+      <c r="P473" t="inlineStr">
+        <is>
+          <t>SECTOR 2</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>SECTOR 2</t>
+          <t>SECTOR SEDE</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
@@ -19759,16 +19764,16 @@
       <c r="E474">
         <v>3.03030303030303</v>
       </c>
-      <c r="P474" t="inlineStr">
-        <is>
-          <t>SECTOR 2</t>
+      <c r="N474" t="inlineStr">
+        <is>
+          <t>SECTOR SEDE</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>SECTOR SEDE</t>
+          <t>SEDE - DUE</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
@@ -19789,16 +19794,16 @@
       <c r="E475">
         <v>3.03030303030303</v>
       </c>
-      <c r="N475" t="inlineStr">
-        <is>
-          <t>SECTOR SEDE</t>
+      <c r="Y475" t="inlineStr">
+        <is>
+          <t>Sede - DUE</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>SEDE - DUE</t>
+          <t>SEDE EDUCATIVA</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
@@ -19819,16 +19824,16 @@
       <c r="E476">
         <v>3.03030303030303</v>
       </c>
-      <c r="Y476" t="inlineStr">
-        <is>
-          <t>Sede - DUE</t>
+      <c r="V476" t="inlineStr">
+        <is>
+          <t>Sede Educativa</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>SEDE EDUCATIVA</t>
+          <t>SEDES</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
@@ -19849,16 +19854,16 @@
       <c r="E477">
         <v>3.03030303030303</v>
       </c>
-      <c r="V477" t="inlineStr">
-        <is>
-          <t>Sede Educativa</t>
+      <c r="O477" t="inlineStr">
+        <is>
+          <t>SEDES</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>SEDES</t>
+          <t>SIT_ACAD_AÑO_ANT</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
@@ -19879,16 +19884,16 @@
       <c r="E478">
         <v>3.03030303030303</v>
       </c>
-      <c r="O478" t="inlineStr">
-        <is>
-          <t>SEDES</t>
+      <c r="I478" t="inlineStr">
+        <is>
+          <t>sit_acad_año_Ant</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>SIT_ACAD_AÑO_ANT</t>
+          <t>SIT_ACAD_AÑO_ANTERIOR</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
@@ -19909,16 +19914,16 @@
       <c r="E479">
         <v>3.03030303030303</v>
       </c>
-      <c r="I479" t="inlineStr">
-        <is>
-          <t>sit_acad_año_Ant</t>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>sit_acad_año_anterior</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>SIT_ACAD_AÑO_ANTERIOR</t>
+          <t>SUBSID</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
@@ -19939,16 +19944,16 @@
       <c r="E480">
         <v>3.03030303030303</v>
       </c>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>sit_acad_año_anterior</t>
+      <c r="F480" t="inlineStr">
+        <is>
+          <t>Subsid</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>SUBSID</t>
+          <t>SUBSIDIADA JAAM</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
@@ -19969,16 +19974,16 @@
       <c r="E481">
         <v>3.03030303030303</v>
       </c>
-      <c r="F481" t="inlineStr">
-        <is>
-          <t>Subsid</t>
+      <c r="M481" t="inlineStr">
+        <is>
+          <t>Subsidiada JAAM</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>SUBSIDIADA JAAM</t>
+          <t>SUMA DE EXTRAEDAD</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
@@ -19999,76 +20004,76 @@
       <c r="E482">
         <v>3.03030303030303</v>
       </c>
-      <c r="M482" t="inlineStr">
-        <is>
-          <t>Subsidiada JAAM</t>
+      <c r="AI482" t="inlineStr">
+        <is>
+          <t>Suma de EXTRAEDAD</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>SUMA DE EXTRAEDAD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="D483" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="E483">
         <v>3.03030303030303</v>
       </c>
-      <c r="AI483" t="inlineStr">
-        <is>
-          <t>Suma de EXTRAEDAD</t>
+      <c r="U483" t="inlineStr">
+        <is>
+          <t>t</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>TDOCACUD</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="D484" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="E484">
         <v>3.03030303030303</v>
       </c>
-      <c r="U484" t="inlineStr">
-        <is>
-          <t>t</t>
+      <c r="F484" t="inlineStr">
+        <is>
+          <t>Tdocacud</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>TDOCACUD</t>
+          <t>TEL_MADRE</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
@@ -20089,16 +20094,16 @@
       <c r="E485">
         <v>3.03030303030303</v>
       </c>
-      <c r="F485" t="inlineStr">
-        <is>
-          <t>Tdocacud</t>
+      <c r="G485" t="inlineStr">
+        <is>
+          <t>AL_MADR_TEL</t>
         </is>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>TEL_MADRE</t>
+          <t>TEL_PADRE</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
@@ -20121,14 +20126,14 @@
       </c>
       <c r="G486" t="inlineStr">
         <is>
-          <t>AL_MADR_TEL</t>
+          <t>AL_PADR_TEL</t>
         </is>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>TEL_PADRE</t>
+          <t>TELÉFONO SEDE</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
@@ -20149,16 +20154,16 @@
       <c r="E487">
         <v>3.03030303030303</v>
       </c>
-      <c r="G487" t="inlineStr">
-        <is>
-          <t>AL_PADR_TEL</t>
+      <c r="Z487" t="inlineStr">
+        <is>
+          <t>TELÉFONO SEDE</t>
         </is>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>TELÉFONO SEDE</t>
+          <t>TIPO</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
@@ -20179,16 +20184,16 @@
       <c r="E488">
         <v>3.03030303030303</v>
       </c>
-      <c r="Z488" t="inlineStr">
-        <is>
-          <t>TELÉFONO SEDE</t>
+      <c r="X488" t="inlineStr">
+        <is>
+          <t>tipo</t>
         </is>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>TIPO</t>
+          <t>TIPO ANEXO</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
@@ -20209,16 +20214,16 @@
       <c r="E489">
         <v>3.03030303030303</v>
       </c>
-      <c r="X489" t="inlineStr">
-        <is>
-          <t>tipo</t>
+      <c r="V489" t="inlineStr">
+        <is>
+          <t>Tipo Anexo</t>
         </is>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>TIPO ANEXO</t>
+          <t>TIPO DE SEDE</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
@@ -20239,16 +20244,16 @@
       <c r="E490">
         <v>3.03030303030303</v>
       </c>
-      <c r="V490" t="inlineStr">
-        <is>
-          <t>Tipo Anexo</t>
+      <c r="Z490" t="inlineStr">
+        <is>
+          <t>TIPO DE SEDE</t>
         </is>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>TIPO DE SEDE</t>
+          <t>TIPO E IDENTIFICACIÓN</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
@@ -20269,16 +20274,16 @@
       <c r="E491">
         <v>3.03030303030303</v>
       </c>
-      <c r="Z491" t="inlineStr">
-        <is>
-          <t>TIPO DE SEDE</t>
+      <c r="M491" t="inlineStr">
+        <is>
+          <t>Tipo e identificación</t>
         </is>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>TIPO E IDENTIFICACIÓN</t>
+          <t>TIPO...21</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
@@ -20299,16 +20304,16 @@
       <c r="E492">
         <v>3.03030303030303</v>
       </c>
-      <c r="M492" t="inlineStr">
-        <is>
-          <t>Tipo e identificación</t>
+      <c r="AA492" t="inlineStr">
+        <is>
+          <t>tipo...21</t>
         </is>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>TIPO...21</t>
+          <t>TIPO...35</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
@@ -20331,14 +20336,14 @@
       </c>
       <c r="AA493" t="inlineStr">
         <is>
-          <t>tipo...21</t>
+          <t>tipo...35</t>
         </is>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>TIPO...35</t>
+          <t>TIPO...8</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
@@ -20361,14 +20366,14 @@
       </c>
       <c r="AA494" t="inlineStr">
         <is>
-          <t>tipo...35</t>
+          <t>tipo...8</t>
         </is>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>TIPO...8</t>
+          <t>TIPOANEXO</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
@@ -20389,76 +20394,76 @@
       <c r="E495">
         <v>3.03030303030303</v>
       </c>
-      <c r="AA495" t="inlineStr">
-        <is>
-          <t>tipo...8</t>
+      <c r="X495" t="inlineStr">
+        <is>
+          <t>TipoAnexo</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>TIPOANEXO</t>
+          <t>TIPO_ANEXO_ID</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>logical</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>logical</t>
         </is>
       </c>
       <c r="D496" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>logical</t>
         </is>
       </c>
       <c r="E496">
         <v>3.03030303030303</v>
       </c>
-      <c r="X496" t="inlineStr">
-        <is>
-          <t>TipoAnexo</t>
+      <c r="Y496" t="inlineStr">
+        <is>
+          <t>tipo_anexo_id</t>
         </is>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>TIPO_ANEXO_ID</t>
+          <t>TIPO_DCTO...8</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>logical</t>
+          <t>character</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>logical</t>
+          <t>character</t>
         </is>
       </c>
       <c r="D497" t="inlineStr">
         <is>
-          <t>logical</t>
+          <t>character</t>
         </is>
       </c>
       <c r="E497">
         <v>3.03030303030303</v>
       </c>
-      <c r="Y497" t="inlineStr">
-        <is>
-          <t>tipo_anexo_id</t>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>tipo_dcto...8</t>
         </is>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>TIPO_DCTO...8</t>
+          <t>TIPO_DISCAP</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
@@ -20479,16 +20484,16 @@
       <c r="E498">
         <v>3.03030303030303</v>
       </c>
-      <c r="K498" t="inlineStr">
-        <is>
-          <t>tipo_dcto...8</t>
+      <c r="I498" t="inlineStr">
+        <is>
+          <t>tipo_discap</t>
         </is>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>TIPO_DISCAP</t>
+          <t>TIPO_DOCUMENTO_ACUDIENTE</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
@@ -20509,16 +20514,16 @@
       <c r="E499">
         <v>3.03030303030303</v>
       </c>
-      <c r="I499" t="inlineStr">
-        <is>
-          <t>tipo_discap</t>
+      <c r="F499" t="inlineStr">
+        <is>
+          <t>NdocAcud</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>TIPO_DOCUMENTO_ACUDIENTE</t>
+          <t>TIQUETE</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
@@ -20541,134 +20546,134 @@
       </c>
       <c r="F500" t="inlineStr">
         <is>
-          <t>NdocAcud</t>
+          <t>TIQUETE</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>TIQUETE</t>
+          <t>TOTAL GENERAL</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="D501" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="E501">
         <v>3.03030303030303</v>
       </c>
-      <c r="F501" t="inlineStr">
-        <is>
-          <t>TIQUETE</t>
+      <c r="U501" t="inlineStr">
+        <is>
+          <t>Total general</t>
         </is>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>TOTAL GENERAL</t>
+          <t>TOXOIDE</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="D502" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="E502">
         <v>3.03030303030303</v>
       </c>
-      <c r="U502" t="inlineStr">
-        <is>
-          <t>Total general</t>
+      <c r="F502" t="inlineStr">
+        <is>
+          <t>toxoide</t>
         </is>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>TOXOIDE</t>
+          <t>TRANSICI</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="D503" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="E503">
         <v>3.03030303030303</v>
       </c>
-      <c r="F503" t="inlineStr">
-        <is>
-          <t>toxoide</t>
+      <c r="M503" t="inlineStr">
+        <is>
+          <t>transici</t>
         </is>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>TRANSICI</t>
+          <t>TSANGRE</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="D504" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="E504">
         <v>3.03030303030303</v>
       </c>
-      <c r="M504" t="inlineStr">
-        <is>
-          <t>transici</t>
+      <c r="F504" t="inlineStr">
+        <is>
+          <t>TSangre</t>
         </is>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>TSANGRE</t>
+          <t>ULT_DPTO_EXP</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
@@ -20689,16 +20694,16 @@
       <c r="E505">
         <v>3.03030303030303</v>
       </c>
-      <c r="F505" t="inlineStr">
-        <is>
-          <t>TSangre</t>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>ult_dpto_exp</t>
         </is>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>ULT_DPTO_EXP</t>
+          <t>ULT_MPIO_EXP</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
@@ -20721,44 +20726,44 @@
       </c>
       <c r="K506" t="inlineStr">
         <is>
-          <t>ult_dpto_exp</t>
+          <t>ult_mpio_exp</t>
         </is>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>ULT_MPIO_EXP</t>
+          <t>V1</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>logical</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>logical</t>
         </is>
       </c>
       <c r="D507" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>logical</t>
         </is>
       </c>
       <c r="E507">
         <v>3.03030303030303</v>
       </c>
-      <c r="K507" t="inlineStr">
-        <is>
-          <t>ult_mpio_exp</t>
+      <c r="M507" t="inlineStr">
+        <is>
+          <t>v1</t>
         </is>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>V1</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
@@ -20781,44 +20786,44 @@
       </c>
       <c r="M508" t="inlineStr">
         <is>
-          <t>v1</t>
+          <t>v2</t>
         </is>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>VEREDA</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>logical</t>
+          <t>character</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>logical</t>
+          <t>character</t>
         </is>
       </c>
       <c r="D509" t="inlineStr">
         <is>
-          <t>logical</t>
+          <t>character</t>
         </is>
       </c>
       <c r="E509">
         <v>3.03030303030303</v>
       </c>
-      <c r="M509" t="inlineStr">
-        <is>
-          <t>v2</t>
+      <c r="Z509" t="inlineStr">
+        <is>
+          <t>VEREDA</t>
         </is>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>VEREDA</t>
+          <t>VICTIMA_CONFLICTO</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
@@ -20839,16 +20844,16 @@
       <c r="E510">
         <v>3.03030303030303</v>
       </c>
-      <c r="Z510" t="inlineStr">
-        <is>
-          <t>VEREDA</t>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>victima_conflicto</t>
         </is>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>VICTIMA_CONFLICTO</t>
+          <t>VLECHE</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
@@ -20869,16 +20874,16 @@
       <c r="E511">
         <v>3.03030303030303</v>
       </c>
-      <c r="K511" t="inlineStr">
-        <is>
-          <t>victima_conflicto</t>
+      <c r="F511" t="inlineStr">
+        <is>
+          <t>VLeche</t>
         </is>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>VLECHE</t>
+          <t>X</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
@@ -20899,16 +20904,16 @@
       <c r="E512">
         <v>3.03030303030303</v>
       </c>
-      <c r="F512" t="inlineStr">
-        <is>
-          <t>VLeche</t>
+      <c r="X512" t="inlineStr">
+        <is>
+          <t>x</t>
         </is>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>X...11</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
@@ -20929,16 +20934,16 @@
       <c r="E513">
         <v>3.03030303030303</v>
       </c>
-      <c r="X513" t="inlineStr">
-        <is>
-          <t>x</t>
+      <c r="AA513" t="inlineStr">
+        <is>
+          <t>x...11</t>
         </is>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>X...11</t>
+          <t>X...24</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
@@ -20961,14 +20966,14 @@
       </c>
       <c r="AA514" t="inlineStr">
         <is>
-          <t>x...11</t>
+          <t>x...24</t>
         </is>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>X...24</t>
+          <t>X...38</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
@@ -20991,14 +20996,14 @@
       </c>
       <c r="AA515" t="inlineStr">
         <is>
-          <t>x...24</t>
+          <t>x...38</t>
         </is>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>X...38</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
@@ -21019,16 +21024,16 @@
       <c r="E516">
         <v>3.03030303030303</v>
       </c>
-      <c r="AA516" t="inlineStr">
-        <is>
-          <t>x...38</t>
+      <c r="X516" t="inlineStr">
+        <is>
+          <t>y</t>
         </is>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>Y...12</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
@@ -21049,16 +21054,16 @@
       <c r="E517">
         <v>3.03030303030303</v>
       </c>
-      <c r="X517" t="inlineStr">
-        <is>
-          <t>y</t>
+      <c r="AA517" t="inlineStr">
+        <is>
+          <t>y...12</t>
         </is>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>Y...12</t>
+          <t>Y...25</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
@@ -21081,14 +21086,14 @@
       </c>
       <c r="AA518" t="inlineStr">
         <is>
-          <t>y...12</t>
+          <t>y...25</t>
         </is>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>Y...25</t>
+          <t>Y...39</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
@@ -21111,14 +21116,14 @@
       </c>
       <c r="AA519" t="inlineStr">
         <is>
-          <t>y...25</t>
+          <t>y...39</t>
         </is>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>Y...39</t>
+          <t>ZONA</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
@@ -21139,16 +21144,16 @@
       <c r="E520">
         <v>3.03030303030303</v>
       </c>
-      <c r="AA520" t="inlineStr">
-        <is>
-          <t>y...39</t>
+      <c r="F520" t="inlineStr">
+        <is>
+          <t>Zona</t>
         </is>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>ZONA</t>
+          <t>ZONA (GEOREFERENCIADO)</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
@@ -21169,16 +21174,16 @@
       <c r="E521">
         <v>3.03030303030303</v>
       </c>
-      <c r="F521" t="inlineStr">
-        <is>
-          <t>Zona</t>
+      <c r="Z521" t="inlineStr">
+        <is>
+          <t>ZONA (Georeferenciado)</t>
         </is>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>ZONA (GEOREFERENCIADO)</t>
+          <t>ZONA SEDE</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
@@ -21199,16 +21204,16 @@
       <c r="E522">
         <v>3.03030303030303</v>
       </c>
-      <c r="Z522" t="inlineStr">
-        <is>
-          <t>ZONA (Georeferenciado)</t>
+      <c r="N522" t="inlineStr">
+        <is>
+          <t>ZONA SEDE</t>
         </is>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>ZONA SEDE</t>
+          <t>ZONA SINEB</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
@@ -21229,16 +21234,16 @@
       <c r="E523">
         <v>3.03030303030303</v>
       </c>
-      <c r="N523" t="inlineStr">
-        <is>
-          <t>ZONA SEDE</t>
+      <c r="Z523" t="inlineStr">
+        <is>
+          <t>ZONA SINEB</t>
         </is>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>ZONA SINEB</t>
+          <t>ZONA_RESIDE_ALUM</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
@@ -21259,16 +21264,16 @@
       <c r="E524">
         <v>3.03030303030303</v>
       </c>
-      <c r="Z524" t="inlineStr">
-        <is>
-          <t>ZONA SINEB</t>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>zona_reside_alum</t>
         </is>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>ZONA_RESIDE_ALUM</t>
+          <t>º</t>
         </is>
       </c>
       <c r="B525" t="inlineStr">
@@ -21289,37 +21294,7 @@
       <c r="E525">
         <v>3.03030303030303</v>
       </c>
-      <c r="K525" t="inlineStr">
-        <is>
-          <t>zona_reside_alum</t>
-        </is>
-      </c>
-    </row>
-    <row r="526">
-      <c r="A526" t="inlineStr">
-        <is>
-          <t>º</t>
-        </is>
-      </c>
-      <c r="B526" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
-      <c r="C526" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
-      <c r="D526" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
-      <c r="E526">
-        <v>3.03030303030303</v>
-      </c>
-      <c r="V526" t="inlineStr">
+      <c r="V525" t="inlineStr">
         <is>
           <t>º</t>
         </is>
@@ -23603,6 +23578,11 @@
           <t>character</t>
         </is>
       </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>character</t>
+        </is>
+      </c>
       <c r="H23" t="inlineStr">
         <is>
           <t>character</t>
